--- a/1USEPA_PSDM/3PSDM_EditMathieu/Example_TCE_F400_example1.xlsx
+++ b/1USEPA_PSDM/3PSDM_EditMathieu/Example_TCE_F400_example1.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="model-Trichloroethylene" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="model-PFHpA" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +453,7 @@
         <v>0.25</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>3.495590534349885</v>
       </c>
     </row>
     <row r="4">
@@ -461,7 +461,7 @@
         <v>0.5</v>
       </c>
       <c r="B4" t="n">
-        <v>5.498438447896618</v>
+        <v>5.238479979940185</v>
       </c>
     </row>
     <row r="5">
@@ -469,7 +469,7 @@
         <v>0.75</v>
       </c>
       <c r="B5" t="n">
-        <v>11.57829563933071</v>
+        <v>3.366475066539471</v>
       </c>
     </row>
     <row r="6">
@@ -477,7 +477,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>14.31557495028618</v>
+        <v>0.2262812549415498</v>
       </c>
     </row>
     <row r="7">
@@ -485,7 +485,7 @@
         <v>1.25</v>
       </c>
       <c r="B7" t="n">
-        <v>14.32016501259223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -493,7 +493,7 @@
         <v>1.5</v>
       </c>
       <c r="B8" t="n">
-        <v>12.21422366934613</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -501,7 +501,7 @@
         <v>1.75</v>
       </c>
       <c r="B9" t="n">
-        <v>8.573568272752059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -509,7 +509,7 @@
         <v>2</v>
       </c>
       <c r="B10" t="n">
-        <v>3.89737634179564</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -541,7 +541,7 @@
         <v>3</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1.35509423586344</v>
       </c>
     </row>
     <row r="15">
@@ -549,7 +549,7 @@
         <v>3.25</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>4.360395166949976</v>
       </c>
     </row>
     <row r="16">
@@ -557,7 +557,7 @@
         <v>3.5</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>7.141062602912807</v>
       </c>
     </row>
     <row r="17">
@@ -565,7 +565,7 @@
         <v>3.75</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>9.466760661345679</v>
       </c>
     </row>
     <row r="18">
@@ -573,7 +573,7 @@
         <v>4</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>11.06613090741053</v>
       </c>
     </row>
     <row r="19">
@@ -581,7 +581,7 @@
         <v>4.25</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>11.73837128462747</v>
       </c>
     </row>
     <row r="20">
@@ -589,7 +589,7 @@
         <v>4.5</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>11.3732649506826</v>
       </c>
     </row>
     <row r="21">
@@ -597,7 +597,7 @@
         <v>4.75</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>9.924324955437589</v>
       </c>
     </row>
     <row r="22">
@@ -605,7 +605,7 @@
         <v>5</v>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>7.502459276707421</v>
       </c>
     </row>
     <row r="23">
@@ -613,7 +613,7 @@
         <v>5.25</v>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>4.316342636852091</v>
       </c>
     </row>
     <row r="24">
@@ -621,7 +621,7 @@
         <v>5.5</v>
       </c>
       <c r="B24" t="n">
-        <v>3.017067868601256</v>
+        <v>0.5946900780401307</v>
       </c>
     </row>
     <row r="25">
@@ -629,7 +629,7 @@
         <v>5.75</v>
       </c>
       <c r="B25" t="n">
-        <v>9.033967030687135</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -637,7 +637,7 @@
         <v>6</v>
       </c>
       <c r="B26" t="n">
-        <v>14.93953681944098</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -645,7 +645,7 @@
         <v>6.25</v>
       </c>
       <c r="B27" t="n">
-        <v>20.47271528301192</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -653,7 +653,7 @@
         <v>6.5</v>
       </c>
       <c r="B28" t="n">
-        <v>25.37160608014472</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -661,7 +661,7 @@
         <v>6.75</v>
       </c>
       <c r="B29" t="n">
-        <v>29.38860592053736</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -669,7 +669,7 @@
         <v>7</v>
       </c>
       <c r="B30" t="n">
-        <v>32.33285023887432</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -677,7 +677,7 @@
         <v>7.25</v>
       </c>
       <c r="B31" t="n">
-        <v>34.07905465426727</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -685,7 +685,7 @@
         <v>7.5</v>
       </c>
       <c r="B32" t="n">
-        <v>34.55035049957022</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -693,7 +693,7 @@
         <v>7.75</v>
       </c>
       <c r="B33" t="n">
-        <v>33.72260226129237</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -701,7 +701,7 @@
         <v>8</v>
       </c>
       <c r="B34" t="n">
-        <v>31.62113005319318</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -709,7 +709,7 @@
         <v>8.25</v>
       </c>
       <c r="B35" t="n">
-        <v>28.31826518237986</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -717,7 +717,7 @@
         <v>8.5</v>
       </c>
       <c r="B36" t="n">
-        <v>23.92530439669299</v>
+        <v>2.483365290197972</v>
       </c>
     </row>
     <row r="37">
@@ -725,7 +725,7 @@
         <v>8.75</v>
       </c>
       <c r="B37" t="n">
-        <v>18.58040242109094</v>
+        <v>6.986305304245932</v>
       </c>
     </row>
     <row r="38">
@@ -733,7 +733,7 @@
         <v>9</v>
       </c>
       <c r="B38" t="n">
-        <v>12.44483609248779</v>
+        <v>11.29207930977232</v>
       </c>
     </row>
     <row r="39">
@@ -741,7 +741,7 @@
         <v>9.25</v>
       </c>
       <c r="B39" t="n">
-        <v>5.690879604251484</v>
+        <v>15.2046678690718</v>
       </c>
     </row>
     <row r="40">
@@ -749,7 +749,7 @@
         <v>9.5</v>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>18.58331526646004</v>
       </c>
     </row>
     <row r="41">
@@ -757,7 +757,7 @@
         <v>9.75</v>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>21.09075613530631</v>
       </c>
     </row>
     <row r="42">
@@ -765,7 +765,7 @@
         <v>10</v>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>22.3395668101484</v>
       </c>
     </row>
     <row r="43">
@@ -773,7 +773,7 @@
         <v>10.25</v>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>22.11458322240154</v>
       </c>
     </row>
     <row r="44">
@@ -781,7 +781,7 @@
         <v>10.5</v>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>20.25938565163721</v>
       </c>
     </row>
     <row r="45">
@@ -789,7 +789,7 @@
         <v>10.75</v>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>16.72894925197891</v>
       </c>
     </row>
     <row r="46">
@@ -797,7 +797,7 @@
         <v>11</v>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>11.81273954051036</v>
       </c>
     </row>
     <row r="47">
@@ -805,7 +805,7 @@
         <v>11.25</v>
       </c>
       <c r="B47" t="n">
-        <v>0</v>
+        <v>5.812062802426916</v>
       </c>
     </row>
     <row r="48">
@@ -813,7 +813,7 @@
         <v>11.5</v>
       </c>
       <c r="B48" t="n">
-        <v>0</v>
+        <v>0.1961045058701218</v>
       </c>
     </row>
     <row r="49">
@@ -893,7 +893,7 @@
         <v>14</v>
       </c>
       <c r="B58" t="n">
-        <v>4.589225521989031</v>
+        <v>2.485877158857479</v>
       </c>
     </row>
     <row r="59">
@@ -901,7 +901,7 @@
         <v>14.25</v>
       </c>
       <c r="B59" t="n">
-        <v>13.87486945481364</v>
+        <v>12.18499427952869</v>
       </c>
     </row>
     <row r="60">
@@ -909,7 +909,7 @@
         <v>14.5</v>
       </c>
       <c r="B60" t="n">
-        <v>23.24787478079124</v>
+        <v>22.64567339575423</v>
       </c>
     </row>
     <row r="61">
@@ -917,7 +917,7 @@
         <v>14.75</v>
       </c>
       <c r="B61" t="n">
-        <v>32.44077710889746</v>
+        <v>33.75857787490381</v>
       </c>
     </row>
     <row r="62">
@@ -925,7 +925,7 @@
         <v>15</v>
       </c>
       <c r="B62" t="n">
-        <v>41.16695565930142</v>
+        <v>45.75534625748151</v>
       </c>
     </row>
     <row r="63">
@@ -933,7 +933,7 @@
         <v>15.25</v>
       </c>
       <c r="B63" t="n">
-        <v>49.12717880500562</v>
+        <v>59.52039534090056</v>
       </c>
     </row>
     <row r="64">
@@ -941,7 +941,7 @@
         <v>15.5</v>
       </c>
       <c r="B64" t="n">
-        <v>55.98070174661964</v>
+        <v>77.66894216343964</v>
       </c>
     </row>
     <row r="65">
@@ -949,7 +949,7 @@
         <v>15.75</v>
       </c>
       <c r="B65" t="n">
-        <v>61.40274778274399</v>
+        <v>105.2565242526354</v>
       </c>
     </row>
     <row r="66">
@@ -957,7 +957,7 @@
         <v>16</v>
       </c>
       <c r="B66" t="n">
-        <v>65.22732029644764</v>
+        <v>150.3806890790632</v>
       </c>
     </row>
     <row r="67">
@@ -965,7 +965,7 @@
         <v>16.25</v>
       </c>
       <c r="B67" t="n">
-        <v>67.31141730428594</v>
+        <v>224.6856747183867</v>
       </c>
     </row>
     <row r="68">
@@ -973,7 +973,7 @@
         <v>16.5</v>
       </c>
       <c r="B68" t="n">
-        <v>67.52886846726807</v>
+        <v>343.8638522984218</v>
       </c>
     </row>
     <row r="69">
@@ -981,7 +981,7 @@
         <v>16.75</v>
       </c>
       <c r="B69" t="n">
-        <v>65.78590417919511</v>
+        <v>528.2092032085396</v>
       </c>
     </row>
     <row r="70">
@@ -989,7 +989,7 @@
         <v>17</v>
       </c>
       <c r="B70" t="n">
-        <v>62.02955355867142</v>
+        <v>803.0285865795286</v>
       </c>
     </row>
     <row r="71">
@@ -997,7 +997,7 @@
         <v>17.25</v>
       </c>
       <c r="B71" t="n">
-        <v>56.25460928327359</v>
+        <v>1198.466934905306</v>
       </c>
     </row>
     <row r="72">
@@ -1005,7 +1005,7 @@
         <v>17.5</v>
       </c>
       <c r="B72" t="n">
-        <v>48.51219546068283</v>
+        <v>1747.95327219981</v>
       </c>
     </row>
     <row r="73">
@@ -1013,7 +1013,7 @@
         <v>17.75</v>
       </c>
       <c r="B73" t="n">
-        <v>38.9137559979451</v>
+        <v>2484.954207556561</v>
       </c>
     </row>
     <row r="74">
@@ -1021,7 +1021,7 @@
         <v>18</v>
       </c>
       <c r="B74" t="n">
-        <v>27.63232903527297</v>
+        <v>3438.25947986327</v>
       </c>
     </row>
     <row r="75">
@@ -1029,7 +1029,7 @@
         <v>18.25</v>
       </c>
       <c r="B75" t="n">
-        <v>14.89403789583092</v>
+        <v>4626.914915430616</v>
       </c>
     </row>
     <row r="76">
@@ -1037,7 +1037,7 @@
         <v>18.5</v>
       </c>
       <c r="B76" t="n">
-        <v>1.542850889830907</v>
+        <v>6056.325516323167</v>
       </c>
     </row>
     <row r="77">
@@ -1045,7 +1045,7 @@
         <v>18.75</v>
       </c>
       <c r="B77" t="n">
-        <v>0</v>
+        <v>7716.722557672148</v>
       </c>
     </row>
     <row r="78">
@@ -1053,7 +1053,7 @@
         <v>19</v>
       </c>
       <c r="B78" t="n">
-        <v>0</v>
+        <v>9584.290360470954</v>
       </c>
     </row>
     <row r="79">
@@ -1061,7 +1061,7 @@
         <v>19.25</v>
       </c>
       <c r="B79" t="n">
-        <v>0</v>
+        <v>11624.33914136526</v>
       </c>
     </row>
     <row r="80">
@@ -1069,7 +1069,7 @@
         <v>19.5</v>
       </c>
       <c r="B80" t="n">
-        <v>0</v>
+        <v>13795.45305139431</v>
       </c>
     </row>
     <row r="81">
@@ -1077,7 +1077,7 @@
         <v>19.75</v>
       </c>
       <c r="B81" t="n">
-        <v>0</v>
+        <v>16053.60680322537</v>
       </c>
     </row>
     <row r="82">
@@ -1085,7 +1085,7 @@
         <v>20</v>
       </c>
       <c r="B82" t="n">
-        <v>0</v>
+        <v>18355.60157799035</v>
       </c>
     </row>
     <row r="83">
@@ -1093,7 +1093,7 @@
         <v>20.25</v>
       </c>
       <c r="B83" t="n">
-        <v>0</v>
+        <v>20661.55747681306</v>
       </c>
     </row>
     <row r="84">
@@ -1101,7 +1101,7 @@
         <v>20.5</v>
       </c>
       <c r="B84" t="n">
-        <v>0</v>
+        <v>22936.47388804657</v>
       </c>
     </row>
     <row r="85">
@@ -1109,7 +1109,7 @@
         <v>20.75</v>
       </c>
       <c r="B85" t="n">
-        <v>0</v>
+        <v>25151.01216034029</v>
       </c>
     </row>
     <row r="86">
@@ -1117,7 +1117,7 @@
         <v>21</v>
       </c>
       <c r="B86" t="n">
-        <v>0</v>
+        <v>27281.62636060831</v>
       </c>
     </row>
     <row r="87">
@@ -1125,7 +1125,7 @@
         <v>21.25</v>
       </c>
       <c r="B87" t="n">
-        <v>0</v>
+        <v>29311.14963491149</v>
       </c>
     </row>
     <row r="88">
@@ -1133,7 +1133,7 @@
         <v>21.5</v>
       </c>
       <c r="B88" t="n">
-        <v>0</v>
+        <v>31226.8186599044</v>
       </c>
     </row>
     <row r="89">
@@ -1141,7 +1141,7 @@
         <v>21.75</v>
       </c>
       <c r="B89" t="n">
-        <v>0</v>
+        <v>33020.63706812442</v>
       </c>
     </row>
     <row r="90">
@@ -1149,7 +1149,7 @@
         <v>22</v>
       </c>
       <c r="B90" t="n">
-        <v>0</v>
+        <v>34688.58266600779</v>
       </c>
     </row>
     <row r="91">
@@ -1157,7 +1157,7 @@
         <v>22.25</v>
       </c>
       <c r="B91" t="n">
-        <v>0</v>
+        <v>36229.88578830748</v>
       </c>
     </row>
     <row r="92">
@@ -1165,7 +1165,7 @@
         <v>22.5</v>
       </c>
       <c r="B92" t="n">
-        <v>0.8145384070500858</v>
+        <v>37646.33477261553</v>
       </c>
     </row>
     <row r="93">
@@ -1173,7 +1173,7 @@
         <v>22.75</v>
       </c>
       <c r="B93" t="n">
-        <v>20.38893261972171</v>
+        <v>38941.50805832558</v>
       </c>
     </row>
     <row r="94">
@@ -1181,7 +1181,7 @@
         <v>23</v>
       </c>
       <c r="B94" t="n">
-        <v>43.35384019769514</v>
+        <v>40120.76149275241</v>
       </c>
     </row>
     <row r="95">
@@ -1189,7 +1189,7 @@
         <v>23.25</v>
       </c>
       <c r="B95" t="n">
-        <v>66.73007333941193</v>
+        <v>41190.34503644636</v>
       </c>
     </row>
     <row r="96">
@@ -1197,7 +1197,7 @@
         <v>23.5</v>
       </c>
       <c r="B96" t="n">
-        <v>89.36690651877196</v>
+        <v>42157.10878353347</v>
       </c>
     </row>
     <row r="97">
@@ -1205,7 +1205,7 @@
         <v>23.75</v>
       </c>
       <c r="B97" t="n">
-        <v>109.7902303356407</v>
+        <v>43028.23819428473</v>
       </c>
     </row>
     <row r="98">
@@ -1213,7 +1213,7 @@
         <v>24</v>
       </c>
       <c r="B98" t="n">
-        <v>126.128712540775</v>
+        <v>43811.13321571933</v>
       </c>
     </row>
     <row r="99">
@@ -1221,7 +1221,7 @@
         <v>24.25</v>
       </c>
       <c r="B99" t="n">
-        <v>137.5625210174038</v>
+        <v>44512.91173681382</v>
       </c>
     </row>
     <row r="100">
@@ -1229,7 +1229,7 @@
         <v>24.5</v>
       </c>
       <c r="B100" t="n">
-        <v>143.0638697685043</v>
+        <v>45140.63883261203</v>
       </c>
     </row>
     <row r="101">
@@ -1237,7 +1237,7 @@
         <v>24.75</v>
       </c>
       <c r="B101" t="n">
-        <v>141.3390972061684</v>
+        <v>45701.03458750749</v>
       </c>
     </row>
     <row r="102">
@@ -1245,7 +1245,7 @@
         <v>25</v>
       </c>
       <c r="B102" t="n">
-        <v>131.0345236029529</v>
+        <v>46200.34450136519</v>
       </c>
     </row>
     <row r="103">
@@ -1253,7 +1253,7 @@
         <v>25.25</v>
       </c>
       <c r="B103" t="n">
-        <v>110.976732529864</v>
+        <v>46644.56850161279</v>
       </c>
     </row>
     <row r="104">
@@ -1261,7 +1261,7 @@
         <v>25.5</v>
       </c>
       <c r="B104" t="n">
-        <v>80.48716404202014</v>
+        <v>47039.29183925689</v>
       </c>
     </row>
     <row r="105">
@@ -1269,7 +1269,7 @@
         <v>25.75</v>
       </c>
       <c r="B105" t="n">
-        <v>39.70439818721324</v>
+        <v>47389.49496337817</v>
       </c>
     </row>
     <row r="106">
@@ -1277,7 +1277,7 @@
         <v>26</v>
       </c>
       <c r="B106" t="n">
-        <v>0.2102504615877194</v>
+        <v>47699.87546452016</v>
       </c>
     </row>
     <row r="107">
@@ -1285,7 +1285,7 @@
         <v>26.25</v>
       </c>
       <c r="B107" t="n">
-        <v>0</v>
+        <v>47974.68751510754</v>
       </c>
     </row>
     <row r="108">
@@ -1293,7 +1293,7 @@
         <v>26.5</v>
       </c>
       <c r="B108" t="n">
-        <v>0</v>
+        <v>48217.71712909782</v>
       </c>
     </row>
     <row r="109">
@@ -1301,7 +1301,7 @@
         <v>26.75</v>
       </c>
       <c r="B109" t="n">
-        <v>0</v>
+        <v>48432.43262209351</v>
       </c>
     </row>
     <row r="110">
@@ -1309,7 +1309,7 @@
         <v>27</v>
       </c>
       <c r="B110" t="n">
-        <v>0</v>
+        <v>48622.00872397411</v>
       </c>
     </row>
     <row r="111">
@@ -1317,7 +1317,7 @@
         <v>27.25</v>
       </c>
       <c r="B111" t="n">
-        <v>0</v>
+        <v>48789.27082651793</v>
       </c>
     </row>
     <row r="112">
@@ -1325,7 +1325,7 @@
         <v>27.5</v>
       </c>
       <c r="B112" t="n">
-        <v>2.367045751449941</v>
+        <v>48936.74200268068</v>
       </c>
     </row>
     <row r="113">
@@ -1333,7 +1333,7 @@
         <v>27.75</v>
       </c>
       <c r="B113" t="n">
-        <v>150.0752728466131</v>
+        <v>49066.67120410574</v>
       </c>
     </row>
     <row r="114">
@@ -1341,7 +1341,7 @@
         <v>28</v>
       </c>
       <c r="B114" t="n">
-        <v>383.8621745929641</v>
+        <v>49181.07900819258</v>
       </c>
     </row>
     <row r="115">
@@ -1349,7 +1349,7 @@
         <v>28.25</v>
       </c>
       <c r="B115" t="n">
-        <v>710.5807975167012</v>
+        <v>49281.7694604804</v>
       </c>
     </row>
     <row r="116">
@@ -1357,7 +1357,7 @@
         <v>28.5</v>
       </c>
       <c r="B116" t="n">
-        <v>1194.098109220074</v>
+        <v>49370.34816846441</v>
       </c>
     </row>
     <row r="117">
@@ -1365,7 +1365,7 @@
         <v>28.75</v>
       </c>
       <c r="B117" t="n">
-        <v>1958.546413898379</v>
+        <v>49448.22810672608</v>
       </c>
     </row>
     <row r="118">
@@ -1373,7 +1373,7 @@
         <v>29</v>
       </c>
       <c r="B118" t="n">
-        <v>3185.283094959121</v>
+        <v>49516.6559953521</v>
       </c>
     </row>
     <row r="119">
@@ -1381,7 +1381,7 @@
         <v>29.25</v>
       </c>
       <c r="B119" t="n">
-        <v>5065.37694809772</v>
+        <v>49576.74550498147</v>
       </c>
     </row>
     <row r="120">
@@ -1389,7 +1389,7 @@
         <v>29.5</v>
       </c>
       <c r="B120" t="n">
-        <v>7705.383864105595</v>
+        <v>49629.49868162533</v>
       </c>
     </row>
     <row r="121">
@@ -1397,7 +1397,7 @@
         <v>29.75</v>
       </c>
       <c r="B121" t="n">
-        <v>11032.83873185745</v>
+        <v>49675.79528213717</v>
       </c>
     </row>
     <row r="122">
@@ -1405,7 +1405,7 @@
         <v>30</v>
       </c>
       <c r="B122" t="n">
-        <v>14803.88164889151</v>
+        <v>49716.40785814948</v>
       </c>
     </row>
     <row r="123">
@@ -1413,7 +1413,7 @@
         <v>30.25</v>
       </c>
       <c r="B123" t="n">
-        <v>18725.17678923182</v>
+        <v>49752.01628255302</v>
       </c>
     </row>
     <row r="124">
@@ -1421,7 +1421,7 @@
         <v>30.5</v>
       </c>
       <c r="B124" t="n">
-        <v>22563.23517291309</v>
+        <v>49783.23764167618</v>
       </c>
     </row>
     <row r="125">
@@ -1429,7 +1429,7 @@
         <v>30.75</v>
       </c>
       <c r="B125" t="n">
-        <v>26173.18769827263</v>
+        <v>49810.59358888919</v>
       </c>
     </row>
     <row r="126">
@@ -1437,7 +1437,7 @@
         <v>31</v>
       </c>
       <c r="B126" t="n">
-        <v>29485.91893438826</v>
+        <v>49834.54514296023</v>
       </c>
     </row>
     <row r="127">
@@ -1445,7 +1445,7 @@
         <v>31.25</v>
       </c>
       <c r="B127" t="n">
-        <v>32464.9302942369</v>
+        <v>49855.52072258486</v>
       </c>
     </row>
     <row r="128">
@@ -1453,7 +1453,7 @@
         <v>31.5</v>
       </c>
       <c r="B128" t="n">
-        <v>35105.36403118279</v>
+        <v>49873.87979417203</v>
       </c>
     </row>
     <row r="129">
@@ -1461,7 +1461,7 @@
         <v>31.75</v>
       </c>
       <c r="B129" t="n">
-        <v>37418.17036388929</v>
+        <v>49889.94266410318</v>
       </c>
     </row>
     <row r="130">
@@ -1469,7 +1469,7 @@
         <v>32</v>
       </c>
       <c r="B130" t="n">
-        <v>39423.54701698056</v>
+        <v>49903.99123206816</v>
       </c>
     </row>
     <row r="131">
@@ -1477,7 +1477,7 @@
         <v>32.25</v>
       </c>
       <c r="B131" t="n">
-        <v>41146.91414432603</v>
+        <v>49916.15255696834</v>
       </c>
     </row>
     <row r="132">
@@ -1485,7 +1485,7 @@
         <v>32.5</v>
       </c>
       <c r="B132" t="n">
-        <v>42616.55213555339</v>
+        <v>49926.77273634627</v>
       </c>
     </row>
     <row r="133">
@@ -1493,7 +1493,7 @@
         <v>32.75</v>
       </c>
       <c r="B133" t="n">
-        <v>43861.49954731193</v>
+        <v>49936.06067300132</v>
       </c>
     </row>
     <row r="134">
@@ -1501,7 +1501,7 @@
         <v>33</v>
       </c>
       <c r="B134" t="n">
-        <v>44910.08736799625</v>
+        <v>49944.18699899617</v>
       </c>
     </row>
     <row r="135">
@@ -1509,7 +1509,7 @@
         <v>33.25</v>
       </c>
       <c r="B135" t="n">
-        <v>45788.95880997144</v>
+        <v>49951.29525162743</v>
       </c>
     </row>
     <row r="136">
@@ -1517,7 +1517,7 @@
         <v>33.5</v>
       </c>
       <c r="B136" t="n">
-        <v>46522.48807462848</v>
+        <v>49957.51101023182</v>
       </c>
     </row>
     <row r="137">
@@ -1525,7 +1525,7 @@
         <v>33.75</v>
       </c>
       <c r="B137" t="n">
-        <v>47132.5090781272</v>
+        <v>49962.94468786423</v>
       </c>
     </row>
     <row r="138">
@@ -1533,7 +1533,7 @@
         <v>34</v>
       </c>
       <c r="B138" t="n">
-        <v>47638.24952810521</v>
+        <v>49967.69322011891</v>
       </c>
     </row>
     <row r="139">
@@ -1541,7 +1541,7 @@
         <v>34.25</v>
       </c>
       <c r="B139" t="n">
-        <v>48056.41252816188</v>
+        <v>49971.84171483699</v>
       </c>
     </row>
     <row r="140">
@@ -1549,7 +1549,7 @@
         <v>34.5</v>
       </c>
       <c r="B140" t="n">
-        <v>48401.37327362787</v>
+        <v>49975.46487296352</v>
       </c>
     </row>
     <row r="141">
@@ -1557,7 +1557,7 @@
         <v>34.75</v>
       </c>
       <c r="B141" t="n">
-        <v>48685.38885623898</v>
+        <v>49978.62824140676</v>
       </c>
     </row>
     <row r="142">
@@ -1565,7 +1565,7 @@
         <v>35</v>
       </c>
       <c r="B142" t="n">
-        <v>48918.83809479083</v>
+        <v>49981.38931653262</v>
       </c>
     </row>
     <row r="143">
@@ -1573,7 +1573,7 @@
         <v>35.25</v>
       </c>
       <c r="B143" t="n">
-        <v>49110.45833687986</v>
+        <v>49983.79851660345</v>
       </c>
     </row>
     <row r="144">
@@ -1581,7 +1581,7 @@
         <v>35.5</v>
       </c>
       <c r="B144" t="n">
-        <v>49267.56931699644</v>
+        <v>49985.90003870666</v>
       </c>
     </row>
     <row r="145">
@@ -1589,7 +1589,7 @@
         <v>35.75</v>
       </c>
       <c r="B145" t="n">
-        <v>49396.27683111567</v>
+        <v>49987.73261373683</v>
       </c>
     </row>
     <row r="146">
@@ -1597,7 +1597,7 @@
         <v>36</v>
       </c>
       <c r="B146" t="n">
-        <v>49501.65575049928</v>
+        <v>49989.33017136965</v>
       </c>
     </row>
     <row r="147">
@@ -1605,7 +1605,7 @@
         <v>36.25</v>
       </c>
       <c r="B147" t="n">
-        <v>49587.91020371358</v>
+        <v>49990.72242556277</v>
       </c>
     </row>
     <row r="148">
@@ -1613,7 +1613,7 @@
         <v>36.5</v>
       </c>
       <c r="B148" t="n">
-        <v>49658.51114838551</v>
+        <v>49991.93538990324</v>
       </c>
     </row>
     <row r="149">
@@ -1621,7 +1621,7 @@
         <v>36.75</v>
       </c>
       <c r="B149" t="n">
-        <v>49716.32113857451</v>
+        <v>49992.99183104853</v>
       </c>
     </row>
     <row r="150">
@@ -1629,7 +1629,7 @@
         <v>37</v>
       </c>
       <c r="B150" t="n">
-        <v>49763.69131133288</v>
+        <v>49993.91166755583</v>
       </c>
     </row>
     <row r="151">
@@ -1637,7 +1637,7 @@
         <v>37.25</v>
       </c>
       <c r="B151" t="n">
-        <v>49802.5462402769</v>
+        <v>49994.71232055678</v>
       </c>
     </row>
     <row r="152">
@@ -1645,7 +1645,7 @@
         <v>37.5</v>
       </c>
       <c r="B152" t="n">
-        <v>49834.46291680053</v>
+        <v>49995.40902197807</v>
       </c>
     </row>
     <row r="153">
@@ -1653,7 +1653,7 @@
         <v>37.75</v>
       </c>
       <c r="B153" t="n">
-        <v>49860.73056036557</v>
+        <v>49996.01508536522</v>
       </c>
     </row>
     <row r="154">
@@ -1661,7 +1661,7 @@
         <v>38</v>
       </c>
       <c r="B154" t="n">
-        <v>49882.40368672756</v>
+        <v>49996.54214375243</v>
       </c>
     </row>
     <row r="155">
@@ -1669,7 +1669,7 @@
         <v>38.25</v>
       </c>
       <c r="B155" t="n">
-        <v>49900.31333612269</v>
+        <v>49997.0003585271</v>
       </c>
     </row>
     <row r="156">
@@ -1677,7 +1677,7 @@
         <v>38.5</v>
       </c>
       <c r="B156" t="n">
-        <v>49915.17106946758</v>
+        <v>49997.39860275802</v>
       </c>
     </row>
     <row r="157">
@@ -1685,7 +1685,7 @@
         <v>38.75</v>
       </c>
       <c r="B157" t="n">
-        <v>49927.36251575765</v>
+        <v>49997.74462205818</v>
       </c>
     </row>
     <row r="158">
@@ -1693,7 +1693,7 @@
         <v>39</v>
       </c>
       <c r="B158" t="n">
-        <v>49937.53878259507</v>
+        <v>49998.04517568455</v>
       </c>
     </row>
     <row r="159">
@@ -1701,7 +1701,7 @@
         <v>39.25</v>
       </c>
       <c r="B159" t="n">
-        <v>49946.09676837322</v>
+        <v>49998.30616026338</v>
       </c>
     </row>
     <row r="160">
@@ -1709,7 +1709,7 @@
         <v>39.5</v>
       </c>
       <c r="B160" t="n">
-        <v>49953.32032363728</v>
+        <v>49998.53271824356</v>
       </c>
     </row>
     <row r="161">
@@ -1717,7 +1717,7 @@
         <v>39.75</v>
       </c>
       <c r="B161" t="n">
-        <v>49959.44012257161</v>
+        <v>49998.72933293084</v>
       </c>
     </row>
     <row r="162">
@@ -1725,7 +1725,7 @@
         <v>40</v>
       </c>
       <c r="B162" t="n">
-        <v>49964.64415368951</v>
+        <v>49998.89991173454</v>
       </c>
     </row>
     <row r="163">
@@ -1733,7 +1733,7 @@
         <v>40.25</v>
       </c>
       <c r="B163" t="n">
-        <v>49969.08584988417</v>
+        <v>49999.04785906622</v>
       </c>
     </row>
     <row r="164">
@@ -1741,7 +1741,7 @@
         <v>40.5</v>
       </c>
       <c r="B164" t="n">
-        <v>49972.89068357746</v>
+        <v>49999.17614015338</v>
       </c>
     </row>
     <row r="165">
@@ -1749,7 +1749,7 @@
         <v>40.75</v>
       </c>
       <c r="B165" t="n">
-        <v>49976.16150847132</v>
+        <v>49999.28733688345</v>
       </c>
     </row>
     <row r="166">
@@ -1757,7 +1757,7 @@
         <v>41</v>
       </c>
       <c r="B166" t="n">
-        <v>49978.98287700806</v>
+        <v>49999.38369665462</v>
       </c>
     </row>
     <row r="167">
@@ -1765,7 +1765,7 @@
         <v>41.25</v>
       </c>
       <c r="B167" t="n">
-        <v>49981.42452269148</v>
+        <v>49999.46717509739</v>
       </c>
     </row>
     <row r="168">
@@ -1773,7 +1773,7 @@
         <v>41.5</v>
       </c>
       <c r="B168" t="n">
-        <v>49983.5441637324</v>
+        <v>49999.53947342183</v>
       </c>
     </row>
     <row r="169">
@@ -1781,7 +1781,7 @@
         <v>41.75</v>
       </c>
       <c r="B169" t="n">
-        <v>49985.38975712216</v>
+        <v>49999.60207105715</v>
       </c>
     </row>
     <row r="170">
@@ -1789,7 +1789,7 @@
         <v>42</v>
       </c>
       <c r="B170" t="n">
-        <v>49987.0013092529</v>
+        <v>49999.65625416286</v>
       </c>
     </row>
     <row r="171">
@@ -1797,7 +1797,7 @@
         <v>42.25</v>
       </c>
       <c r="B171" t="n">
-        <v>49988.41232993065</v>
+        <v>49999.70314053549</v>
       </c>
     </row>
     <row r="172">
@@ -1805,7 +1805,7 @@
         <v>42.5</v>
       </c>
       <c r="B172" t="n">
-        <v>49989.65100052389</v>
+        <v>49999.74370134554</v>
       </c>
     </row>
     <row r="173">
@@ -1813,7 +1813,7 @@
         <v>42.75</v>
       </c>
       <c r="B173" t="n">
-        <v>49990.74111360349</v>
+        <v>49999.77878011359</v>
       </c>
     </row>
     <row r="174">
@@ -1821,7 +1821,7 @@
         <v>43</v>
       </c>
       <c r="B174" t="n">
-        <v>49991.70283035013</v>
+        <v>49999.80910926455</v>
       </c>
     </row>
     <row r="175">
@@ -1829,7 +1829,7 @@
         <v>43.25</v>
       </c>
       <c r="B175" t="n">
-        <v>49992.55329288922</v>
+        <v>49999.83532456679</v>
       </c>
     </row>
     <row r="176">
@@ -1837,7 +1837,7 @@
         <v>43.5</v>
       </c>
       <c r="B176" t="n">
-        <v>49993.30712125319</v>
+        <v>49999.85797771813</v>
       </c>
     </row>
     <row r="177">
@@ -1845,7 +1845,7 @@
         <v>43.75</v>
       </c>
       <c r="B177" t="n">
-        <v>49993.97681860127</v>
+        <v>49999.87754732173</v>
       </c>
     </row>
     <row r="178">
@@ -1853,7 +1853,7 @@
         <v>44</v>
       </c>
       <c r="B178" t="n">
-        <v>49994.57310341787</v>
+        <v>49999.89444844276</v>
       </c>
     </row>
     <row r="179">
@@ -1861,7 +1861,7 @@
         <v>44.25</v>
       </c>
       <c r="B179" t="n">
-        <v>49995.10518346757</v>
+        <v>49999.90904093748</v>
       </c>
     </row>
     <row r="180">
@@ -1869,7 +1869,7 @@
         <v>44.5</v>
       </c>
       <c r="B180" t="n">
-        <v>49995.58098313151</v>
+        <v>49999.92163670359</v>
       </c>
     </row>
     <row r="181">
@@ -1877,7 +1877,7 @@
         <v>44.75</v>
       </c>
       <c r="B181" t="n">
-        <v>49996.00733325268</v>
+        <v>49999.93250599146</v>
       </c>
     </row>
     <row r="182">
@@ -1885,7 +1885,7 @@
         <v>45</v>
       </c>
       <c r="B182" t="n">
-        <v>49996.39013064363</v>
+        <v>49999.9418828957</v>
       </c>
     </row>
     <row r="183">
@@ -1893,7 +1893,7 @@
         <v>45.25</v>
       </c>
       <c r="B183" t="n">
-        <v>49996.7344728668</v>
+        <v>49999.94997013338</v>
       </c>
     </row>
     <row r="184">
@@ -1901,7 +1901,7 @@
         <v>45.5</v>
       </c>
       <c r="B184" t="n">
-        <v>49997.04477269208</v>
+        <v>49999.95694319849</v>
       </c>
     </row>
     <row r="185">
@@ -1909,7 +1909,7 @@
         <v>45.75</v>
       </c>
       <c r="B185" t="n">
-        <v>49997.32485570658</v>
+        <v>49999.9629539728</v>
       </c>
     </row>
     <row r="186">
@@ -1917,7 +1917,7 @@
         <v>46</v>
       </c>
       <c r="B186" t="n">
-        <v>49997.57804382852</v>
+        <v>49999.96813386498</v>
       </c>
     </row>
     <row r="187">
@@ -1925,7 +1925,7 @@
         <v>46.25</v>
       </c>
       <c r="B187" t="n">
-        <v>49997.80722692919</v>
+        <v>49999.97259653873</v>
       </c>
     </row>
     <row r="188">
@@ -1933,7 +1933,7 @@
         <v>46.5</v>
       </c>
       <c r="B188" t="n">
-        <v>49998.01492433935</v>
+        <v>49999.97644027834</v>
       </c>
     </row>
     <row r="189">
@@ -1941,7 +1941,7 @@
         <v>46.75</v>
       </c>
       <c r="B189" t="n">
-        <v>49998.20333769433</v>
+        <v>49999.97975004724</v>
       </c>
     </row>
     <row r="190">
@@ -1949,7 +1949,7 @@
         <v>47</v>
       </c>
       <c r="B190" t="n">
-        <v>49998.37439632169</v>
+        <v>49999.98259927209</v>
       </c>
     </row>
     <row r="191">
@@ -1957,7 +1957,7 @@
         <v>47.25</v>
       </c>
       <c r="B191" t="n">
-        <v>49998.52979618124</v>
+        <v>49999.9850513904</v>
       </c>
     </row>
     <row r="192">
@@ -1965,7 +1965,7 @@
         <v>47.5</v>
       </c>
       <c r="B192" t="n">
-        <v>49998.67103321746</v>
+        <v>49999.98716119517</v>
       </c>
     </row>
     <row r="193">
@@ -1973,7 +1973,7 @@
         <v>47.75</v>
       </c>
       <c r="B193" t="n">
-        <v>49998.79943186427</v>
+        <v>49999.98897599913</v>
       </c>
     </row>
     <row r="194">
@@ -1981,7 +1981,7 @@
         <v>48</v>
       </c>
       <c r="B194" t="n">
-        <v>49998.91616934337</v>
+        <v>49999.99053664364</v>
       </c>
     </row>
     <row r="195">
@@ -1989,7 +1989,7 @@
         <v>48.25</v>
       </c>
       <c r="B195" t="n">
-        <v>49999.02229632144</v>
+        <v>49999.99187837565</v>
       </c>
     </row>
     <row r="196">
@@ -1997,7 +1997,7 @@
         <v>48.5</v>
       </c>
       <c r="B196" t="n">
-        <v>49999.11875441925</v>
+        <v>49999.9930316037</v>
       </c>
     </row>
     <row r="197">
@@ -2005,7 +2005,7 @@
         <v>48.75</v>
       </c>
       <c r="B197" t="n">
-        <v>49999.20639101196</v>
+        <v>49999.99402255673</v>
       </c>
     </row>
     <row r="198">
@@ -2013,7 +2013,7 @@
         <v>49</v>
       </c>
       <c r="B198" t="n">
-        <v>49999.28597170635</v>
+        <v>49999.99487385034</v>
       </c>
     </row>
     <row r="199">
@@ -2021,7 +2021,7 @@
         <v>49.25</v>
       </c>
       <c r="B199" t="n">
-        <v>49999.35819083545</v>
+        <v>49999.99560498085</v>
       </c>
     </row>
     <row r="200">
@@ -2029,7 +2029,7 @@
         <v>49.5</v>
       </c>
       <c r="B200" t="n">
-        <v>49999.42368027183</v>
+        <v>49999.99623274993</v>
       </c>
     </row>
     <row r="201">
@@ -2037,7 +2037,7 @@
         <v>49.75</v>
       </c>
       <c r="B201" t="n">
-        <v>49999.48301682094</v>
+        <v>49999.99677163361</v>
       </c>
     </row>
     <row r="202">
@@ -2045,7 +2045,7 @@
         <v>50</v>
       </c>
       <c r="B202" t="n">
-        <v>49999.53672842563</v>
+        <v>49999.99723410025</v>
       </c>
     </row>
     <row r="203">
@@ -2053,7 +2053,7 @@
         <v>50.25</v>
       </c>
       <c r="B203" t="n">
-        <v>49999.5852993785</v>
+        <v>49999.99763088709</v>
       </c>
     </row>
     <row r="204">
@@ -2061,7 +2061,7 @@
         <v>50.5</v>
       </c>
       <c r="B204" t="n">
-        <v>49999.62917471443</v>
+        <v>49999.99797123633</v>
       </c>
     </row>
     <row r="205">
@@ -2069,7 +2069,7 @@
         <v>50.75</v>
       </c>
       <c r="B205" t="n">
-        <v>49999.66876392841</v>
+        <v>49999.99826310317</v>
       </c>
     </row>
     <row r="206">
@@ -2077,7 +2077,7 @@
         <v>51</v>
       </c>
       <c r="B206" t="n">
-        <v>49999.70444414268</v>
+        <v>49999.99851333204</v>
       </c>
     </row>
     <row r="207">
@@ -2085,7 +2085,7 @@
         <v>51.25</v>
       </c>
       <c r="B207" t="n">
-        <v>49999.73656282626</v>
+        <v>49999.99872780989</v>
       </c>
     </row>
     <row r="208">
@@ -2093,7 +2093,7 @@
         <v>51.5</v>
       </c>
       <c r="B208" t="n">
-        <v>49999.76544015367</v>
+        <v>49999.99891159947</v>
       </c>
     </row>
     <row r="209">
@@ -2101,7 +2101,7 @@
         <v>51.75</v>
       </c>
       <c r="B209" t="n">
-        <v>49999.79137107331</v>
+        <v>49999.99906905377</v>
       </c>
     </row>
     <row r="210">
@@ -2109,7 +2109,7 @@
         <v>52</v>
       </c>
       <c r="B210" t="n">
-        <v>49999.81462714285</v>
+        <v>49999.99920391342</v>
       </c>
     </row>
     <row r="211">
@@ -2117,7 +2117,7 @@
         <v>52.25</v>
       </c>
       <c r="B211" t="n">
-        <v>49999.83545817872</v>
+        <v>49999.99931939292</v>
       </c>
     </row>
     <row r="212">
@@ -2125,7 +2125,7 @@
         <v>52.5</v>
       </c>
       <c r="B212" t="n">
-        <v>49999.85409375532</v>
+        <v>49999.99941825352</v>
       </c>
     </row>
     <row r="213">
@@ -2133,7 +2133,7 @@
         <v>52.75</v>
       </c>
       <c r="B213" t="n">
-        <v>49999.87074458353</v>
+        <v>49999.99950286686</v>
       </c>
     </row>
     <row r="214">
@@ -2141,7 +2141,7 @@
         <v>53</v>
       </c>
       <c r="B214" t="n">
-        <v>49999.88560378989</v>
+        <v>49999.9995752689</v>
       </c>
     </row>
     <row r="215">
@@ -2149,7 +2149,7 @@
         <v>53.25</v>
       </c>
       <c r="B215" t="n">
-        <v>49999.89884811374</v>
+        <v>49999.99963720765</v>
       </c>
     </row>
     <row r="216">
@@ -2157,7 +2157,7 @@
         <v>53.5</v>
       </c>
       <c r="B216" t="n">
-        <v>49999.91063903355</v>
+        <v>49999.99969018229</v>
       </c>
     </row>
     <row r="217">
@@ -2165,7 +2165,7 @@
         <v>53.75</v>
       </c>
       <c r="B217" t="n">
-        <v>49999.9211238328</v>
+        <v>49999.9997354804</v>
       </c>
     </row>
     <row r="218">
@@ -2173,7 +2173,7 @@
         <v>54</v>
       </c>
       <c r="B218" t="n">
-        <v>49999.93043660995</v>
+        <v>49999.99977420455</v>
       </c>
     </row>
     <row r="219">
@@ -2181,7 +2181,7 @@
         <v>54.25</v>
       </c>
       <c r="B219" t="n">
-        <v>49999.93869923898</v>
+        <v>49999.99980730198</v>
       </c>
     </row>
     <row r="220">
@@ -2189,7 +2189,7 @@
         <v>54.5</v>
       </c>
       <c r="B220" t="n">
-        <v>49999.94602228032</v>
+        <v>49999.99983558337</v>
       </c>
     </row>
     <row r="221">
@@ -2197,7 +2197,7 @@
         <v>54.75</v>
       </c>
       <c r="B221" t="n">
-        <v>49999.95250584714</v>
+        <v>49999.9998597442</v>
       </c>
     </row>
     <row r="222">
@@ -2205,7 +2205,7 @@
         <v>55</v>
       </c>
       <c r="B222" t="n">
-        <v>49999.95824042595</v>
+        <v>49999.99988038029</v>
       </c>
     </row>
     <row r="223">
@@ -2213,7 +2213,7 @@
         <v>55.25</v>
       </c>
       <c r="B223" t="n">
-        <v>49999.96330765316</v>
+        <v>49999.9998980016</v>
       </c>
     </row>
     <row r="224">
@@ -2221,7 +2221,7 @@
         <v>55.5</v>
       </c>
       <c r="B224" t="n">
-        <v>49999.96778104818</v>
+        <v>49999.99991304592</v>
       </c>
     </row>
     <row r="225">
@@ -2229,7 +2229,7 @@
         <v>55.75</v>
       </c>
       <c r="B225" t="n">
-        <v>49999.97172670304</v>
+        <v>49999.99992588635</v>
       </c>
     </row>
     <row r="226">
@@ -2237,7 +2237,7 @@
         <v>56</v>
       </c>
       <c r="B226" t="n">
-        <v>49999.97520392974</v>
+        <v>49999.99993684414</v>
       </c>
     </row>
     <row r="227">
@@ -2245,7 +2245,7 @@
         <v>56.25</v>
       </c>
       <c r="B227" t="n">
-        <v>49999.97826586587</v>
+        <v>49999.99994619307</v>
       </c>
     </row>
     <row r="228">
@@ -2253,7 +2253,7 @@
         <v>56.5</v>
       </c>
       <c r="B228" t="n">
-        <v>49999.9809600386</v>
+        <v>49999.99995416745</v>
       </c>
     </row>
     <row r="229">
@@ -2261,7 +2261,7 @@
         <v>56.75</v>
       </c>
       <c r="B229" t="n">
-        <v>49999.98332888964</v>
+        <v>49999.9999609681</v>
       </c>
     </row>
     <row r="230">
@@ -2269,7 +2269,7 @@
         <v>57</v>
       </c>
       <c r="B230" t="n">
-        <v>49999.9854102609</v>
+        <v>49999.99996676663</v>
       </c>
     </row>
     <row r="231">
@@ -2277,7 +2277,7 @@
         <v>57.25</v>
       </c>
       <c r="B231" t="n">
-        <v>49999.98723784278</v>
+        <v>49999.99997170948</v>
       </c>
     </row>
     <row r="232">
@@ -2285,7 +2285,7 @@
         <v>57.5</v>
       </c>
       <c r="B232" t="n">
-        <v>49999.98884158701</v>
+        <v>49999.9999759222</v>
       </c>
     </row>
     <row r="233">
@@ -2293,7 +2293,7 @@
         <v>57.75</v>
       </c>
       <c r="B233" t="n">
-        <v>49999.9902480853</v>
+        <v>49999.99997951183</v>
       </c>
     </row>
     <row r="234">
@@ -2301,7 +2301,7 @@
         <v>58</v>
       </c>
       <c r="B234" t="n">
-        <v>49999.99148091533</v>
+        <v>49999.99998256971</v>
       </c>
     </row>
     <row r="235">
@@ -2309,7 +2309,7 @@
         <v>58.25</v>
       </c>
       <c r="B235" t="n">
-        <v>49999.99256095691</v>
+        <v>49999.99998517455</v>
       </c>
     </row>
     <row r="236">
@@ -2317,7 +2317,7 @@
         <v>58.5</v>
       </c>
       <c r="B236" t="n">
-        <v>49999.99350667865</v>
+        <v>49999.99998739251</v>
       </c>
     </row>
     <row r="237">
@@ -2325,7 +2325,7 @@
         <v>58.75</v>
       </c>
       <c r="B237" t="n">
-        <v>49999.99433439833</v>
+        <v>49999.99998928096</v>
       </c>
     </row>
     <row r="238">
@@ -2333,7 +2333,7 @@
         <v>59</v>
       </c>
       <c r="B238" t="n">
-        <v>49999.99505851863</v>
+        <v>49999.99999088849</v>
       </c>
     </row>
     <row r="239">
@@ -2341,7 +2341,7 @@
         <v>59.25</v>
       </c>
       <c r="B239" t="n">
-        <v>49999.99569173908</v>
+        <v>49999.99999225658</v>
       </c>
     </row>
     <row r="240">
@@ -2349,7 +2349,7 @@
         <v>59.5</v>
       </c>
       <c r="B240" t="n">
-        <v>49999.99624524733</v>
+        <v>49999.99999342058</v>
       </c>
     </row>
     <row r="241">
@@ -2357,7 +2357,7 @@
         <v>59.75</v>
       </c>
       <c r="B241" t="n">
-        <v>49999.99672889081</v>
+        <v>49999.99999441093</v>
       </c>
     </row>
     <row r="242">
@@ -2365,7 +2365,7 @@
         <v>60</v>
       </c>
       <c r="B242" t="n">
-        <v>49999.9971513303</v>
+        <v>49999.99999525325</v>
       </c>
     </row>
     <row r="243">
@@ -2373,7 +2373,7 @@
         <v>60.25</v>
       </c>
       <c r="B243" t="n">
-        <v>49999.99752017731</v>
+        <v>49999.99999596953</v>
       </c>
     </row>
     <row r="244">
@@ -2381,7 +2381,7 @@
         <v>60.5</v>
       </c>
       <c r="B244" t="n">
-        <v>49999.99784211674</v>
+        <v>49999.99999657833</v>
       </c>
     </row>
     <row r="245">
@@ -2389,7 +2389,7 @@
         <v>60.75</v>
       </c>
       <c r="B245" t="n">
-        <v>49999.99812301587</v>
+        <v>49999.9999970961</v>
       </c>
     </row>
     <row r="246">
@@ -2397,7 +2397,7 @@
         <v>61</v>
       </c>
       <c r="B246" t="n">
-        <v>49999.99836802169</v>
+        <v>49999.99999753602</v>
       </c>
     </row>
     <row r="247">
@@ -2405,7 +2405,7 @@
         <v>61.25</v>
       </c>
       <c r="B247" t="n">
-        <v>49999.99858164655</v>
+        <v>49999.99999790969</v>
       </c>
     </row>
     <row r="248">
@@ -2413,7 +2413,7 @@
         <v>61.5</v>
       </c>
       <c r="B248" t="n">
-        <v>49999.99876784495</v>
+        <v>49999.99999822737</v>
       </c>
     </row>
     <row r="249">
@@ -2421,7 +2421,7 @@
         <v>61.75</v>
       </c>
       <c r="B249" t="n">
-        <v>49999.99893008066</v>
+        <v>49999.9999984969</v>
       </c>
     </row>
     <row r="250">
@@ -2429,7 +2429,7 @@
         <v>62</v>
       </c>
       <c r="B250" t="n">
-        <v>49999.99907138663</v>
+        <v>49999.99999872602</v>
       </c>
     </row>
     <row r="251">
@@ -2437,7 +2437,7 @@
         <v>62.25</v>
       </c>
       <c r="B251" t="n">
-        <v>49999.99919441739</v>
+        <v>49999.99999892034</v>
       </c>
     </row>
     <row r="252">
@@ -2445,7 +2445,7 @@
         <v>62.5</v>
       </c>
       <c r="B252" t="n">
-        <v>49999.99930149577</v>
+        <v>49999.99999908549</v>
       </c>
     </row>
     <row r="253">
@@ -2453,7 +2453,7 @@
         <v>62.75</v>
       </c>
       <c r="B253" t="n">
-        <v>49999.99939465327</v>
+        <v>49999.99999922533</v>
       </c>
     </row>
     <row r="254">
@@ -2461,7 +2461,7 @@
         <v>63</v>
       </c>
       <c r="B254" t="n">
-        <v>49999.99947566671</v>
+        <v>49999.99999934444</v>
       </c>
     </row>
     <row r="255">
@@ -2469,7 +2469,7 @@
         <v>63.25</v>
       </c>
       <c r="B255" t="n">
-        <v>49999.99954608907</v>
+        <v>49999.99999944497</v>
       </c>
     </row>
     <row r="256">
@@ -2477,7 +2477,7 @@
         <v>63.5</v>
       </c>
       <c r="B256" t="n">
-        <v>49999.99960727798</v>
+        <v>49999.99999953049</v>
       </c>
     </row>
     <row r="257">
@@ -2485,7 +2485,7 @@
         <v>63.75</v>
       </c>
       <c r="B257" t="n">
-        <v>49999.9996604195</v>
+        <v>49999.99999960308</v>
       </c>
     </row>
     <row r="258">
@@ -2493,7 +2493,7 @@
         <v>64</v>
       </c>
       <c r="B258" t="n">
-        <v>49999.99970654972</v>
+        <v>49999.99999966429</v>
       </c>
     </row>
     <row r="259">
@@ -2501,7 +2501,7 @@
         <v>64.25</v>
       </c>
       <c r="B259" t="n">
-        <v>49999.99974657353</v>
+        <v>49999.99999971638</v>
       </c>
     </row>
     <row r="260">
@@ -2509,7 +2509,7 @@
         <v>64.5</v>
       </c>
       <c r="B260" t="n">
-        <v>49999.99978128116</v>
+        <v>49999.99999976043</v>
       </c>
     </row>
     <row r="261">
@@ -2517,7 +2517,7 @@
         <v>64.75</v>
       </c>
       <c r="B261" t="n">
-        <v>49999.99981136224</v>
+        <v>49999.99999979784</v>
       </c>
     </row>
     <row r="262">
@@ -2525,7 +2525,7 @@
         <v>65</v>
       </c>
       <c r="B262" t="n">
-        <v>49999.99983741867</v>
+        <v>49999.99999982942</v>
       </c>
     </row>
     <row r="263">
@@ -2533,7 +2533,7 @@
         <v>65.25</v>
       </c>
       <c r="B263" t="n">
-        <v>49999.99985997556</v>
+        <v>49999.99999985618</v>
       </c>
     </row>
     <row r="264">
@@ -2541,7 +2541,7 @@
         <v>65.5</v>
       </c>
       <c r="B264" t="n">
-        <v>49999.99987949103</v>
+        <v>49999.99999987886</v>
       </c>
     </row>
     <row r="265">
@@ -2549,7 +2549,7 @@
         <v>65.75</v>
       </c>
       <c r="B265" t="n">
-        <v>49999.99989636434</v>
+        <v>49999.99999989801</v>
       </c>
     </row>
     <row r="266">
@@ -2557,7 +2557,7 @@
         <v>66</v>
       </c>
       <c r="B266" t="n">
-        <v>49999.99991094352</v>
+        <v>49999.9999999143</v>
       </c>
     </row>
     <row r="267">
@@ -2565,7 +2565,7 @@
         <v>66.25</v>
       </c>
       <c r="B267" t="n">
-        <v>49999.99992353196</v>
+        <v>49999.99999992783</v>
       </c>
     </row>
     <row r="268">
@@ -2573,7 +2573,7 @@
         <v>66.5</v>
       </c>
       <c r="B268" t="n">
-        <v>49999.99993439377</v>
+        <v>49999.99999993959</v>
       </c>
     </row>
     <row r="269">
@@ -2581,7 +2581,7 @@
         <v>66.75</v>
       </c>
       <c r="B269" t="n">
-        <v>49999.99994375903</v>
+        <v>49999.99999994948</v>
       </c>
     </row>
     <row r="270">
@@ -2589,7 +2589,7 @@
         <v>67</v>
       </c>
       <c r="B270" t="n">
-        <v>49999.99995182784</v>
+        <v>49999.99999995749</v>
       </c>
     </row>
     <row r="271">
@@ -2597,7 +2597,7 @@
         <v>67.25</v>
       </c>
       <c r="B271" t="n">
-        <v>49999.99995877429</v>
+        <v>49999.99999996462</v>
       </c>
     </row>
     <row r="272">
@@ -2605,7 +2605,7 @@
         <v>67.5</v>
       </c>
       <c r="B272" t="n">
-        <v>49999.99996474978</v>
+        <v>49999.99999997053</v>
       </c>
     </row>
     <row r="273">
@@ -2613,7 +2613,7 @@
         <v>67.75</v>
       </c>
       <c r="B273" t="n">
-        <v>49999.99996988579</v>
+        <v>49999.99999997531</v>
       </c>
     </row>
     <row r="274">
@@ -2621,7 +2621,7 @@
         <v>68</v>
       </c>
       <c r="B274" t="n">
-        <v>49999.99997429665</v>
+        <v>49999.99999997969</v>
       </c>
     </row>
     <row r="275">
@@ -2629,7 +2629,7 @@
         <v>68.25</v>
       </c>
       <c r="B275" t="n">
-        <v>49999.99997808151</v>
+        <v>49999.99999998311</v>
       </c>
     </row>
     <row r="276">
@@ -2637,7 +2637,7 @@
         <v>68.5</v>
       </c>
       <c r="B276" t="n">
-        <v>49999.99998132633</v>
+        <v>49999.99999998622</v>
       </c>
     </row>
     <row r="277">
@@ -2645,7 +2645,7 @@
         <v>68.75</v>
       </c>
       <c r="B277" t="n">
-        <v>49999.99998410576</v>
+        <v>49999.99999998855</v>
       </c>
     </row>
     <row r="278">
@@ -2653,7 +2653,7 @@
         <v>69</v>
       </c>
       <c r="B278" t="n">
-        <v>49999.99998648428</v>
+        <v>49999.9999999908</v>
       </c>
     </row>
     <row r="279">
@@ -2661,7 +2661,7 @@
         <v>69.25</v>
       </c>
       <c r="B279" t="n">
-        <v>49999.99998851794</v>
+        <v>49999.99999999256</v>
       </c>
     </row>
     <row r="280">
@@ -2669,7 +2669,7 @@
         <v>69.5</v>
       </c>
       <c r="B280" t="n">
-        <v>49999.99999025502</v>
+        <v>49999.99999999403</v>
       </c>
     </row>
     <row r="281">
@@ -2677,7 +2677,7 @@
         <v>69.75</v>
       </c>
       <c r="B281" t="n">
-        <v>49999.99999173746</v>
+        <v>49999.99999999529</v>
       </c>
     </row>
     <row r="282">
@@ -2685,7 +2685,7 @@
         <v>70</v>
       </c>
       <c r="B282" t="n">
-        <v>49999.99999300126</v>
+        <v>49999.99999999633</v>
       </c>
     </row>
     <row r="283">
@@ -2693,7 +2693,7 @@
         <v>70.25</v>
       </c>
       <c r="B283" t="n">
-        <v>49999.99999407763</v>
+        <v>49999.99999999725</v>
       </c>
     </row>
     <row r="284">
@@ -2701,7 +2701,7 @@
         <v>70.5</v>
       </c>
       <c r="B284" t="n">
-        <v>49999.99999499344</v>
+        <v>49999.99999999799</v>
       </c>
     </row>
     <row r="285">
@@ -2709,7 +2709,7 @@
         <v>70.75</v>
       </c>
       <c r="B285" t="n">
-        <v>49999.9999957719</v>
+        <v>49999.9999999986</v>
       </c>
     </row>
     <row r="286">
@@ -2717,7 +2717,7 @@
         <v>71</v>
       </c>
       <c r="B286" t="n">
-        <v>49999.99999643287</v>
+        <v>49999.99999999908</v>
       </c>
     </row>
     <row r="287">
@@ -2725,7 +2725,7 @@
         <v>71.25</v>
       </c>
       <c r="B287" t="n">
-        <v>49999.99999699353</v>
+        <v>49999.99999999953</v>
       </c>
     </row>
     <row r="288">
@@ -2733,7 +2733,7 @@
         <v>71.5</v>
       </c>
       <c r="B288" t="n">
-        <v>49999.99999746865</v>
+        <v>49999.99999999991</v>
       </c>
     </row>
     <row r="289">
@@ -2741,7 +2741,7 @@
         <v>71.75</v>
       </c>
       <c r="B289" t="n">
-        <v>49999.99999787074</v>
+        <v>50000.00000000022</v>
       </c>
     </row>
     <row r="290">
@@ -2749,7 +2749,7 @@
         <v>72</v>
       </c>
       <c r="B290" t="n">
-        <v>49999.99999821078</v>
+        <v>50000.00000000046</v>
       </c>
     </row>
     <row r="291">
@@ -2757,7 +2757,7 @@
         <v>72.25</v>
       </c>
       <c r="B291" t="n">
-        <v>49999.99999849795</v>
+        <v>50000.00000000071</v>
       </c>
     </row>
     <row r="292">
@@ -2765,7 +2765,7 @@
         <v>72.5</v>
       </c>
       <c r="B292" t="n">
-        <v>49999.99999874031</v>
+        <v>50000.00000000087</v>
       </c>
     </row>
     <row r="293">
@@ -2773,7 +2773,7 @@
         <v>72.75</v>
       </c>
       <c r="B293" t="n">
-        <v>49999.99999894452</v>
+        <v>50000.000000001</v>
       </c>
     </row>
     <row r="294">
@@ -2781,7 +2781,7 @@
         <v>73</v>
       </c>
       <c r="B294" t="n">
-        <v>49999.99999911647</v>
+        <v>50000.00000000112</v>
       </c>
     </row>
     <row r="295">
@@ -2789,7 +2789,7 @@
         <v>73.25</v>
       </c>
       <c r="B295" t="n">
-        <v>49999.99999926112</v>
+        <v>50000.00000000123</v>
       </c>
     </row>
     <row r="296">
@@ -2797,7 +2797,7 @@
         <v>73.5</v>
       </c>
       <c r="B296" t="n">
-        <v>49999.99999938262</v>
+        <v>50000.00000000134</v>
       </c>
     </row>
     <row r="297">
@@ -2805,7 +2805,7 @@
         <v>73.75</v>
       </c>
       <c r="B297" t="n">
-        <v>49999.9999994846</v>
+        <v>50000.00000000138</v>
       </c>
     </row>
     <row r="298">
@@ -2813,7 +2813,7 @@
         <v>74</v>
       </c>
       <c r="B298" t="n">
-        <v>49999.9999995701</v>
+        <v>50000.00000000143</v>
       </c>
     </row>
     <row r="299">
@@ -2821,7 +2821,7 @@
         <v>74.25</v>
       </c>
       <c r="B299" t="n">
-        <v>49999.9999996417</v>
+        <v>50000.00000000144</v>
       </c>
     </row>
     <row r="300">
@@ -2829,7 +2829,7 @@
         <v>74.5</v>
       </c>
       <c r="B300" t="n">
-        <v>49999.99999970164</v>
+        <v>50000.00000000148</v>
       </c>
     </row>
     <row r="301">
@@ -2837,7 +2837,7 @@
         <v>74.75</v>
       </c>
       <c r="B301" t="n">
-        <v>49999.99999975166</v>
+        <v>50000.00000000152</v>
       </c>
     </row>
     <row r="302">
@@ -2845,7 +2845,7 @@
         <v>75</v>
       </c>
       <c r="B302" t="n">
-        <v>49999.99999979353</v>
+        <v>50000.00000000157</v>
       </c>
     </row>
     <row r="303">
@@ -2853,7 +2853,7 @@
         <v>75.25</v>
       </c>
       <c r="B303" t="n">
-        <v>49999.99999982833</v>
+        <v>50000.00000000159</v>
       </c>
     </row>
     <row r="304">
@@ -2861,7 +2861,7 @@
         <v>75.5</v>
       </c>
       <c r="B304" t="n">
-        <v>49999.99999985745</v>
+        <v>50000.00000000162</v>
       </c>
     </row>
     <row r="305">
@@ -2869,7 +2869,7 @@
         <v>75.75</v>
       </c>
       <c r="B305" t="n">
-        <v>49999.99999988164</v>
+        <v>50000.00000000162</v>
       </c>
     </row>
     <row r="306">
@@ -2877,7 +2877,7 @@
         <v>76</v>
       </c>
       <c r="B306" t="n">
-        <v>49999.99999990179</v>
+        <v>50000.00000000168</v>
       </c>
     </row>
     <row r="307">
@@ -2885,7 +2885,7 @@
         <v>76.25</v>
       </c>
       <c r="B307" t="n">
-        <v>49999.99999991853</v>
+        <v>50000.00000000164</v>
       </c>
     </row>
     <row r="308">
@@ -2893,7 +2893,7 @@
         <v>76.5</v>
       </c>
       <c r="B308" t="n">
-        <v>49999.99999993244</v>
+        <v>50000.00000000162</v>
       </c>
     </row>
     <row r="309">
@@ -2901,7 +2901,7 @@
         <v>76.75</v>
       </c>
       <c r="B309" t="n">
-        <v>49999.99999994403</v>
+        <v>50000.00000000166</v>
       </c>
     </row>
     <row r="310">
@@ -2909,7 +2909,7 @@
         <v>77</v>
       </c>
       <c r="B310" t="n">
-        <v>49999.99999995362</v>
+        <v>50000.00000000167</v>
       </c>
     </row>
     <row r="311">
@@ -2917,7 +2917,7 @@
         <v>77.25</v>
       </c>
       <c r="B311" t="n">
-        <v>49999.99999996158</v>
+        <v>50000.00000000167</v>
       </c>
     </row>
     <row r="312">
@@ -2925,7 +2925,7 @@
         <v>77.5</v>
       </c>
       <c r="B312" t="n">
-        <v>49999.99999996821</v>
+        <v>50000.00000000169</v>
       </c>
     </row>
     <row r="313">
@@ -2933,7 +2933,7 @@
         <v>77.75</v>
       </c>
       <c r="B313" t="n">
-        <v>49999.99999997368</v>
+        <v>50000.00000000168</v>
       </c>
     </row>
     <row r="314">
@@ -2941,7 +2941,7 @@
         <v>78</v>
       </c>
       <c r="B314" t="n">
-        <v>49999.99999997824</v>
+        <v>50000.00000000168</v>
       </c>
     </row>
     <row r="315">
@@ -2949,7 +2949,7 @@
         <v>78.25</v>
       </c>
       <c r="B315" t="n">
-        <v>49999.99999998201</v>
+        <v>50000.00000000167</v>
       </c>
     </row>
     <row r="316">
@@ -2957,7 +2957,7 @@
         <v>78.5</v>
       </c>
       <c r="B316" t="n">
-        <v>49999.99999998512</v>
+        <v>50000.00000000167</v>
       </c>
     </row>
     <row r="317">
@@ -2965,7 +2965,7 @@
         <v>78.75</v>
       </c>
       <c r="B317" t="n">
-        <v>49999.99999998773</v>
+        <v>50000.00000000167</v>
       </c>
     </row>
     <row r="318">
@@ -2973,7 +2973,7 @@
         <v>79</v>
       </c>
       <c r="B318" t="n">
-        <v>49999.99999998992</v>
+        <v>50000.00000000166</v>
       </c>
     </row>
     <row r="319">
@@ -2981,7 +2981,7 @@
         <v>79.25</v>
       </c>
       <c r="B319" t="n">
-        <v>49999.9999999917</v>
+        <v>50000.00000000167</v>
       </c>
     </row>
     <row r="320">
@@ -2989,7 +2989,7 @@
         <v>79.5</v>
       </c>
       <c r="B320" t="n">
-        <v>49999.99999999318</v>
+        <v>50000.00000000167</v>
       </c>
     </row>
     <row r="321">
@@ -2997,7 +2997,7 @@
         <v>79.75</v>
       </c>
       <c r="B321" t="n">
-        <v>49999.99999999443</v>
+        <v>50000.00000000166</v>
       </c>
     </row>
     <row r="322">
@@ -3005,7 +3005,7 @@
         <v>80</v>
       </c>
       <c r="B322" t="n">
-        <v>49999.99999999553</v>
+        <v>50000.00000000167</v>
       </c>
     </row>
     <row r="323">
@@ -3013,7 +3013,7 @@
         <v>80.25</v>
       </c>
       <c r="B323" t="n">
-        <v>49999.99999999638</v>
+        <v>50000.00000000167</v>
       </c>
     </row>
     <row r="324">
@@ -3021,7 +3021,7 @@
         <v>80.5</v>
       </c>
       <c r="B324" t="n">
-        <v>49999.99999999705</v>
+        <v>50000.00000000166</v>
       </c>
     </row>
     <row r="325">
@@ -3029,7 +3029,7 @@
         <v>80.75</v>
       </c>
       <c r="B325" t="n">
-        <v>49999.99999999772</v>
+        <v>50000.00000000166</v>
       </c>
     </row>
     <row r="326">
@@ -3037,7 +3037,7 @@
         <v>81</v>
       </c>
       <c r="B326" t="n">
-        <v>49999.99999999826</v>
+        <v>50000.00000000168</v>
       </c>
     </row>
     <row r="327">
@@ -3045,7 +3045,7 @@
         <v>81.25</v>
       </c>
       <c r="B327" t="n">
-        <v>49999.99999999873</v>
+        <v>50000.00000000167</v>
       </c>
     </row>
     <row r="328">
@@ -3053,7 +3053,7 @@
         <v>81.5</v>
       </c>
       <c r="B328" t="n">
-        <v>49999.99999999913</v>
+        <v>50000.00000000164</v>
       </c>
     </row>
     <row r="329">
@@ -3061,7 +3061,7 @@
         <v>81.75</v>
       </c>
       <c r="B329" t="n">
-        <v>49999.99999999945</v>
+        <v>50000.00000000167</v>
       </c>
     </row>
     <row r="330">
@@ -3069,7 +3069,7 @@
         <v>82</v>
       </c>
       <c r="B330" t="n">
-        <v>49999.99999999968</v>
+        <v>50000.00000000169</v>
       </c>
     </row>
     <row r="331">
@@ -3077,7 +3077,7 @@
         <v>82.25</v>
       </c>
       <c r="B331" t="n">
-        <v>49999.99999999997</v>
+        <v>50000.00000000166</v>
       </c>
     </row>
     <row r="332">
@@ -3085,7 +3085,7 @@
         <v>82.5</v>
       </c>
       <c r="B332" t="n">
-        <v>50000.00000000017</v>
+        <v>50000.00000000164</v>
       </c>
     </row>
     <row r="333">
@@ -3093,7 +3093,7 @@
         <v>82.75</v>
       </c>
       <c r="B333" t="n">
-        <v>50000.00000000031</v>
+        <v>50000.00000000168</v>
       </c>
     </row>
     <row r="334">
@@ -3101,7 +3101,7 @@
         <v>83</v>
       </c>
       <c r="B334" t="n">
-        <v>50000.00000000044</v>
+        <v>50000.00000000166</v>
       </c>
     </row>
     <row r="335">
@@ -3109,7 +3109,7 @@
         <v>83.25</v>
       </c>
       <c r="B335" t="n">
-        <v>50000.00000000062</v>
+        <v>50000.00000000168</v>
       </c>
     </row>
     <row r="336">
@@ -3117,7 +3117,7 @@
         <v>83.5</v>
       </c>
       <c r="B336" t="n">
-        <v>50000.00000000078</v>
+        <v>50000.00000000167</v>
       </c>
     </row>
     <row r="337">
@@ -3125,7 +3125,7 @@
         <v>83.75</v>
       </c>
       <c r="B337" t="n">
-        <v>50000.00000000087</v>
+        <v>50000.00000000164</v>
       </c>
     </row>
     <row r="338">
@@ -3133,7 +3133,7 @@
         <v>84</v>
       </c>
       <c r="B338" t="n">
-        <v>50000.00000000093</v>
+        <v>50000.00000000164</v>
       </c>
     </row>
     <row r="339">
@@ -3141,7 +3141,7 @@
         <v>84.25</v>
       </c>
       <c r="B339" t="n">
-        <v>50000.00000000103</v>
+        <v>50000.00000000164</v>
       </c>
     </row>
     <row r="340">
@@ -3149,7 +3149,7 @@
         <v>84.5</v>
       </c>
       <c r="B340" t="n">
-        <v>50000.0000000011</v>
+        <v>50000.00000000166</v>
       </c>
     </row>
     <row r="341">
@@ -3157,7 +3157,7 @@
         <v>84.75</v>
       </c>
       <c r="B341" t="n">
-        <v>50000.00000000118</v>
+        <v>50000.00000000167</v>
       </c>
     </row>
     <row r="342">
@@ -3165,7 +3165,7 @@
         <v>85</v>
       </c>
       <c r="B342" t="n">
-        <v>50000.00000000118</v>
+        <v>50000.00000000164</v>
       </c>
     </row>
     <row r="343">
@@ -3173,7 +3173,7 @@
         <v>85.25</v>
       </c>
       <c r="B343" t="n">
-        <v>50000.00000000118</v>
+        <v>50000.00000000164</v>
       </c>
     </row>
     <row r="344">
@@ -3181,7 +3181,7 @@
         <v>85.5</v>
       </c>
       <c r="B344" t="n">
-        <v>50000.00000000127</v>
+        <v>50000.00000000164</v>
       </c>
     </row>
     <row r="345">
@@ -3189,7 +3189,7 @@
         <v>85.75</v>
       </c>
       <c r="B345" t="n">
-        <v>50000.00000000135</v>
+        <v>50000.00000000164</v>
       </c>
     </row>
     <row r="346">
@@ -3197,7 +3197,7 @@
         <v>86</v>
       </c>
       <c r="B346" t="n">
-        <v>50000.00000000137</v>
+        <v>50000.00000000164</v>
       </c>
     </row>
     <row r="347">
@@ -3205,7 +3205,7 @@
         <v>86.25</v>
       </c>
       <c r="B347" t="n">
-        <v>50000.00000000144</v>
+        <v>50000.00000000162</v>
       </c>
     </row>
     <row r="348">
@@ -3213,7 +3213,7 @@
         <v>86.5</v>
       </c>
       <c r="B348" t="n">
-        <v>50000.00000000142</v>
+        <v>50000.00000000162</v>
       </c>
     </row>
     <row r="349">
@@ -3221,7 +3221,7 @@
         <v>86.75</v>
       </c>
       <c r="B349" t="n">
-        <v>50000.00000000142</v>
+        <v>50000.00000000162</v>
       </c>
     </row>
     <row r="350">
@@ -3229,7 +3229,7 @@
         <v>87</v>
       </c>
       <c r="B350" t="n">
-        <v>50000.0000000015</v>
+        <v>50000.00000000166</v>
       </c>
     </row>
     <row r="351">
@@ -3237,7 +3237,7 @@
         <v>87.25</v>
       </c>
       <c r="B351" t="n">
-        <v>50000.00000000151</v>
+        <v>50000.00000000164</v>
       </c>
     </row>
     <row r="352">
@@ -3245,7 +3245,7 @@
         <v>87.5</v>
       </c>
       <c r="B352" t="n">
-        <v>50000.00000000148</v>
+        <v>50000.00000000164</v>
       </c>
     </row>
     <row r="353">
@@ -3253,7 +3253,7 @@
         <v>87.75</v>
       </c>
       <c r="B353" t="n">
-        <v>50000.00000000151</v>
+        <v>50000.00000000166</v>
       </c>
     </row>
     <row r="354">
@@ -3261,7 +3261,7 @@
         <v>88</v>
       </c>
       <c r="B354" t="n">
-        <v>50000.00000000155</v>
+        <v>50000.00000000166</v>
       </c>
     </row>
     <row r="355">
@@ -3269,7 +3269,7 @@
         <v>88.25</v>
       </c>
       <c r="B355" t="n">
-        <v>50000.0000000016</v>
+        <v>50000.00000000164</v>
       </c>
     </row>
     <row r="356">
@@ -3277,7 +3277,7 @@
         <v>88.5</v>
       </c>
       <c r="B356" t="n">
-        <v>50000.00000000156</v>
+        <v>50000.00000000164</v>
       </c>
     </row>
     <row r="357">
@@ -3285,7 +3285,7 @@
         <v>88.75</v>
       </c>
       <c r="B357" t="n">
-        <v>50000.00000000157</v>
+        <v>50000.00000000164</v>
       </c>
     </row>
     <row r="358">
@@ -3301,7 +3301,7 @@
         <v>89.25</v>
       </c>
       <c r="B359" t="n">
-        <v>50000.00000000167</v>
+        <v>50000.00000000162</v>
       </c>
     </row>
     <row r="360">
@@ -3309,7 +3309,7 @@
         <v>89.5</v>
       </c>
       <c r="B360" t="n">
-        <v>50000.00000000162</v>
+        <v>50000.00000000164</v>
       </c>
     </row>
     <row r="361">
@@ -3317,7 +3317,7 @@
         <v>89.75</v>
       </c>
       <c r="B361" t="n">
-        <v>50000.00000000162</v>
+        <v>50000.00000000164</v>
       </c>
     </row>
     <row r="362">
@@ -3325,7 +3325,7 @@
         <v>90</v>
       </c>
       <c r="B362" t="n">
-        <v>50000.00000000164</v>
+        <v>50000.00000000161</v>
       </c>
     </row>
     <row r="363">
@@ -3333,7 +3333,7 @@
         <v>90.25</v>
       </c>
       <c r="B363" t="n">
-        <v>50000.00000000159</v>
+        <v>50000.00000000162</v>
       </c>
     </row>
     <row r="364">
@@ -3341,7 +3341,7 @@
         <v>90.5</v>
       </c>
       <c r="B364" t="n">
-        <v>50000.00000000162</v>
+        <v>50000.00000000166</v>
       </c>
     </row>
     <row r="365">
@@ -3349,7 +3349,7 @@
         <v>90.75</v>
       </c>
       <c r="B365" t="n">
-        <v>50000.00000000167</v>
+        <v>50000.00000000166</v>
       </c>
     </row>
     <row r="366">
@@ -3357,7 +3357,7 @@
         <v>91</v>
       </c>
       <c r="B366" t="n">
-        <v>50000.00000000162</v>
+        <v>50000.00000000164</v>
       </c>
     </row>
     <row r="367">
@@ -3365,7 +3365,7 @@
         <v>91.25</v>
       </c>
       <c r="B367" t="n">
-        <v>50000.00000000162</v>
+        <v>50000.00000000164</v>
       </c>
     </row>
     <row r="368">
@@ -3373,7 +3373,7 @@
         <v>91.5</v>
       </c>
       <c r="B368" t="n">
-        <v>50000.00000000156</v>
+        <v>50000.00000000166</v>
       </c>
     </row>
     <row r="369">
@@ -3381,7 +3381,7 @@
         <v>91.75</v>
       </c>
       <c r="B369" t="n">
-        <v>50000.00000000157</v>
+        <v>50000.00000000164</v>
       </c>
     </row>
     <row r="370">
@@ -3389,7 +3389,7 @@
         <v>92</v>
       </c>
       <c r="B370" t="n">
-        <v>50000.00000000159</v>
+        <v>50000.00000000167</v>
       </c>
     </row>
     <row r="371">
@@ -3397,7 +3397,7 @@
         <v>92.25</v>
       </c>
       <c r="B371" t="n">
-        <v>50000.00000000162</v>
+        <v>50000.00000000167</v>
       </c>
     </row>
     <row r="372">
@@ -3405,7 +3405,7 @@
         <v>92.5</v>
       </c>
       <c r="B372" t="n">
-        <v>50000.00000000162</v>
+        <v>50000.00000000164</v>
       </c>
     </row>
     <row r="373">
@@ -3413,7 +3413,7 @@
         <v>92.75</v>
       </c>
       <c r="B373" t="n">
-        <v>50000.00000000162</v>
+        <v>50000.00000000164</v>
       </c>
     </row>
     <row r="374">
@@ -3421,7 +3421,7 @@
         <v>93</v>
       </c>
       <c r="B374" t="n">
-        <v>50000.00000000165</v>
+        <v>50000.00000000164</v>
       </c>
     </row>
     <row r="375">
@@ -3429,7 +3429,7 @@
         <v>93.25</v>
       </c>
       <c r="B375" t="n">
-        <v>50000.0000000016</v>
+        <v>50000.00000000166</v>
       </c>
     </row>
     <row r="376">
@@ -3437,7 +3437,7 @@
         <v>93.5</v>
       </c>
       <c r="B376" t="n">
-        <v>50000.00000000162</v>
+        <v>50000.00000000166</v>
       </c>
     </row>
     <row r="377">
@@ -3445,7 +3445,7 @@
         <v>93.75</v>
       </c>
       <c r="B377" t="n">
-        <v>50000.0000000016</v>
+        <v>50000.00000000169</v>
       </c>
     </row>
     <row r="378">
@@ -3453,7 +3453,7 @@
         <v>94</v>
       </c>
       <c r="B378" t="n">
-        <v>50000.0000000016</v>
+        <v>50000.00000000168</v>
       </c>
     </row>
     <row r="379">
@@ -3461,7 +3461,7 @@
         <v>94.25</v>
       </c>
       <c r="B379" t="n">
-        <v>50000.00000000164</v>
+        <v>50000.00000000169</v>
       </c>
     </row>
     <row r="380">
@@ -3469,7 +3469,7 @@
         <v>94.5</v>
       </c>
       <c r="B380" t="n">
-        <v>50000.0000000016</v>
+        <v>50000.00000000167</v>
       </c>
     </row>
     <row r="381">
@@ -3477,7 +3477,7 @@
         <v>94.75</v>
       </c>
       <c r="B381" t="n">
-        <v>50000.00000000156</v>
+        <v>50000.00000000167</v>
       </c>
     </row>
     <row r="382">
@@ -3485,7 +3485,7 @@
         <v>95</v>
       </c>
       <c r="B382" t="n">
-        <v>50000.0000000016</v>
+        <v>50000.00000000167</v>
       </c>
     </row>
     <row r="383">
@@ -3493,7 +3493,7 @@
         <v>95.25</v>
       </c>
       <c r="B383" t="n">
-        <v>50000.00000000162</v>
+        <v>50000.00000000168</v>
       </c>
     </row>
     <row r="384">
@@ -3501,7 +3501,7 @@
         <v>95.5</v>
       </c>
       <c r="B384" t="n">
-        <v>50000.0000000016</v>
+        <v>50000.00000000169</v>
       </c>
     </row>
     <row r="385">
@@ -3509,7 +3509,7 @@
         <v>95.75</v>
       </c>
       <c r="B385" t="n">
-        <v>50000.00000000162</v>
+        <v>50000.00000000171</v>
       </c>
     </row>
     <row r="386">
@@ -3517,7 +3517,7 @@
         <v>96</v>
       </c>
       <c r="B386" t="n">
-        <v>50000.00000000162</v>
+        <v>50000.0000000017</v>
       </c>
     </row>
     <row r="387">
@@ -3525,7 +3525,7 @@
         <v>96.25</v>
       </c>
       <c r="B387" t="n">
-        <v>50000.00000000164</v>
+        <v>50000.0000000017</v>
       </c>
     </row>
     <row r="388">
@@ -3533,7 +3533,7 @@
         <v>96.5</v>
       </c>
       <c r="B388" t="n">
-        <v>50000.00000000167</v>
+        <v>50000.00000000168</v>
       </c>
     </row>
     <row r="389">
@@ -3541,7 +3541,7 @@
         <v>96.75</v>
       </c>
       <c r="B389" t="n">
-        <v>50000.00000000164</v>
+        <v>50000.0000000017</v>
       </c>
     </row>
     <row r="390">
@@ -3549,7 +3549,7 @@
         <v>97</v>
       </c>
       <c r="B390" t="n">
-        <v>50000.0000000016</v>
+        <v>50000.00000000168</v>
       </c>
     </row>
     <row r="391">
@@ -3557,7 +3557,7 @@
         <v>97.25</v>
       </c>
       <c r="B391" t="n">
-        <v>50000.00000000164</v>
+        <v>50000.0000000017</v>
       </c>
     </row>
     <row r="392">
@@ -3565,7 +3565,7 @@
         <v>97.5</v>
       </c>
       <c r="B392" t="n">
-        <v>50000.00000000164</v>
+        <v>50000.00000000169</v>
       </c>
     </row>
     <row r="393">
@@ -3573,7 +3573,7 @@
         <v>97.75</v>
       </c>
       <c r="B393" t="n">
-        <v>50000.00000000159</v>
+        <v>50000.0000000017</v>
       </c>
     </row>
     <row r="394">
@@ -3589,7 +3589,7 @@
         <v>98.25</v>
       </c>
       <c r="B395" t="n">
-        <v>50000.00000000164</v>
+        <v>50000.00000000168</v>
       </c>
     </row>
     <row r="396">
@@ -3597,7 +3597,7 @@
         <v>98.5</v>
       </c>
       <c r="B396" t="n">
-        <v>50000.00000000164</v>
+        <v>50000.00000000169</v>
       </c>
     </row>
     <row r="397">
@@ -3605,7 +3605,7 @@
         <v>98.75</v>
       </c>
       <c r="B397" t="n">
-        <v>50000.00000000165</v>
+        <v>50000.00000000167</v>
       </c>
     </row>
     <row r="398">
@@ -3613,7 +3613,7 @@
         <v>99</v>
       </c>
       <c r="B398" t="n">
-        <v>50000.00000000164</v>
+        <v>50000.00000000168</v>
       </c>
     </row>
     <row r="399">
@@ -3621,7 +3621,7 @@
         <v>99.25</v>
       </c>
       <c r="B399" t="n">
-        <v>50000.0000000016</v>
+        <v>50000.00000000168</v>
       </c>
     </row>
     <row r="400">
@@ -3629,7 +3629,7 @@
         <v>99.5</v>
       </c>
       <c r="B400" t="n">
-        <v>50000.00000000167</v>
+        <v>50000.00000000169</v>
       </c>
     </row>
     <row r="401">
@@ -3637,7 +3637,7 @@
         <v>99.75</v>
       </c>
       <c r="B401" t="n">
-        <v>50000.00000000162</v>
+        <v>50000.00000000167</v>
       </c>
     </row>
     <row r="402">
@@ -3645,7 +3645,7 @@
         <v>100</v>
       </c>
       <c r="B402" t="n">
-        <v>50000.00000000162</v>
+        <v>50000.00000000166</v>
       </c>
     </row>
     <row r="403">
@@ -3653,7 +3653,7 @@
         <v>100.25</v>
       </c>
       <c r="B403" t="n">
-        <v>50000.00000000167</v>
+        <v>50000.0000000017</v>
       </c>
     </row>
     <row r="404">
@@ -3661,7 +3661,7 @@
         <v>100.5</v>
       </c>
       <c r="B404" t="n">
-        <v>50000.00000000162</v>
+        <v>50000.00000000167</v>
       </c>
     </row>
     <row r="405">
@@ -3669,7 +3669,7 @@
         <v>100.75</v>
       </c>
       <c r="B405" t="n">
-        <v>50000.00000000162</v>
+        <v>50000.00000000168</v>
       </c>
     </row>
     <row r="406">
@@ -3677,7 +3677,7 @@
         <v>101</v>
       </c>
       <c r="B406" t="n">
-        <v>50000.00000000164</v>
+        <v>50000.00000000169</v>
       </c>
     </row>
     <row r="407">
@@ -3685,7 +3685,7 @@
         <v>101.25</v>
       </c>
       <c r="B407" t="n">
-        <v>50000.00000000167</v>
+        <v>50000.00000000169</v>
       </c>
     </row>
     <row r="408">
@@ -3693,7 +3693,7 @@
         <v>101.5</v>
       </c>
       <c r="B408" t="n">
-        <v>50000.00000000164</v>
+        <v>50000.00000000166</v>
       </c>
     </row>
     <row r="409">
@@ -3701,7 +3701,7 @@
         <v>101.75</v>
       </c>
       <c r="B409" t="n">
-        <v>50000.00000000164</v>
+        <v>50000.00000000169</v>
       </c>
     </row>
     <row r="410">
@@ -3709,7 +3709,7 @@
         <v>102</v>
       </c>
       <c r="B410" t="n">
-        <v>50000.00000000162</v>
+        <v>50000.00000000168</v>
       </c>
     </row>
     <row r="411">
@@ -3717,7 +3717,7 @@
         <v>102.25</v>
       </c>
       <c r="B411" t="n">
-        <v>50000.00000000164</v>
+        <v>50000.00000000168</v>
       </c>
     </row>
     <row r="412">
@@ -3725,7 +3725,7 @@
         <v>102.5</v>
       </c>
       <c r="B412" t="n">
-        <v>50000.00000000162</v>
+        <v>50000.00000000166</v>
       </c>
     </row>
     <row r="413">
@@ -3733,7 +3733,7 @@
         <v>102.75</v>
       </c>
       <c r="B413" t="n">
-        <v>50000.00000000167</v>
+        <v>50000.00000000169</v>
       </c>
     </row>
     <row r="414">
@@ -3741,7 +3741,7 @@
         <v>103</v>
       </c>
       <c r="B414" t="n">
-        <v>50000.00000000162</v>
+        <v>50000.0000000017</v>
       </c>
     </row>
     <row r="415">
@@ -3749,7 +3749,7 @@
         <v>103.25</v>
       </c>
       <c r="B415" t="n">
-        <v>50000.0000000017</v>
+        <v>50000.00000000169</v>
       </c>
     </row>
     <row r="416">
@@ -3757,7 +3757,7 @@
         <v>103.5</v>
       </c>
       <c r="B416" t="n">
-        <v>50000.00000000164</v>
+        <v>50000.00000000167</v>
       </c>
     </row>
     <row r="417">
@@ -3765,7 +3765,7 @@
         <v>103.75</v>
       </c>
       <c r="B417" t="n">
-        <v>50000.00000000164</v>
+        <v>50000.00000000169</v>
       </c>
     </row>
     <row r="418">
@@ -3773,7 +3773,7 @@
         <v>104</v>
       </c>
       <c r="B418" t="n">
-        <v>50000.00000000164</v>
+        <v>50000.0000000017</v>
       </c>
     </row>
     <row r="419">
@@ -3781,7 +3781,7 @@
         <v>104.25</v>
       </c>
       <c r="B419" t="n">
-        <v>50000.00000000164</v>
+        <v>50000.0000000017</v>
       </c>
     </row>
     <row r="420">
@@ -3789,7 +3789,7 @@
         <v>104.5</v>
       </c>
       <c r="B420" t="n">
-        <v>50000.00000000162</v>
+        <v>50000.00000000168</v>
       </c>
     </row>
     <row r="421">
@@ -3797,7 +3797,7 @@
         <v>104.75</v>
       </c>
       <c r="B421" t="n">
-        <v>50000.00000000167</v>
+        <v>50000.00000000168</v>
       </c>
     </row>
     <row r="422">
@@ -3805,7 +3805,7 @@
         <v>105</v>
       </c>
       <c r="B422" t="n">
-        <v>50000.00000000165</v>
+        <v>50000.00000000169</v>
       </c>
     </row>
     <row r="423">
@@ -3813,7 +3813,7 @@
         <v>105.25</v>
       </c>
       <c r="B423" t="n">
-        <v>50000.00000000165</v>
+        <v>50000.00000000166</v>
       </c>
     </row>
     <row r="424">
@@ -3821,7 +3821,7 @@
         <v>105.5</v>
       </c>
       <c r="B424" t="n">
-        <v>50000.00000000165</v>
+        <v>50000.00000000171</v>
       </c>
     </row>
     <row r="425">
@@ -3829,7 +3829,7 @@
         <v>105.75</v>
       </c>
       <c r="B425" t="n">
-        <v>50000.00000000165</v>
+        <v>50000.00000000169</v>
       </c>
     </row>
     <row r="426">
@@ -3837,7 +3837,7 @@
         <v>106</v>
       </c>
       <c r="B426" t="n">
-        <v>50000.00000000165</v>
+        <v>50000.0000000017</v>
       </c>
     </row>
     <row r="427">
@@ -3845,7 +3845,7 @@
         <v>106.25</v>
       </c>
       <c r="B427" t="n">
-        <v>50000.00000000162</v>
+        <v>50000.00000000167</v>
       </c>
     </row>
     <row r="428">
@@ -3853,7 +3853,7 @@
         <v>106.5</v>
       </c>
       <c r="B428" t="n">
-        <v>50000.00000000164</v>
+        <v>50000.00000000167</v>
       </c>
     </row>
     <row r="429">
@@ -3861,7 +3861,7 @@
         <v>106.75</v>
       </c>
       <c r="B429" t="n">
-        <v>50000.00000000172</v>
+        <v>50000.00000000167</v>
       </c>
     </row>
     <row r="430">
@@ -3869,7 +3869,7 @@
         <v>107</v>
       </c>
       <c r="B430" t="n">
-        <v>50000.00000000173</v>
+        <v>50000.00000000168</v>
       </c>
     </row>
     <row r="431">
@@ -3877,7 +3877,7 @@
         <v>107.25</v>
       </c>
       <c r="B431" t="n">
-        <v>50000.00000000175</v>
+        <v>50000.00000000166</v>
       </c>
     </row>
     <row r="432">
@@ -3893,7 +3893,7 @@
         <v>107.75</v>
       </c>
       <c r="B433" t="n">
-        <v>50000.0000000017</v>
+        <v>50000.00000000167</v>
       </c>
     </row>
     <row r="434">
@@ -3901,7 +3901,7 @@
         <v>108</v>
       </c>
       <c r="B434" t="n">
-        <v>50000.00000000165</v>
+        <v>50000.00000000169</v>
       </c>
     </row>
     <row r="435">
@@ -3909,7 +3909,7 @@
         <v>108.25</v>
       </c>
       <c r="B435" t="n">
-        <v>50000.00000000165</v>
+        <v>50000.00000000168</v>
       </c>
     </row>
     <row r="436">
@@ -3917,7 +3917,7 @@
         <v>108.5</v>
       </c>
       <c r="B436" t="n">
-        <v>50000.00000000172</v>
+        <v>50000.00000000168</v>
       </c>
     </row>
     <row r="437">
@@ -3925,7 +3925,7 @@
         <v>108.75</v>
       </c>
       <c r="B437" t="n">
-        <v>50000.00000000164</v>
+        <v>50000.0000000017</v>
       </c>
     </row>
     <row r="438">
@@ -3933,7 +3933,7 @@
         <v>109</v>
       </c>
       <c r="B438" t="n">
-        <v>50000.00000000162</v>
+        <v>50000.00000000168</v>
       </c>
     </row>
     <row r="439">
@@ -3941,7 +3941,7 @@
         <v>109.25</v>
       </c>
       <c r="B439" t="n">
-        <v>50000.00000000164</v>
+        <v>50000.00000000171</v>
       </c>
     </row>
     <row r="440">
@@ -3949,7 +3949,7 @@
         <v>109.5</v>
       </c>
       <c r="B440" t="n">
-        <v>50000.00000000172</v>
+        <v>50000.0000000017</v>
       </c>
     </row>
     <row r="441">
@@ -3957,7 +3957,7 @@
         <v>109.75</v>
       </c>
       <c r="B441" t="n">
-        <v>50000.00000000165</v>
+        <v>50000.00000000169</v>
       </c>
     </row>
     <row r="442">
@@ -3965,7 +3965,7 @@
         <v>110</v>
       </c>
       <c r="B442" t="n">
-        <v>50000.00000000167</v>
+        <v>50000.00000000169</v>
       </c>
     </row>
     <row r="443">
@@ -3973,7 +3973,7 @@
         <v>110.25</v>
       </c>
       <c r="B443" t="n">
-        <v>50000.00000000167</v>
+        <v>50000.0000000017</v>
       </c>
     </row>
     <row r="444">
@@ -3981,7 +3981,7 @@
         <v>110.5</v>
       </c>
       <c r="B444" t="n">
-        <v>50000.00000000171</v>
+        <v>50000.0000000017</v>
       </c>
     </row>
     <row r="445">
@@ -3989,7 +3989,7 @@
         <v>110.75</v>
       </c>
       <c r="B445" t="n">
-        <v>50000.00000000162</v>
+        <v>50000.00000000171</v>
       </c>
     </row>
     <row r="446">
@@ -3997,7 +3997,7 @@
         <v>111</v>
       </c>
       <c r="B446" t="n">
-        <v>50000.00000000165</v>
+        <v>50000.00000000169</v>
       </c>
     </row>
     <row r="447">
@@ -4005,7 +4005,7 @@
         <v>111.25</v>
       </c>
       <c r="B447" t="n">
-        <v>50000.00000000164</v>
+        <v>50000.0000000017</v>
       </c>
     </row>
     <row r="448">
@@ -4013,7 +4013,7 @@
         <v>111.5</v>
       </c>
       <c r="B448" t="n">
-        <v>50000.00000000167</v>
+        <v>50000.0000000017</v>
       </c>
     </row>
     <row r="449">
@@ -4021,7 +4021,7 @@
         <v>111.75</v>
       </c>
       <c r="B449" t="n">
-        <v>50000.00000000162</v>
+        <v>50000.00000000172</v>
       </c>
     </row>
     <row r="450">
@@ -4029,7 +4029,7 @@
         <v>112</v>
       </c>
       <c r="B450" t="n">
-        <v>50000.00000000162</v>
+        <v>50000.0000000017</v>
       </c>
     </row>
     <row r="451">
@@ -4037,7 +4037,7 @@
         <v>112.25</v>
       </c>
       <c r="B451" t="n">
-        <v>50000.00000000165</v>
+        <v>50000.00000000173</v>
       </c>
     </row>
     <row r="452">
@@ -4045,7 +4045,7 @@
         <v>112.5</v>
       </c>
       <c r="B452" t="n">
-        <v>50000.00000000172</v>
+        <v>50000.00000000169</v>
       </c>
     </row>
     <row r="453">
@@ -4053,7 +4053,7 @@
         <v>112.75</v>
       </c>
       <c r="B453" t="n">
-        <v>50000.00000000159</v>
+        <v>50000.00000000172</v>
       </c>
     </row>
     <row r="454">
@@ -4061,7 +4061,7 @@
         <v>113</v>
       </c>
       <c r="B454" t="n">
-        <v>50000.00000000162</v>
+        <v>50000.00000000171</v>
       </c>
     </row>
     <row r="455">
@@ -4069,7 +4069,7 @@
         <v>113.25</v>
       </c>
       <c r="B455" t="n">
-        <v>50000.00000000164</v>
+        <v>50000.00000000169</v>
       </c>
     </row>
     <row r="456">
@@ -4077,7 +4077,7 @@
         <v>113.5</v>
       </c>
       <c r="B456" t="n">
-        <v>50000.00000000164</v>
+        <v>50000.00000000169</v>
       </c>
     </row>
     <row r="457">
@@ -4093,7 +4093,7 @@
         <v>114</v>
       </c>
       <c r="B458" t="n">
-        <v>50000.00000000162</v>
+        <v>50000.0000000017</v>
       </c>
     </row>
     <row r="459">
@@ -4101,7 +4101,7 @@
         <v>114.25</v>
       </c>
       <c r="B459" t="n">
-        <v>50000.00000000169</v>
+        <v>50000.00000000171</v>
       </c>
     </row>
     <row r="460">
@@ -4109,7 +4109,7 @@
         <v>114.5</v>
       </c>
       <c r="B460" t="n">
-        <v>50000.00000000165</v>
+        <v>50000.00000000171</v>
       </c>
     </row>
     <row r="461">
@@ -4117,7 +4117,7 @@
         <v>114.75</v>
       </c>
       <c r="B461" t="n">
-        <v>50000.00000000164</v>
+        <v>50000.00000000173</v>
       </c>
     </row>
     <row r="462">
@@ -4125,7 +4125,7 @@
         <v>115</v>
       </c>
       <c r="B462" t="n">
-        <v>50000.00000000165</v>
+        <v>50000.00000000171</v>
       </c>
     </row>
     <row r="463">
@@ -4133,7 +4133,7 @@
         <v>115.25</v>
       </c>
       <c r="B463" t="n">
-        <v>50000.00000000162</v>
+        <v>50000.00000000169</v>
       </c>
     </row>
     <row r="464">
@@ -4141,7 +4141,7 @@
         <v>115.5</v>
       </c>
       <c r="B464" t="n">
-        <v>50000.00000000167</v>
+        <v>50000.0000000017</v>
       </c>
     </row>
     <row r="465">
@@ -4149,7 +4149,7 @@
         <v>115.75</v>
       </c>
       <c r="B465" t="n">
-        <v>50000.00000000159</v>
+        <v>50000.0000000017</v>
       </c>
     </row>
     <row r="466">
@@ -4157,7 +4157,7 @@
         <v>116</v>
       </c>
       <c r="B466" t="n">
-        <v>50000.00000000162</v>
+        <v>50000.0000000017</v>
       </c>
     </row>
     <row r="467">
@@ -4165,7 +4165,7 @@
         <v>116.25</v>
       </c>
       <c r="B467" t="n">
-        <v>50000.00000000162</v>
+        <v>50000.00000000168</v>
       </c>
     </row>
     <row r="468">
@@ -4173,7 +4173,7 @@
         <v>116.5</v>
       </c>
       <c r="B468" t="n">
-        <v>50000.00000000167</v>
+        <v>50000.00000000169</v>
       </c>
     </row>
     <row r="469">
@@ -4181,7 +4181,7 @@
         <v>116.75</v>
       </c>
       <c r="B469" t="n">
-        <v>50000.00000000165</v>
+        <v>50000.00000000168</v>
       </c>
     </row>
     <row r="470">
@@ -4189,7 +4189,7 @@
         <v>117</v>
       </c>
       <c r="B470" t="n">
-        <v>50000.00000000162</v>
+        <v>50000.00000000168</v>
       </c>
     </row>
     <row r="471">
@@ -4197,7 +4197,7 @@
         <v>117.25</v>
       </c>
       <c r="B471" t="n">
-        <v>50000.00000000164</v>
+        <v>50000.0000000017</v>
       </c>
     </row>
     <row r="472">
@@ -4205,7 +4205,7 @@
         <v>117.5</v>
       </c>
       <c r="B472" t="n">
-        <v>50000.00000000162</v>
+        <v>50000.00000000172</v>
       </c>
     </row>
     <row r="473">
@@ -4213,7 +4213,7 @@
         <v>117.75</v>
       </c>
       <c r="B473" t="n">
-        <v>50000.00000000167</v>
+        <v>50000.00000000169</v>
       </c>
     </row>
     <row r="474">
@@ -4221,7 +4221,7 @@
         <v>118</v>
       </c>
       <c r="B474" t="n">
-        <v>50000.0000000016</v>
+        <v>50000.00000000168</v>
       </c>
     </row>
     <row r="475">
@@ -4229,7 +4229,7 @@
         <v>118.25</v>
       </c>
       <c r="B475" t="n">
-        <v>50000.00000000164</v>
+        <v>50000.00000000169</v>
       </c>
     </row>
     <row r="476">
@@ -4245,7 +4245,7 @@
         <v>118.75</v>
       </c>
       <c r="B477" t="n">
-        <v>50000.00000000169</v>
+        <v>50000.00000000167</v>
       </c>
     </row>
     <row r="478">
@@ -4253,7 +4253,7 @@
         <v>119</v>
       </c>
       <c r="B478" t="n">
-        <v>50000.00000000165</v>
+        <v>50000.00000000166</v>
       </c>
     </row>
     <row r="479">
@@ -4261,7 +4261,7 @@
         <v>119.25</v>
       </c>
       <c r="B479" t="n">
-        <v>50000.00000000169</v>
+        <v>50000.00000000167</v>
       </c>
     </row>
     <row r="480">
@@ -4269,7 +4269,7 @@
         <v>119.5</v>
       </c>
       <c r="B480" t="n">
-        <v>50000.00000000169</v>
+        <v>50000.00000000166</v>
       </c>
     </row>
     <row r="481">
@@ -4277,7 +4277,7 @@
         <v>119.75</v>
       </c>
       <c r="B481" t="n">
-        <v>50000.00000000167</v>
+        <v>50000.00000000164</v>
       </c>
     </row>
     <row r="482">
@@ -4285,7 +4285,7 @@
         <v>120</v>
       </c>
       <c r="B482" t="n">
-        <v>50000.00000000165</v>
+        <v>50000.00000000166</v>
       </c>
     </row>
     <row r="483">
@@ -4301,7 +4301,7 @@
         <v>120.5</v>
       </c>
       <c r="B484" t="n">
-        <v>50000.00000000165</v>
+        <v>50000.00000000164</v>
       </c>
     </row>
     <row r="485">
@@ -4309,7 +4309,7 @@
         <v>120.75</v>
       </c>
       <c r="B485" t="n">
-        <v>50000.00000000165</v>
+        <v>50000.00000000166</v>
       </c>
     </row>
     <row r="486">
@@ -4317,7 +4317,7 @@
         <v>121</v>
       </c>
       <c r="B486" t="n">
-        <v>50000.00000000165</v>
+        <v>50000.00000000164</v>
       </c>
     </row>
     <row r="487">
@@ -4325,7 +4325,7 @@
         <v>121.25</v>
       </c>
       <c r="B487" t="n">
-        <v>50000.00000000167</v>
+        <v>50000.00000000166</v>
       </c>
     </row>
     <row r="488">
@@ -4341,7 +4341,7 @@
         <v>121.75</v>
       </c>
       <c r="B489" t="n">
-        <v>50000.00000000165</v>
+        <v>50000.00000000168</v>
       </c>
     </row>
     <row r="490">
@@ -4349,7 +4349,7 @@
         <v>122</v>
       </c>
       <c r="B490" t="n">
-        <v>50000.00000000165</v>
+        <v>50000.00000000167</v>
       </c>
     </row>
     <row r="491">
@@ -4357,7 +4357,7 @@
         <v>122.25</v>
       </c>
       <c r="B491" t="n">
-        <v>50000.00000000173</v>
+        <v>50000.00000000168</v>
       </c>
     </row>
     <row r="492">
@@ -4365,7 +4365,7 @@
         <v>122.5</v>
       </c>
       <c r="B492" t="n">
-        <v>50000.00000000164</v>
+        <v>50000.00000000168</v>
       </c>
     </row>
     <row r="493">
@@ -4373,7 +4373,7 @@
         <v>122.75</v>
       </c>
       <c r="B493" t="n">
-        <v>50000.00000000164</v>
+        <v>50000.00000000167</v>
       </c>
     </row>
     <row r="494">
@@ -4381,7 +4381,7 @@
         <v>123</v>
       </c>
       <c r="B494" t="n">
-        <v>50000.00000000172</v>
+        <v>50000.0000000017</v>
       </c>
     </row>
     <row r="495">
@@ -4389,7 +4389,7 @@
         <v>123.25</v>
       </c>
       <c r="B495" t="n">
-        <v>50000.00000000171</v>
+        <v>50000.00000000167</v>
       </c>
     </row>
     <row r="496">
@@ -4397,7 +4397,7 @@
         <v>123.5</v>
       </c>
       <c r="B496" t="n">
-        <v>50000.00000000165</v>
+        <v>50000.00000000169</v>
       </c>
     </row>
     <row r="497">
@@ -4405,7 +4405,7 @@
         <v>123.75</v>
       </c>
       <c r="B497" t="n">
-        <v>50000.00000000165</v>
+        <v>50000.0000000017</v>
       </c>
     </row>
     <row r="498">
@@ -4413,7 +4413,7 @@
         <v>124</v>
       </c>
       <c r="B498" t="n">
-        <v>50000.00000000171</v>
+        <v>50000.00000000168</v>
       </c>
     </row>
     <row r="499">
@@ -4421,7 +4421,7 @@
         <v>124.25</v>
       </c>
       <c r="B499" t="n">
-        <v>50000.00000000165</v>
+        <v>50000.00000000168</v>
       </c>
     </row>
     <row r="500">
@@ -4437,7 +4437,7 @@
         <v>124.75</v>
       </c>
       <c r="B501" t="n">
-        <v>50000.00000000164</v>
+        <v>50000.00000000168</v>
       </c>
     </row>
     <row r="502">
@@ -4445,7 +4445,7 @@
         <v>125</v>
       </c>
       <c r="B502" t="n">
-        <v>50000.00000000162</v>
+        <v>50000.00000000167</v>
       </c>
     </row>
     <row r="503">
@@ -4453,7 +4453,7 @@
         <v>125.25</v>
       </c>
       <c r="B503" t="n">
-        <v>50000.00000000165</v>
+        <v>50000.00000000167</v>
       </c>
     </row>
     <row r="504">
@@ -4461,7 +4461,7 @@
         <v>125.5</v>
       </c>
       <c r="B504" t="n">
-        <v>50000.00000000165</v>
+        <v>50000.00000000168</v>
       </c>
     </row>
     <row r="505">
@@ -4469,7 +4469,7 @@
         <v>125.75</v>
       </c>
       <c r="B505" t="n">
-        <v>50000.00000000164</v>
+        <v>50000.00000000167</v>
       </c>
     </row>
     <row r="506">
@@ -4477,7 +4477,7 @@
         <v>126</v>
       </c>
       <c r="B506" t="n">
-        <v>50000.00000000167</v>
+        <v>50000.00000000168</v>
       </c>
     </row>
     <row r="507">
@@ -4485,7 +4485,7 @@
         <v>126.25</v>
       </c>
       <c r="B507" t="n">
-        <v>50000.00000000167</v>
+        <v>50000.00000000169</v>
       </c>
     </row>
     <row r="508">
@@ -4493,7 +4493,7 @@
         <v>126.5</v>
       </c>
       <c r="B508" t="n">
-        <v>50000.00000000164</v>
+        <v>50000.00000000169</v>
       </c>
     </row>
     <row r="509">
@@ -4501,7 +4501,7 @@
         <v>126.75</v>
       </c>
       <c r="B509" t="n">
-        <v>50000.00000000176</v>
+        <v>50000.00000000169</v>
       </c>
     </row>
     <row r="510">
@@ -4509,7 +4509,7 @@
         <v>127</v>
       </c>
       <c r="B510" t="n">
-        <v>50000.00000000162</v>
+        <v>50000.0000000017</v>
       </c>
     </row>
     <row r="511">
@@ -4517,7 +4517,7 @@
         <v>127.25</v>
       </c>
       <c r="B511" t="n">
-        <v>50000.0000000017</v>
+        <v>50000.00000000168</v>
       </c>
     </row>
     <row r="512">
@@ -4533,7 +4533,7 @@
         <v>127.75</v>
       </c>
       <c r="B513" t="n">
-        <v>50000.00000000171</v>
+        <v>50000.00000000166</v>
       </c>
     </row>
     <row r="514">
@@ -4541,7 +4541,7 @@
         <v>128</v>
       </c>
       <c r="B514" t="n">
-        <v>50000.00000000164</v>
+        <v>50000.00000000168</v>
       </c>
     </row>
     <row r="515">
@@ -4549,7 +4549,7 @@
         <v>128.25</v>
       </c>
       <c r="B515" t="n">
-        <v>50000.00000000167</v>
+        <v>50000.00000000168</v>
       </c>
     </row>
     <row r="516">
@@ -4557,7 +4557,7 @@
         <v>128.5</v>
       </c>
       <c r="B516" t="n">
-        <v>50000.00000000164</v>
+        <v>50000.00000000168</v>
       </c>
     </row>
     <row r="517">
@@ -4565,7 +4565,7 @@
         <v>128.75</v>
       </c>
       <c r="B517" t="n">
-        <v>50000.00000000172</v>
+        <v>50000.00000000171</v>
       </c>
     </row>
     <row r="518">
@@ -4573,7 +4573,7 @@
         <v>129</v>
       </c>
       <c r="B518" t="n">
-        <v>50000.00000000172</v>
+        <v>50000.00000000173</v>
       </c>
     </row>
     <row r="519">
@@ -4581,7 +4581,7 @@
         <v>129.25</v>
       </c>
       <c r="B519" t="n">
-        <v>50000.0000000017</v>
+        <v>50000.00000000168</v>
       </c>
     </row>
     <row r="520">
@@ -4589,7 +4589,7 @@
         <v>129.5</v>
       </c>
       <c r="B520" t="n">
-        <v>50000.00000000169</v>
+        <v>50000.00000000171</v>
       </c>
     </row>
     <row r="521">
@@ -4597,7 +4597,7 @@
         <v>129.75</v>
       </c>
       <c r="B521" t="n">
-        <v>50000.00000000164</v>
+        <v>50000.0000000017</v>
       </c>
     </row>
     <row r="522">
@@ -4605,7 +4605,7 @@
         <v>130</v>
       </c>
       <c r="B522" t="n">
-        <v>50000.00000000167</v>
+        <v>50000.00000000168</v>
       </c>
     </row>
     <row r="523">
@@ -4613,7 +4613,7 @@
         <v>130.25</v>
       </c>
       <c r="B523" t="n">
-        <v>50000.0000000017</v>
+        <v>50000.00000000169</v>
       </c>
     </row>
     <row r="524">
@@ -4621,7 +4621,7 @@
         <v>130.5</v>
       </c>
       <c r="B524" t="n">
-        <v>50000.00000000167</v>
+        <v>50000.0000000017</v>
       </c>
     </row>
     <row r="525">
@@ -4629,7 +4629,7 @@
         <v>130.75</v>
       </c>
       <c r="B525" t="n">
-        <v>50000.00000000172</v>
+        <v>50000.0000000017</v>
       </c>
     </row>
     <row r="526">
@@ -4645,7 +4645,7 @@
         <v>131.25</v>
       </c>
       <c r="B527" t="n">
-        <v>50000.00000000165</v>
+        <v>50000.00000000169</v>
       </c>
     </row>
     <row r="528">
@@ -4653,7 +4653,7 @@
         <v>131.5</v>
       </c>
       <c r="B528" t="n">
-        <v>50000.00000000169</v>
+        <v>50000.0000000017</v>
       </c>
     </row>
     <row r="529">
@@ -4661,7 +4661,7 @@
         <v>131.75</v>
       </c>
       <c r="B529" t="n">
-        <v>50000.00000000173</v>
+        <v>50000.00000000168</v>
       </c>
     </row>
     <row r="530">
@@ -4669,7 +4669,7 @@
         <v>132</v>
       </c>
       <c r="B530" t="n">
-        <v>50000.00000000167</v>
+        <v>50000.00000000169</v>
       </c>
     </row>
     <row r="531">
@@ -4677,7 +4677,7 @@
         <v>132.25</v>
       </c>
       <c r="B531" t="n">
-        <v>50000.00000000165</v>
+        <v>50000.00000000168</v>
       </c>
     </row>
     <row r="532">
@@ -4685,7 +4685,7 @@
         <v>132.5</v>
       </c>
       <c r="B532" t="n">
-        <v>50000.0000000016</v>
+        <v>50000.00000000164</v>
       </c>
     </row>
     <row r="533">
@@ -4693,7 +4693,7 @@
         <v>132.75</v>
       </c>
       <c r="B533" t="n">
-        <v>50000.00000000165</v>
+        <v>50000.00000000168</v>
       </c>
     </row>
     <row r="534">
@@ -4701,7 +4701,7 @@
         <v>133</v>
       </c>
       <c r="B534" t="n">
-        <v>50000.00000000164</v>
+        <v>50000.00000000167</v>
       </c>
     </row>
     <row r="535">
@@ -4709,7 +4709,7 @@
         <v>133.25</v>
       </c>
       <c r="B535" t="n">
-        <v>50000.00000000167</v>
+        <v>50000.0000000017</v>
       </c>
     </row>
     <row r="536">
@@ -4717,7 +4717,7 @@
         <v>133.5</v>
       </c>
       <c r="B536" t="n">
-        <v>50000.00000000164</v>
+        <v>50000.00000000169</v>
       </c>
     </row>
     <row r="537">
@@ -4725,7 +4725,7 @@
         <v>133.75</v>
       </c>
       <c r="B537" t="n">
-        <v>50000.00000000167</v>
+        <v>50000.00000000169</v>
       </c>
     </row>
     <row r="538">
@@ -4733,7 +4733,7 @@
         <v>134</v>
       </c>
       <c r="B538" t="n">
-        <v>50000.00000000167</v>
+        <v>50000.0000000017</v>
       </c>
     </row>
     <row r="539">
@@ -4741,7 +4741,7 @@
         <v>134.25</v>
       </c>
       <c r="B539" t="n">
-        <v>50000.00000000171</v>
+        <v>50000.00000000167</v>
       </c>
     </row>
     <row r="540">
@@ -4749,7 +4749,7 @@
         <v>134.5</v>
       </c>
       <c r="B540" t="n">
-        <v>50000.00000000171</v>
+        <v>50000.00000000168</v>
       </c>
     </row>
     <row r="541">
@@ -4757,7 +4757,7 @@
         <v>134.75</v>
       </c>
       <c r="B541" t="n">
-        <v>50000.00000000173</v>
+        <v>50000.00000000167</v>
       </c>
     </row>
     <row r="542">
@@ -4781,7 +4781,7 @@
         <v>135.5</v>
       </c>
       <c r="B544" t="n">
-        <v>50000.0000000017</v>
+        <v>50000.00000000167</v>
       </c>
     </row>
     <row r="545">
@@ -4789,7 +4789,7 @@
         <v>135.75</v>
       </c>
       <c r="B545" t="n">
-        <v>50000.00000000171</v>
+        <v>50000.00000000168</v>
       </c>
     </row>
     <row r="546">
@@ -4797,7 +4797,7 @@
         <v>136</v>
       </c>
       <c r="B546" t="n">
-        <v>50000.00000000169</v>
+        <v>50000.00000000168</v>
       </c>
     </row>
     <row r="547">
@@ -4805,7 +4805,7 @@
         <v>136.25</v>
       </c>
       <c r="B547" t="n">
-        <v>50000.00000000172</v>
+        <v>50000.00000000166</v>
       </c>
     </row>
     <row r="548">
@@ -4813,7 +4813,7 @@
         <v>136.5</v>
       </c>
       <c r="B548" t="n">
-        <v>50000.00000000164</v>
+        <v>50000.00000000168</v>
       </c>
     </row>
     <row r="549">
@@ -4821,7 +4821,7 @@
         <v>136.75</v>
       </c>
       <c r="B549" t="n">
-        <v>50000.00000000164</v>
+        <v>50000.00000000167</v>
       </c>
     </row>
     <row r="550">
@@ -4829,7 +4829,7 @@
         <v>137</v>
       </c>
       <c r="B550" t="n">
-        <v>50000.00000000171</v>
+        <v>50000.00000000167</v>
       </c>
     </row>
     <row r="551">
@@ -4837,7 +4837,7 @@
         <v>137.25</v>
       </c>
       <c r="B551" t="n">
-        <v>50000.00000000171</v>
+        <v>50000.00000000167</v>
       </c>
     </row>
     <row r="552">
@@ -4853,7 +4853,7 @@
         <v>137.75</v>
       </c>
       <c r="B553" t="n">
-        <v>50000.00000000164</v>
+        <v>50000.00000000168</v>
       </c>
     </row>
     <row r="554">
@@ -4861,7 +4861,7 @@
         <v>138</v>
       </c>
       <c r="B554" t="n">
-        <v>50000.00000000165</v>
+        <v>50000.00000000168</v>
       </c>
     </row>
     <row r="555">
@@ -4869,7 +4869,7 @@
         <v>138.25</v>
       </c>
       <c r="B555" t="n">
-        <v>50000.0000000016</v>
+        <v>50000.00000000168</v>
       </c>
     </row>
     <row r="556">
@@ -4877,7 +4877,7 @@
         <v>138.5</v>
       </c>
       <c r="B556" t="n">
-        <v>50000.0000000016</v>
+        <v>50000.00000000168</v>
       </c>
     </row>
     <row r="557">
@@ -4885,7 +4885,7 @@
         <v>138.75</v>
       </c>
       <c r="B557" t="n">
-        <v>50000.00000000162</v>
+        <v>50000.00000000169</v>
       </c>
     </row>
     <row r="558">
@@ -4893,7 +4893,7 @@
         <v>139</v>
       </c>
       <c r="B558" t="n">
-        <v>50000.00000000162</v>
+        <v>50000.00000000168</v>
       </c>
     </row>
     <row r="559">
@@ -4901,7 +4901,7 @@
         <v>139.25</v>
       </c>
       <c r="B559" t="n">
-        <v>50000.00000000164</v>
+        <v>50000.00000000168</v>
       </c>
     </row>
     <row r="560">
@@ -4909,7 +4909,7 @@
         <v>139.5</v>
       </c>
       <c r="B560" t="n">
-        <v>50000.00000000167</v>
+        <v>50000.00000000168</v>
       </c>
     </row>
     <row r="561">
@@ -4917,7 +4917,7 @@
         <v>139.75</v>
       </c>
       <c r="B561" t="n">
-        <v>50000.00000000164</v>
+        <v>50000.00000000167</v>
       </c>
     </row>
     <row r="562">
@@ -4925,7 +4925,7 @@
         <v>140</v>
       </c>
       <c r="B562" t="n">
-        <v>50000.00000000162</v>
+        <v>50000.00000000164</v>
       </c>
     </row>
     <row r="563">
@@ -4933,7 +4933,7 @@
         <v>140.25</v>
       </c>
       <c r="B563" t="n">
-        <v>50000.00000000162</v>
+        <v>50000.00000000166</v>
       </c>
     </row>
     <row r="564">
@@ -4941,7 +4941,7 @@
         <v>140.5</v>
       </c>
       <c r="B564" t="n">
-        <v>50000.00000000164</v>
+        <v>50000.00000000168</v>
       </c>
     </row>
     <row r="565">
@@ -4949,7 +4949,7 @@
         <v>140.75</v>
       </c>
       <c r="B565" t="n">
-        <v>50000.00000000167</v>
+        <v>50000.00000000164</v>
       </c>
     </row>
     <row r="566">
@@ -4957,7 +4957,7 @@
         <v>141</v>
       </c>
       <c r="B566" t="n">
-        <v>50000.00000000169</v>
+        <v>50000.00000000168</v>
       </c>
     </row>
     <row r="567">
@@ -4965,7 +4965,7 @@
         <v>141.25</v>
       </c>
       <c r="B567" t="n">
-        <v>50000.00000000164</v>
+        <v>50000.00000000169</v>
       </c>
     </row>
     <row r="568">
@@ -4973,7 +4973,7 @@
         <v>141.5</v>
       </c>
       <c r="B568" t="n">
-        <v>50000.00000000164</v>
+        <v>50000.00000000171</v>
       </c>
     </row>
     <row r="569">
@@ -4981,7 +4981,7 @@
         <v>141.75</v>
       </c>
       <c r="B569" t="n">
-        <v>50000.00000000162</v>
+        <v>50000.00000000168</v>
       </c>
     </row>
     <row r="570">
@@ -4989,7 +4989,7 @@
         <v>142</v>
       </c>
       <c r="B570" t="n">
-        <v>50000.00000000167</v>
+        <v>50000.0000000017</v>
       </c>
     </row>
     <row r="571">
@@ -4997,7 +4997,7 @@
         <v>142.25</v>
       </c>
       <c r="B571" t="n">
-        <v>50000.00000000167</v>
+        <v>50000.00000000169</v>
       </c>
     </row>
     <row r="572">
@@ -5005,7 +5005,7 @@
         <v>142.5</v>
       </c>
       <c r="B572" t="n">
-        <v>50000.00000000164</v>
+        <v>50000.00000000169</v>
       </c>
     </row>
     <row r="573">
@@ -5013,7 +5013,7 @@
         <v>142.75</v>
       </c>
       <c r="B573" t="n">
-        <v>50000.00000000171</v>
+        <v>50000.00000000168</v>
       </c>
     </row>
     <row r="574">
@@ -5021,7 +5021,7 @@
         <v>143</v>
       </c>
       <c r="B574" t="n">
-        <v>50000.00000000164</v>
+        <v>50000.0000000017</v>
       </c>
     </row>
     <row r="575">
@@ -5029,7 +5029,7 @@
         <v>143.25</v>
       </c>
       <c r="B575" t="n">
-        <v>50000.00000000167</v>
+        <v>50000.00000000169</v>
       </c>
     </row>
     <row r="576">
@@ -5037,7 +5037,7 @@
         <v>143.5</v>
       </c>
       <c r="B576" t="n">
-        <v>50000.00000000165</v>
+        <v>50000.00000000169</v>
       </c>
     </row>
     <row r="577">
@@ -5053,7 +5053,7 @@
         <v>144</v>
       </c>
       <c r="B578" t="n">
-        <v>50000.00000000164</v>
+        <v>50000.00000000167</v>
       </c>
     </row>
     <row r="579">
@@ -5061,7 +5061,7 @@
         <v>144.25</v>
       </c>
       <c r="B579" t="n">
-        <v>50000.00000000162</v>
+        <v>50000.00000000167</v>
       </c>
     </row>
     <row r="580">
@@ -5069,7 +5069,7 @@
         <v>144.5</v>
       </c>
       <c r="B580" t="n">
-        <v>50000.00000000167</v>
+        <v>50000.00000000168</v>
       </c>
     </row>
     <row r="581">
@@ -5077,7 +5077,7 @@
         <v>144.75</v>
       </c>
       <c r="B581" t="n">
-        <v>50000.00000000167</v>
+        <v>50000.00000000166</v>
       </c>
     </row>
     <row r="582">
@@ -5085,7 +5085,7 @@
         <v>145</v>
       </c>
       <c r="B582" t="n">
-        <v>50000.0000000017</v>
+        <v>50000.00000000167</v>
       </c>
     </row>
     <row r="583">
@@ -5093,7 +5093,7 @@
         <v>145.25</v>
       </c>
       <c r="B583" t="n">
-        <v>50000.0000000017</v>
+        <v>50000.00000000168</v>
       </c>
     </row>
     <row r="584">
@@ -5101,7 +5101,7 @@
         <v>145.5</v>
       </c>
       <c r="B584" t="n">
-        <v>50000.00000000171</v>
+        <v>50000.00000000169</v>
       </c>
     </row>
     <row r="585">
@@ -5109,7 +5109,7 @@
         <v>145.75</v>
       </c>
       <c r="B585" t="n">
-        <v>50000.00000000162</v>
+        <v>50000.0000000017</v>
       </c>
     </row>
     <row r="586">
@@ -5117,7 +5117,7 @@
         <v>146</v>
       </c>
       <c r="B586" t="n">
-        <v>50000.0000000017</v>
+        <v>50000.00000000168</v>
       </c>
     </row>
     <row r="587">
@@ -5125,7 +5125,7 @@
         <v>146.25</v>
       </c>
       <c r="B587" t="n">
-        <v>50000.00000000164</v>
+        <v>50000.0000000017</v>
       </c>
     </row>
     <row r="588">
@@ -5133,7 +5133,7 @@
         <v>146.5</v>
       </c>
       <c r="B588" t="n">
-        <v>50000.00000000172</v>
+        <v>50000.00000000168</v>
       </c>
     </row>
     <row r="589">
@@ -5141,7 +5141,7 @@
         <v>146.75</v>
       </c>
       <c r="B589" t="n">
-        <v>50000.00000000164</v>
+        <v>50000.00000000168</v>
       </c>
     </row>
     <row r="590">
@@ -5149,7 +5149,7 @@
         <v>147</v>
       </c>
       <c r="B590" t="n">
-        <v>50000.00000000169</v>
+        <v>50000.00000000171</v>
       </c>
     </row>
     <row r="591">
@@ -5157,7 +5157,7 @@
         <v>147.25</v>
       </c>
       <c r="B591" t="n">
-        <v>50000.00000000164</v>
+        <v>50000.00000000169</v>
       </c>
     </row>
     <row r="592">
@@ -5165,7 +5165,7 @@
         <v>147.5</v>
       </c>
       <c r="B592" t="n">
-        <v>50000.00000000167</v>
+        <v>50000.00000000169</v>
       </c>
     </row>
     <row r="593">
@@ -5173,7 +5173,7 @@
         <v>147.75</v>
       </c>
       <c r="B593" t="n">
-        <v>50000.00000000169</v>
+        <v>50000.00000000171</v>
       </c>
     </row>
     <row r="594">
@@ -5181,7 +5181,7 @@
         <v>148</v>
       </c>
       <c r="B594" t="n">
-        <v>50000.00000000165</v>
+        <v>50000.00000000169</v>
       </c>
     </row>
     <row r="595">
@@ -5189,7 +5189,7 @@
         <v>148.25</v>
       </c>
       <c r="B595" t="n">
-        <v>50000.00000000165</v>
+        <v>50000.00000000169</v>
       </c>
     </row>
     <row r="596">
@@ -5197,7 +5197,7 @@
         <v>148.5</v>
       </c>
       <c r="B596" t="n">
-        <v>50000.00000000172</v>
+        <v>50000.00000000171</v>
       </c>
     </row>
     <row r="597">
@@ -5205,7 +5205,7 @@
         <v>148.75</v>
       </c>
       <c r="B597" t="n">
-        <v>50000.00000000165</v>
+        <v>50000.00000000172</v>
       </c>
     </row>
     <row r="598">
@@ -5213,7 +5213,7 @@
         <v>149</v>
       </c>
       <c r="B598" t="n">
-        <v>50000.00000000167</v>
+        <v>50000.0000000017</v>
       </c>
     </row>
     <row r="599">
@@ -5221,7 +5221,7 @@
         <v>149.25</v>
       </c>
       <c r="B599" t="n">
-        <v>50000.0000000017</v>
+        <v>50000.00000000169</v>
       </c>
     </row>
     <row r="600">
@@ -5229,7 +5229,7 @@
         <v>149.5</v>
       </c>
       <c r="B600" t="n">
-        <v>50000.00000000164</v>
+        <v>50000.00000000171</v>
       </c>
     </row>
     <row r="601">
@@ -5237,7 +5237,7 @@
         <v>149.75</v>
       </c>
       <c r="B601" t="n">
-        <v>50000.00000000164</v>
+        <v>50000.0000000017</v>
       </c>
     </row>
     <row r="602">
@@ -5245,7 +5245,7 @@
         <v>150</v>
       </c>
       <c r="B602" t="n">
-        <v>50000.00000000171</v>
+        <v>50000.00000000166</v>
       </c>
     </row>
     <row r="603">
@@ -5253,7 +5253,7 @@
         <v>150.25</v>
       </c>
       <c r="B603" t="n">
-        <v>50000.00000000172</v>
+        <v>50000.00000000167</v>
       </c>
     </row>
     <row r="604">
@@ -5261,7 +5261,7 @@
         <v>150.5</v>
       </c>
       <c r="B604" t="n">
-        <v>50000.0000000017</v>
+        <v>50000.00000000168</v>
       </c>
     </row>
     <row r="605">
@@ -5269,7 +5269,7 @@
         <v>150.75</v>
       </c>
       <c r="B605" t="n">
-        <v>50000.00000000167</v>
+        <v>50000.0000000017</v>
       </c>
     </row>
     <row r="606">
@@ -5277,7 +5277,7 @@
         <v>151</v>
       </c>
       <c r="B606" t="n">
-        <v>50000.00000000167</v>
+        <v>50000.0000000017</v>
       </c>
     </row>
     <row r="607">
@@ -5285,7 +5285,7 @@
         <v>151.25</v>
       </c>
       <c r="B607" t="n">
-        <v>50000.00000000164</v>
+        <v>50000.00000000169</v>
       </c>
     </row>
     <row r="608">
@@ -5293,7 +5293,7 @@
         <v>151.5</v>
       </c>
       <c r="B608" t="n">
-        <v>50000.00000000169</v>
+        <v>50000.00000000167</v>
       </c>
     </row>
     <row r="609">
@@ -5301,7 +5301,7 @@
         <v>151.75</v>
       </c>
       <c r="B609" t="n">
-        <v>50000.00000000165</v>
+        <v>50000.00000000167</v>
       </c>
     </row>
     <row r="610">
@@ -5309,7 +5309,7 @@
         <v>152</v>
       </c>
       <c r="B610" t="n">
-        <v>50000.00000000172</v>
+        <v>50000.00000000166</v>
       </c>
     </row>
     <row r="611">
@@ -5317,7 +5317,7 @@
         <v>152.25</v>
       </c>
       <c r="B611" t="n">
-        <v>50000.00000000169</v>
+        <v>50000.00000000167</v>
       </c>
     </row>
     <row r="612">
@@ -5333,7 +5333,7 @@
         <v>152.75</v>
       </c>
       <c r="B613" t="n">
-        <v>50000.00000000167</v>
+        <v>50000.00000000169</v>
       </c>
     </row>
     <row r="614">
@@ -5349,7 +5349,7 @@
         <v>153.25</v>
       </c>
       <c r="B615" t="n">
-        <v>50000.00000000167</v>
+        <v>50000.00000000169</v>
       </c>
     </row>
     <row r="616">
@@ -5357,7 +5357,7 @@
         <v>153.5</v>
       </c>
       <c r="B616" t="n">
-        <v>50000.00000000171</v>
+        <v>50000.00000000169</v>
       </c>
     </row>
     <row r="617">
@@ -5365,7 +5365,7 @@
         <v>153.75</v>
       </c>
       <c r="B617" t="n">
-        <v>50000.00000000165</v>
+        <v>50000.0000000017</v>
       </c>
     </row>
     <row r="618">
@@ -5373,7 +5373,7 @@
         <v>154</v>
       </c>
       <c r="B618" t="n">
-        <v>50000.0000000017</v>
+        <v>50000.00000000169</v>
       </c>
     </row>
     <row r="619">
@@ -5381,7 +5381,7 @@
         <v>154.25</v>
       </c>
       <c r="B619" t="n">
-        <v>50000.00000000173</v>
+        <v>50000.00000000169</v>
       </c>
     </row>
     <row r="620">
@@ -5397,7 +5397,7 @@
         <v>154.75</v>
       </c>
       <c r="B621" t="n">
-        <v>50000.00000000169</v>
+        <v>50000.00000000168</v>
       </c>
     </row>
     <row r="622">
@@ -5413,7 +5413,7 @@
         <v>155.25</v>
       </c>
       <c r="B623" t="n">
-        <v>50000.00000000171</v>
+        <v>50000.00000000169</v>
       </c>
     </row>
     <row r="624">
@@ -5421,7 +5421,7 @@
         <v>155.5</v>
       </c>
       <c r="B624" t="n">
-        <v>50000.00000000173</v>
+        <v>50000.0000000017</v>
       </c>
     </row>
     <row r="625">
@@ -5429,7 +5429,7 @@
         <v>155.75</v>
       </c>
       <c r="B625" t="n">
-        <v>50000.00000000173</v>
+        <v>50000.0000000017</v>
       </c>
     </row>
     <row r="626">
@@ -5445,7 +5445,7 @@
         <v>156.25</v>
       </c>
       <c r="B627" t="n">
-        <v>50000.0000000017</v>
+        <v>50000.00000000172</v>
       </c>
     </row>
     <row r="628">
@@ -5453,7 +5453,7 @@
         <v>156.5</v>
       </c>
       <c r="B628" t="n">
-        <v>50000.0000000016</v>
+        <v>50000.00000000169</v>
       </c>
     </row>
     <row r="629">
@@ -5461,7 +5461,7 @@
         <v>156.75</v>
       </c>
       <c r="B629" t="n">
-        <v>50000.00000000165</v>
+        <v>50000.00000000171</v>
       </c>
     </row>
     <row r="630">
@@ -5469,7 +5469,7 @@
         <v>157</v>
       </c>
       <c r="B630" t="n">
-        <v>50000.00000000169</v>
+        <v>50000.0000000017</v>
       </c>
     </row>
     <row r="631">
@@ -5477,7 +5477,7 @@
         <v>157.25</v>
       </c>
       <c r="B631" t="n">
-        <v>50000.00000000169</v>
+        <v>50000.00000000171</v>
       </c>
     </row>
     <row r="632">
@@ -5485,7 +5485,7 @@
         <v>157.5</v>
       </c>
       <c r="B632" t="n">
-        <v>50000.00000000164</v>
+        <v>50000.0000000017</v>
       </c>
     </row>
     <row r="633">
@@ -5493,7 +5493,7 @@
         <v>157.75</v>
       </c>
       <c r="B633" t="n">
-        <v>50000.00000000162</v>
+        <v>50000.00000000169</v>
       </c>
     </row>
     <row r="634">
@@ -5501,7 +5501,7 @@
         <v>158</v>
       </c>
       <c r="B634" t="n">
-        <v>50000.00000000174</v>
+        <v>50000.0000000017</v>
       </c>
     </row>
     <row r="635">
@@ -5509,7 +5509,7 @@
         <v>158.25</v>
       </c>
       <c r="B635" t="n">
-        <v>50000.00000000173</v>
+        <v>50000.00000000172</v>
       </c>
     </row>
     <row r="636">
@@ -5517,7 +5517,7 @@
         <v>158.5</v>
       </c>
       <c r="B636" t="n">
-        <v>50000.00000000172</v>
+        <v>50000.0000000017</v>
       </c>
     </row>
     <row r="637">
@@ -5525,7 +5525,7 @@
         <v>158.75</v>
       </c>
       <c r="B637" t="n">
-        <v>50000.00000000169</v>
+        <v>50000.0000000017</v>
       </c>
     </row>
     <row r="638">
@@ -5533,7 +5533,7 @@
         <v>159</v>
       </c>
       <c r="B638" t="n">
-        <v>50000.00000000175</v>
+        <v>50000.00000000171</v>
       </c>
     </row>
     <row r="639">
@@ -5541,7 +5541,7 @@
         <v>159.25</v>
       </c>
       <c r="B639" t="n">
-        <v>50000.0000000017</v>
+        <v>50000.00000000171</v>
       </c>
     </row>
     <row r="640">
@@ -5549,7 +5549,7 @@
         <v>159.5</v>
       </c>
       <c r="B640" t="n">
-        <v>50000.00000000165</v>
+        <v>50000.00000000173</v>
       </c>
     </row>
     <row r="641">
@@ -5557,7 +5557,7 @@
         <v>159.75</v>
       </c>
       <c r="B641" t="n">
-        <v>50000.00000000173</v>
+        <v>50000.00000000169</v>
       </c>
     </row>
     <row r="642">
@@ -5565,7 +5565,7 @@
         <v>160</v>
       </c>
       <c r="B642" t="n">
-        <v>50000.0000000017</v>
+        <v>50000.00000000169</v>
       </c>
     </row>
     <row r="643">
@@ -5573,7 +5573,7 @@
         <v>160.25</v>
       </c>
       <c r="B643" t="n">
-        <v>50000.00000000164</v>
+        <v>50000.0000000017</v>
       </c>
     </row>
     <row r="644">
@@ -5581,7 +5581,7 @@
         <v>160.5</v>
       </c>
       <c r="B644" t="n">
-        <v>50000.00000000167</v>
+        <v>50000.0000000017</v>
       </c>
     </row>
     <row r="645">
@@ -5589,7 +5589,7 @@
         <v>160.75</v>
       </c>
       <c r="B645" t="n">
-        <v>50000.00000000165</v>
+        <v>50000.00000000167</v>
       </c>
     </row>
     <row r="646">
@@ -5597,7 +5597,7 @@
         <v>161</v>
       </c>
       <c r="B646" t="n">
-        <v>50000.00000000171</v>
+        <v>50000.00000000167</v>
       </c>
     </row>
     <row r="647">
@@ -5605,7 +5605,7 @@
         <v>161.25</v>
       </c>
       <c r="B647" t="n">
-        <v>50000.00000000167</v>
+        <v>50000.00000000168</v>
       </c>
     </row>
     <row r="648">
@@ -5613,7 +5613,7 @@
         <v>161.5</v>
       </c>
       <c r="B648" t="n">
-        <v>50000.00000000165</v>
+        <v>50000.00000000168</v>
       </c>
     </row>
     <row r="649">
@@ -5621,7 +5621,7 @@
         <v>161.75</v>
       </c>
       <c r="B649" t="n">
-        <v>50000.0000000017</v>
+        <v>50000.00000000168</v>
       </c>
     </row>
     <row r="650">
@@ -5629,7 +5629,7 @@
         <v>162</v>
       </c>
       <c r="B650" t="n">
-        <v>50000.00000000169</v>
+        <v>50000.0000000017</v>
       </c>
     </row>
     <row r="651">
@@ -5637,7 +5637,7 @@
         <v>162.25</v>
       </c>
       <c r="B651" t="n">
-        <v>50000.00000000172</v>
+        <v>50000.00000000169</v>
       </c>
     </row>
     <row r="652">
@@ -5645,7 +5645,7 @@
         <v>162.5</v>
       </c>
       <c r="B652" t="n">
-        <v>50000.00000000172</v>
+        <v>50000.00000000169</v>
       </c>
     </row>
     <row r="653">
@@ -5653,7 +5653,7 @@
         <v>162.75</v>
       </c>
       <c r="B653" t="n">
-        <v>50000.00000000171</v>
+        <v>50000.00000000169</v>
       </c>
     </row>
     <row r="654">
@@ -5661,7 +5661,7 @@
         <v>163</v>
       </c>
       <c r="B654" t="n">
-        <v>50000.00000000167</v>
+        <v>50000.00000000168</v>
       </c>
     </row>
     <row r="655">
@@ -5685,7 +5685,7 @@
         <v>163.75</v>
       </c>
       <c r="B657" t="n">
-        <v>50000.00000000171</v>
+        <v>50000.0000000017</v>
       </c>
     </row>
     <row r="658">
@@ -5693,7 +5693,7 @@
         <v>164</v>
       </c>
       <c r="B658" t="n">
-        <v>50000.00000000172</v>
+        <v>50000.00000000168</v>
       </c>
     </row>
     <row r="659">
@@ -5701,7 +5701,7 @@
         <v>164.25</v>
       </c>
       <c r="B659" t="n">
-        <v>50000.00000000173</v>
+        <v>50000.00000000171</v>
       </c>
     </row>
     <row r="660">
@@ -5709,7 +5709,7 @@
         <v>164.5</v>
       </c>
       <c r="B660" t="n">
-        <v>50000.00000000167</v>
+        <v>50000.00000000169</v>
       </c>
     </row>
     <row r="661">
@@ -5717,7 +5717,7 @@
         <v>164.75</v>
       </c>
       <c r="B661" t="n">
-        <v>50000.00000000171</v>
+        <v>50000.00000000169</v>
       </c>
     </row>
     <row r="662">
@@ -5725,7 +5725,7 @@
         <v>165</v>
       </c>
       <c r="B662" t="n">
-        <v>50000.00000000165</v>
+        <v>50000.0000000017</v>
       </c>
     </row>
     <row r="663">
@@ -5733,7 +5733,7 @@
         <v>165.25</v>
       </c>
       <c r="B663" t="n">
-        <v>50000.00000000165</v>
+        <v>50000.00000000168</v>
       </c>
     </row>
     <row r="664">
@@ -5741,7 +5741,7 @@
         <v>165.5</v>
       </c>
       <c r="B664" t="n">
-        <v>50000.0000000017</v>
+        <v>50000.00000000169</v>
       </c>
     </row>
     <row r="665">
@@ -5749,7 +5749,7 @@
         <v>165.75</v>
       </c>
       <c r="B665" t="n">
-        <v>50000.00000000169</v>
+        <v>50000.00000000168</v>
       </c>
     </row>
     <row r="666">
@@ -5757,7 +5757,7 @@
         <v>166</v>
       </c>
       <c r="B666" t="n">
-        <v>50000.00000000167</v>
+        <v>50000.00000000168</v>
       </c>
     </row>
     <row r="667">
@@ -5765,7 +5765,7 @@
         <v>166.25</v>
       </c>
       <c r="B667" t="n">
-        <v>50000.0000000017</v>
+        <v>50000.00000000168</v>
       </c>
     </row>
     <row r="668">
@@ -5773,7 +5773,7 @@
         <v>166.5</v>
       </c>
       <c r="B668" t="n">
-        <v>50000.0000000017</v>
+        <v>50000.00000000169</v>
       </c>
     </row>
     <row r="669">
@@ -5781,7 +5781,7 @@
         <v>166.75</v>
       </c>
       <c r="B669" t="n">
-        <v>50000.00000000167</v>
+        <v>50000.0000000017</v>
       </c>
     </row>
     <row r="670">
@@ -5789,7 +5789,7 @@
         <v>167</v>
       </c>
       <c r="B670" t="n">
-        <v>50000.00000000167</v>
+        <v>50000.00000000169</v>
       </c>
     </row>
     <row r="671">
@@ -5797,7 +5797,7 @@
         <v>167.25</v>
       </c>
       <c r="B671" t="n">
-        <v>50000.0000000017</v>
+        <v>50000.00000000167</v>
       </c>
     </row>
     <row r="672">
@@ -5805,7 +5805,7 @@
         <v>167.5</v>
       </c>
       <c r="B672" t="n">
-        <v>50000.00000000173</v>
+        <v>50000.00000000167</v>
       </c>
     </row>
     <row r="673">
@@ -5813,7 +5813,7 @@
         <v>167.75</v>
       </c>
       <c r="B673" t="n">
-        <v>50000.00000000171</v>
+        <v>50000.00000000168</v>
       </c>
     </row>
     <row r="674">
@@ -5821,7 +5821,7 @@
         <v>168</v>
       </c>
       <c r="B674" t="n">
-        <v>50000.00000000172</v>
+        <v>50000.00000000166</v>
       </c>
     </row>
     <row r="675">
@@ -5829,7 +5829,7 @@
         <v>168.25</v>
       </c>
       <c r="B675" t="n">
-        <v>50000.00000000169</v>
+        <v>50000.00000000168</v>
       </c>
     </row>
     <row r="676">
@@ -5837,7 +5837,7 @@
         <v>168.5</v>
       </c>
       <c r="B676" t="n">
-        <v>50000.00000000172</v>
+        <v>50000.00000000169</v>
       </c>
     </row>
     <row r="677">
@@ -5845,7 +5845,7 @@
         <v>168.75</v>
       </c>
       <c r="B677" t="n">
-        <v>50000.00000000169</v>
+        <v>50000.00000000166</v>
       </c>
     </row>
     <row r="678">
@@ -5853,7 +5853,7 @@
         <v>169</v>
       </c>
       <c r="B678" t="n">
-        <v>50000.00000000164</v>
+        <v>50000.00000000168</v>
       </c>
     </row>
     <row r="679">
@@ -5869,7 +5869,7 @@
         <v>169.5</v>
       </c>
       <c r="B680" t="n">
-        <v>50000.00000000173</v>
+        <v>50000.00000000167</v>
       </c>
     </row>
     <row r="681">
@@ -5877,7 +5877,7 @@
         <v>169.75</v>
       </c>
       <c r="B681" t="n">
-        <v>50000.00000000173</v>
+        <v>50000.00000000169</v>
       </c>
     </row>
     <row r="682">
@@ -5885,7 +5885,7 @@
         <v>170</v>
       </c>
       <c r="B682" t="n">
-        <v>50000.00000000172</v>
+        <v>50000.00000000167</v>
       </c>
     </row>
     <row r="683">
@@ -5893,7 +5893,7 @@
         <v>170.25</v>
       </c>
       <c r="B683" t="n">
-        <v>50000.00000000176</v>
+        <v>50000.00000000169</v>
       </c>
     </row>
     <row r="684">
@@ -5901,7 +5901,7 @@
         <v>170.5</v>
       </c>
       <c r="B684" t="n">
-        <v>50000.00000000174</v>
+        <v>50000.00000000168</v>
       </c>
     </row>
     <row r="685">
@@ -5909,7 +5909,7 @@
         <v>170.75</v>
       </c>
       <c r="B685" t="n">
-        <v>50000.00000000173</v>
+        <v>50000.00000000166</v>
       </c>
     </row>
     <row r="686">
@@ -5917,7 +5917,7 @@
         <v>171</v>
       </c>
       <c r="B686" t="n">
-        <v>50000.0000000017</v>
+        <v>50000.00000000167</v>
       </c>
     </row>
     <row r="687">
@@ -5925,7 +5925,7 @@
         <v>171.25</v>
       </c>
       <c r="B687" t="n">
-        <v>50000.00000000172</v>
+        <v>50000.00000000166</v>
       </c>
     </row>
     <row r="688">
@@ -5933,7 +5933,7 @@
         <v>171.5</v>
       </c>
       <c r="B688" t="n">
-        <v>50000.00000000171</v>
+        <v>50000.00000000164</v>
       </c>
     </row>
     <row r="689">
@@ -5941,7 +5941,7 @@
         <v>171.75</v>
       </c>
       <c r="B689" t="n">
-        <v>50000.00000000173</v>
+        <v>50000.00000000164</v>
       </c>
     </row>
     <row r="690">
@@ -5949,7 +5949,7 @@
         <v>172</v>
       </c>
       <c r="B690" t="n">
-        <v>50000.00000000174</v>
+        <v>50000.00000000167</v>
       </c>
     </row>
     <row r="691">
@@ -5957,7 +5957,7 @@
         <v>172.25</v>
       </c>
       <c r="B691" t="n">
-        <v>50000.00000000171</v>
+        <v>50000.00000000166</v>
       </c>
     </row>
     <row r="692">
@@ -5965,7 +5965,7 @@
         <v>172.5</v>
       </c>
       <c r="B692" t="n">
-        <v>50000.00000000174</v>
+        <v>50000.00000000164</v>
       </c>
     </row>
     <row r="693">
@@ -5973,7 +5973,7 @@
         <v>172.75</v>
       </c>
       <c r="B693" t="n">
-        <v>50000.00000000171</v>
+        <v>50000.00000000164</v>
       </c>
     </row>
     <row r="694">
@@ -5981,7 +5981,7 @@
         <v>173</v>
       </c>
       <c r="B694" t="n">
-        <v>50000.00000000175</v>
+        <v>50000.00000000164</v>
       </c>
     </row>
     <row r="695">
@@ -5989,7 +5989,7 @@
         <v>173.25</v>
       </c>
       <c r="B695" t="n">
-        <v>50000.00000000172</v>
+        <v>50000.00000000162</v>
       </c>
     </row>
     <row r="696">
@@ -5997,7 +5997,7 @@
         <v>173.5</v>
       </c>
       <c r="B696" t="n">
-        <v>50000.00000000174</v>
+        <v>50000.00000000167</v>
       </c>
     </row>
     <row r="697">

--- a/1USEPA_PSDM/3PSDM_EditMathieu/Example_TCE_F400_example1.xlsx
+++ b/1USEPA_PSDM/3PSDM_EditMathieu/Example_TCE_F400_example1.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="model-PFHpA" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="model-Trichloroethylene" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +453,7 @@
         <v>0.25</v>
       </c>
       <c r="B3" t="n">
-        <v>3.495590534349885</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -461,7 +461,7 @@
         <v>0.5</v>
       </c>
       <c r="B4" t="n">
-        <v>5.238479979940185</v>
+        <v>5.498438447896618</v>
       </c>
     </row>
     <row r="5">
@@ -469,7 +469,7 @@
         <v>0.75</v>
       </c>
       <c r="B5" t="n">
-        <v>3.366475066539471</v>
+        <v>11.57829563933071</v>
       </c>
     </row>
     <row r="6">
@@ -477,7 +477,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>0.2262812549415498</v>
+        <v>14.31557495028618</v>
       </c>
     </row>
     <row r="7">
@@ -485,7 +485,7 @@
         <v>1.25</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>14.32016501259223</v>
       </c>
     </row>
     <row r="8">
@@ -493,7 +493,7 @@
         <v>1.5</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>12.21422366934613</v>
       </c>
     </row>
     <row r="9">
@@ -501,7 +501,7 @@
         <v>1.75</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>8.573568272752059</v>
       </c>
     </row>
     <row r="10">
@@ -509,7 +509,7 @@
         <v>2</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>3.89737634179564</v>
       </c>
     </row>
     <row r="11">
@@ -541,7 +541,7 @@
         <v>3</v>
       </c>
       <c r="B14" t="n">
-        <v>1.35509423586344</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -549,7 +549,7 @@
         <v>3.25</v>
       </c>
       <c r="B15" t="n">
-        <v>4.360395166949976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -557,7 +557,7 @@
         <v>3.5</v>
       </c>
       <c r="B16" t="n">
-        <v>7.141062602912807</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -565,7 +565,7 @@
         <v>3.75</v>
       </c>
       <c r="B17" t="n">
-        <v>9.466760661345679</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -573,7 +573,7 @@
         <v>4</v>
       </c>
       <c r="B18" t="n">
-        <v>11.06613090741053</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -581,7 +581,7 @@
         <v>4.25</v>
       </c>
       <c r="B19" t="n">
-        <v>11.73837128462747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -589,7 +589,7 @@
         <v>4.5</v>
       </c>
       <c r="B20" t="n">
-        <v>11.3732649506826</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -597,7 +597,7 @@
         <v>4.75</v>
       </c>
       <c r="B21" t="n">
-        <v>9.924324955437589</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -605,7 +605,7 @@
         <v>5</v>
       </c>
       <c r="B22" t="n">
-        <v>7.502459276707421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -613,7 +613,7 @@
         <v>5.25</v>
       </c>
       <c r="B23" t="n">
-        <v>4.316342636852091</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -621,7 +621,7 @@
         <v>5.5</v>
       </c>
       <c r="B24" t="n">
-        <v>0.5946900780401307</v>
+        <v>3.017067868601256</v>
       </c>
     </row>
     <row r="25">
@@ -629,7 +629,7 @@
         <v>5.75</v>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>9.033967030687135</v>
       </c>
     </row>
     <row r="26">
@@ -637,7 +637,7 @@
         <v>6</v>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>14.93953681944098</v>
       </c>
     </row>
     <row r="27">
@@ -645,7 +645,7 @@
         <v>6.25</v>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>20.47271528301192</v>
       </c>
     </row>
     <row r="28">
@@ -653,7 +653,7 @@
         <v>6.5</v>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>25.37160608014472</v>
       </c>
     </row>
     <row r="29">
@@ -661,7 +661,7 @@
         <v>6.75</v>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>29.38860592053736</v>
       </c>
     </row>
     <row r="30">
@@ -669,7 +669,7 @@
         <v>7</v>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>32.33285023887432</v>
       </c>
     </row>
     <row r="31">
@@ -677,7 +677,7 @@
         <v>7.25</v>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>34.07905465426727</v>
       </c>
     </row>
     <row r="32">
@@ -685,7 +685,7 @@
         <v>7.5</v>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>34.55035049957022</v>
       </c>
     </row>
     <row r="33">
@@ -693,7 +693,7 @@
         <v>7.75</v>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>33.72260226129237</v>
       </c>
     </row>
     <row r="34">
@@ -701,7 +701,7 @@
         <v>8</v>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>31.62113005319318</v>
       </c>
     </row>
     <row r="35">
@@ -709,7 +709,7 @@
         <v>8.25</v>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>28.31826518237986</v>
       </c>
     </row>
     <row r="36">
@@ -717,7 +717,7 @@
         <v>8.5</v>
       </c>
       <c r="B36" t="n">
-        <v>2.483365290197972</v>
+        <v>23.92530439669299</v>
       </c>
     </row>
     <row r="37">
@@ -725,7 +725,7 @@
         <v>8.75</v>
       </c>
       <c r="B37" t="n">
-        <v>6.986305304245932</v>
+        <v>18.58040242109094</v>
       </c>
     </row>
     <row r="38">
@@ -733,7 +733,7 @@
         <v>9</v>
       </c>
       <c r="B38" t="n">
-        <v>11.29207930977232</v>
+        <v>12.44483609248779</v>
       </c>
     </row>
     <row r="39">
@@ -741,7 +741,7 @@
         <v>9.25</v>
       </c>
       <c r="B39" t="n">
-        <v>15.2046678690718</v>
+        <v>5.690879604251484</v>
       </c>
     </row>
     <row r="40">
@@ -749,7 +749,7 @@
         <v>9.5</v>
       </c>
       <c r="B40" t="n">
-        <v>18.58331526646004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -757,7 +757,7 @@
         <v>9.75</v>
       </c>
       <c r="B41" t="n">
-        <v>21.09075613530631</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -765,7 +765,7 @@
         <v>10</v>
       </c>
       <c r="B42" t="n">
-        <v>22.3395668101484</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -773,7 +773,7 @@
         <v>10.25</v>
       </c>
       <c r="B43" t="n">
-        <v>22.11458322240154</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -781,7 +781,7 @@
         <v>10.5</v>
       </c>
       <c r="B44" t="n">
-        <v>20.25938565163721</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -789,7 +789,7 @@
         <v>10.75</v>
       </c>
       <c r="B45" t="n">
-        <v>16.72894925197891</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -797,7 +797,7 @@
         <v>11</v>
       </c>
       <c r="B46" t="n">
-        <v>11.81273954051036</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -805,7 +805,7 @@
         <v>11.25</v>
       </c>
       <c r="B47" t="n">
-        <v>5.812062802426916</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -813,7 +813,7 @@
         <v>11.5</v>
       </c>
       <c r="B48" t="n">
-        <v>0.1961045058701218</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -893,7 +893,7 @@
         <v>14</v>
       </c>
       <c r="B58" t="n">
-        <v>2.485877158857479</v>
+        <v>4.589225521989031</v>
       </c>
     </row>
     <row r="59">
@@ -901,7 +901,7 @@
         <v>14.25</v>
       </c>
       <c r="B59" t="n">
-        <v>12.18499427952869</v>
+        <v>13.87486945481364</v>
       </c>
     </row>
     <row r="60">
@@ -909,7 +909,7 @@
         <v>14.5</v>
       </c>
       <c r="B60" t="n">
-        <v>22.64567339575423</v>
+        <v>23.24787478079124</v>
       </c>
     </row>
     <row r="61">
@@ -917,7 +917,7 @@
         <v>14.75</v>
       </c>
       <c r="B61" t="n">
-        <v>33.75857787490381</v>
+        <v>32.44077710889746</v>
       </c>
     </row>
     <row r="62">
@@ -925,7 +925,7 @@
         <v>15</v>
       </c>
       <c r="B62" t="n">
-        <v>45.75534625748151</v>
+        <v>41.16695565930142</v>
       </c>
     </row>
     <row r="63">
@@ -933,7 +933,7 @@
         <v>15.25</v>
       </c>
       <c r="B63" t="n">
-        <v>59.52039534090056</v>
+        <v>49.12717880500562</v>
       </c>
     </row>
     <row r="64">
@@ -941,7 +941,7 @@
         <v>15.5</v>
       </c>
       <c r="B64" t="n">
-        <v>77.66894216343964</v>
+        <v>55.98070174661964</v>
       </c>
     </row>
     <row r="65">
@@ -949,7 +949,7 @@
         <v>15.75</v>
       </c>
       <c r="B65" t="n">
-        <v>105.2565242526354</v>
+        <v>61.40274778274399</v>
       </c>
     </row>
     <row r="66">
@@ -957,7 +957,7 @@
         <v>16</v>
       </c>
       <c r="B66" t="n">
-        <v>150.3806890790632</v>
+        <v>65.22732029644764</v>
       </c>
     </row>
     <row r="67">
@@ -965,7 +965,7 @@
         <v>16.25</v>
       </c>
       <c r="B67" t="n">
-        <v>224.6856747183867</v>
+        <v>67.31141730428594</v>
       </c>
     </row>
     <row r="68">
@@ -973,7 +973,7 @@
         <v>16.5</v>
       </c>
       <c r="B68" t="n">
-        <v>343.8638522984218</v>
+        <v>67.52886846726807</v>
       </c>
     </row>
     <row r="69">
@@ -981,7 +981,7 @@
         <v>16.75</v>
       </c>
       <c r="B69" t="n">
-        <v>528.2092032085396</v>
+        <v>65.78590417919511</v>
       </c>
     </row>
     <row r="70">
@@ -989,7 +989,7 @@
         <v>17</v>
       </c>
       <c r="B70" t="n">
-        <v>803.0285865795286</v>
+        <v>62.02955355867142</v>
       </c>
     </row>
     <row r="71">
@@ -997,7 +997,7 @@
         <v>17.25</v>
       </c>
       <c r="B71" t="n">
-        <v>1198.466934905306</v>
+        <v>56.25460928327359</v>
       </c>
     </row>
     <row r="72">
@@ -1005,7 +1005,7 @@
         <v>17.5</v>
       </c>
       <c r="B72" t="n">
-        <v>1747.95327219981</v>
+        <v>48.51219546068283</v>
       </c>
     </row>
     <row r="73">
@@ -1013,7 +1013,7 @@
         <v>17.75</v>
       </c>
       <c r="B73" t="n">
-        <v>2484.954207556561</v>
+        <v>38.9137559979451</v>
       </c>
     </row>
     <row r="74">
@@ -1021,7 +1021,7 @@
         <v>18</v>
       </c>
       <c r="B74" t="n">
-        <v>3438.25947986327</v>
+        <v>27.63232903527297</v>
       </c>
     </row>
     <row r="75">
@@ -1029,7 +1029,7 @@
         <v>18.25</v>
       </c>
       <c r="B75" t="n">
-        <v>4626.914915430616</v>
+        <v>14.89403789583092</v>
       </c>
     </row>
     <row r="76">
@@ -1037,7 +1037,7 @@
         <v>18.5</v>
       </c>
       <c r="B76" t="n">
-        <v>6056.325516323167</v>
+        <v>1.542850889830907</v>
       </c>
     </row>
     <row r="77">
@@ -1045,7 +1045,7 @@
         <v>18.75</v>
       </c>
       <c r="B77" t="n">
-        <v>7716.722557672148</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -1053,7 +1053,7 @@
         <v>19</v>
       </c>
       <c r="B78" t="n">
-        <v>9584.290360470954</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -1061,7 +1061,7 @@
         <v>19.25</v>
       </c>
       <c r="B79" t="n">
-        <v>11624.33914136526</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -1069,7 +1069,7 @@
         <v>19.5</v>
       </c>
       <c r="B80" t="n">
-        <v>13795.45305139431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -1077,7 +1077,7 @@
         <v>19.75</v>
       </c>
       <c r="B81" t="n">
-        <v>16053.60680322537</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -1085,7 +1085,7 @@
         <v>20</v>
       </c>
       <c r="B82" t="n">
-        <v>18355.60157799035</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -1093,7 +1093,7 @@
         <v>20.25</v>
       </c>
       <c r="B83" t="n">
-        <v>20661.55747681306</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -1101,7 +1101,7 @@
         <v>20.5</v>
       </c>
       <c r="B84" t="n">
-        <v>22936.47388804657</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -1109,7 +1109,7 @@
         <v>20.75</v>
       </c>
       <c r="B85" t="n">
-        <v>25151.01216034029</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -1117,7 +1117,7 @@
         <v>21</v>
       </c>
       <c r="B86" t="n">
-        <v>27281.62636060831</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -1125,7 +1125,7 @@
         <v>21.25</v>
       </c>
       <c r="B87" t="n">
-        <v>29311.14963491149</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -1133,7 +1133,7 @@
         <v>21.5</v>
       </c>
       <c r="B88" t="n">
-        <v>31226.8186599044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -1141,7 +1141,7 @@
         <v>21.75</v>
       </c>
       <c r="B89" t="n">
-        <v>33020.63706812442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -1149,7 +1149,7 @@
         <v>22</v>
       </c>
       <c r="B90" t="n">
-        <v>34688.58266600779</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -1157,7 +1157,7 @@
         <v>22.25</v>
       </c>
       <c r="B91" t="n">
-        <v>36229.88578830748</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -1165,7 +1165,7 @@
         <v>22.5</v>
       </c>
       <c r="B92" t="n">
-        <v>37646.33477261553</v>
+        <v>0.8145384070500858</v>
       </c>
     </row>
     <row r="93">
@@ -1173,7 +1173,7 @@
         <v>22.75</v>
       </c>
       <c r="B93" t="n">
-        <v>38941.50805832558</v>
+        <v>20.38893261972171</v>
       </c>
     </row>
     <row r="94">
@@ -1181,7 +1181,7 @@
         <v>23</v>
       </c>
       <c r="B94" t="n">
-        <v>40120.76149275241</v>
+        <v>43.35384019769514</v>
       </c>
     </row>
     <row r="95">
@@ -1189,7 +1189,7 @@
         <v>23.25</v>
       </c>
       <c r="B95" t="n">
-        <v>41190.34503644636</v>
+        <v>66.73007333941193</v>
       </c>
     </row>
     <row r="96">
@@ -1197,7 +1197,7 @@
         <v>23.5</v>
       </c>
       <c r="B96" t="n">
-        <v>42157.10878353347</v>
+        <v>89.36690651877196</v>
       </c>
     </row>
     <row r="97">
@@ -1205,7 +1205,7 @@
         <v>23.75</v>
       </c>
       <c r="B97" t="n">
-        <v>43028.23819428473</v>
+        <v>109.7902303356407</v>
       </c>
     </row>
     <row r="98">
@@ -1213,7 +1213,7 @@
         <v>24</v>
       </c>
       <c r="B98" t="n">
-        <v>43811.13321571933</v>
+        <v>126.128712540775</v>
       </c>
     </row>
     <row r="99">
@@ -1221,7 +1221,7 @@
         <v>24.25</v>
       </c>
       <c r="B99" t="n">
-        <v>44512.91173681382</v>
+        <v>137.5625210174038</v>
       </c>
     </row>
     <row r="100">
@@ -1229,7 +1229,7 @@
         <v>24.5</v>
       </c>
       <c r="B100" t="n">
-        <v>45140.63883261203</v>
+        <v>143.0638697685043</v>
       </c>
     </row>
     <row r="101">
@@ -1237,7 +1237,7 @@
         <v>24.75</v>
       </c>
       <c r="B101" t="n">
-        <v>45701.03458750749</v>
+        <v>141.3390972061684</v>
       </c>
     </row>
     <row r="102">
@@ -1245,7 +1245,7 @@
         <v>25</v>
       </c>
       <c r="B102" t="n">
-        <v>46200.34450136519</v>
+        <v>131.0345236029529</v>
       </c>
     </row>
     <row r="103">
@@ -1253,7 +1253,7 @@
         <v>25.25</v>
       </c>
       <c r="B103" t="n">
-        <v>46644.56850161279</v>
+        <v>110.976732529864</v>
       </c>
     </row>
     <row r="104">
@@ -1261,7 +1261,7 @@
         <v>25.5</v>
       </c>
       <c r="B104" t="n">
-        <v>47039.29183925689</v>
+        <v>80.48716404202014</v>
       </c>
     </row>
     <row r="105">
@@ -1269,7 +1269,7 @@
         <v>25.75</v>
       </c>
       <c r="B105" t="n">
-        <v>47389.49496337817</v>
+        <v>39.70439818721324</v>
       </c>
     </row>
     <row r="106">
@@ -1277,7 +1277,7 @@
         <v>26</v>
       </c>
       <c r="B106" t="n">
-        <v>47699.87546452016</v>
+        <v>0.2102504615877194</v>
       </c>
     </row>
     <row r="107">
@@ -1285,7 +1285,7 @@
         <v>26.25</v>
       </c>
       <c r="B107" t="n">
-        <v>47974.68751510754</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
@@ -1293,7 +1293,7 @@
         <v>26.5</v>
       </c>
       <c r="B108" t="n">
-        <v>48217.71712909782</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
@@ -1301,7 +1301,7 @@
         <v>26.75</v>
       </c>
       <c r="B109" t="n">
-        <v>48432.43262209351</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
@@ -1309,7 +1309,7 @@
         <v>27</v>
       </c>
       <c r="B110" t="n">
-        <v>48622.00872397411</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
@@ -1317,7 +1317,7 @@
         <v>27.25</v>
       </c>
       <c r="B111" t="n">
-        <v>48789.27082651793</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
@@ -1325,7 +1325,7 @@
         <v>27.5</v>
       </c>
       <c r="B112" t="n">
-        <v>48936.74200268068</v>
+        <v>2.367045751449941</v>
       </c>
     </row>
     <row r="113">
@@ -1333,7 +1333,7 @@
         <v>27.75</v>
       </c>
       <c r="B113" t="n">
-        <v>49066.67120410574</v>
+        <v>150.0752728466131</v>
       </c>
     </row>
     <row r="114">
@@ -1341,7 +1341,7 @@
         <v>28</v>
       </c>
       <c r="B114" t="n">
-        <v>49181.07900819258</v>
+        <v>383.8621745929641</v>
       </c>
     </row>
     <row r="115">
@@ -1349,7 +1349,7 @@
         <v>28.25</v>
       </c>
       <c r="B115" t="n">
-        <v>49281.7694604804</v>
+        <v>710.5807975167012</v>
       </c>
     </row>
     <row r="116">
@@ -1357,7 +1357,7 @@
         <v>28.5</v>
       </c>
       <c r="B116" t="n">
-        <v>49370.34816846441</v>
+        <v>1194.098109220074</v>
       </c>
     </row>
     <row r="117">
@@ -1365,7 +1365,7 @@
         <v>28.75</v>
       </c>
       <c r="B117" t="n">
-        <v>49448.22810672608</v>
+        <v>1958.546413898379</v>
       </c>
     </row>
     <row r="118">
@@ -1373,7 +1373,7 @@
         <v>29</v>
       </c>
       <c r="B118" t="n">
-        <v>49516.6559953521</v>
+        <v>3185.283094959121</v>
       </c>
     </row>
     <row r="119">
@@ -1381,7 +1381,7 @@
         <v>29.25</v>
       </c>
       <c r="B119" t="n">
-        <v>49576.74550498147</v>
+        <v>5065.37694809772</v>
       </c>
     </row>
     <row r="120">
@@ -1389,7 +1389,7 @@
         <v>29.5</v>
       </c>
       <c r="B120" t="n">
-        <v>49629.49868162533</v>
+        <v>7705.383864105595</v>
       </c>
     </row>
     <row r="121">
@@ -1397,7 +1397,7 @@
         <v>29.75</v>
       </c>
       <c r="B121" t="n">
-        <v>49675.79528213717</v>
+        <v>11032.83873185745</v>
       </c>
     </row>
     <row r="122">
@@ -1405,7 +1405,7 @@
         <v>30</v>
       </c>
       <c r="B122" t="n">
-        <v>49716.40785814948</v>
+        <v>14803.88164889151</v>
       </c>
     </row>
     <row r="123">
@@ -1413,7 +1413,7 @@
         <v>30.25</v>
       </c>
       <c r="B123" t="n">
-        <v>49752.01628255302</v>
+        <v>18725.17678923182</v>
       </c>
     </row>
     <row r="124">
@@ -1421,7 +1421,7 @@
         <v>30.5</v>
       </c>
       <c r="B124" t="n">
-        <v>49783.23764167618</v>
+        <v>22563.23517291309</v>
       </c>
     </row>
     <row r="125">
@@ -1429,7 +1429,7 @@
         <v>30.75</v>
       </c>
       <c r="B125" t="n">
-        <v>49810.59358888919</v>
+        <v>26173.18769827263</v>
       </c>
     </row>
     <row r="126">
@@ -1437,7 +1437,7 @@
         <v>31</v>
       </c>
       <c r="B126" t="n">
-        <v>49834.54514296023</v>
+        <v>29485.91893438826</v>
       </c>
     </row>
     <row r="127">
@@ -1445,7 +1445,7 @@
         <v>31.25</v>
       </c>
       <c r="B127" t="n">
-        <v>49855.52072258486</v>
+        <v>32464.9302942369</v>
       </c>
     </row>
     <row r="128">
@@ -1453,7 +1453,7 @@
         <v>31.5</v>
       </c>
       <c r="B128" t="n">
-        <v>49873.87979417203</v>
+        <v>35105.36403118279</v>
       </c>
     </row>
     <row r="129">
@@ -1461,7 +1461,7 @@
         <v>31.75</v>
       </c>
       <c r="B129" t="n">
-        <v>49889.94266410318</v>
+        <v>37418.17036388929</v>
       </c>
     </row>
     <row r="130">
@@ -1469,7 +1469,7 @@
         <v>32</v>
       </c>
       <c r="B130" t="n">
-        <v>49903.99123206816</v>
+        <v>39423.54701698056</v>
       </c>
     </row>
     <row r="131">
@@ -1477,7 +1477,7 @@
         <v>32.25</v>
       </c>
       <c r="B131" t="n">
-        <v>49916.15255696834</v>
+        <v>41146.91414432603</v>
       </c>
     </row>
     <row r="132">
@@ -1485,7 +1485,7 @@
         <v>32.5</v>
       </c>
       <c r="B132" t="n">
-        <v>49926.77273634627</v>
+        <v>42616.55213555339</v>
       </c>
     </row>
     <row r="133">
@@ -1493,7 +1493,7 @@
         <v>32.75</v>
       </c>
       <c r="B133" t="n">
-        <v>49936.06067300132</v>
+        <v>43861.49954731193</v>
       </c>
     </row>
     <row r="134">
@@ -1501,7 +1501,7 @@
         <v>33</v>
       </c>
       <c r="B134" t="n">
-        <v>49944.18699899617</v>
+        <v>44910.08736799625</v>
       </c>
     </row>
     <row r="135">
@@ -1509,7 +1509,7 @@
         <v>33.25</v>
       </c>
       <c r="B135" t="n">
-        <v>49951.29525162743</v>
+        <v>45788.95880997144</v>
       </c>
     </row>
     <row r="136">
@@ -1517,7 +1517,7 @@
         <v>33.5</v>
       </c>
       <c r="B136" t="n">
-        <v>49957.51101023182</v>
+        <v>46522.48807462848</v>
       </c>
     </row>
     <row r="137">
@@ -1525,7 +1525,7 @@
         <v>33.75</v>
       </c>
       <c r="B137" t="n">
-        <v>49962.94468786423</v>
+        <v>47132.5090781272</v>
       </c>
     </row>
     <row r="138">
@@ -1533,7 +1533,7 @@
         <v>34</v>
       </c>
       <c r="B138" t="n">
-        <v>49967.69322011891</v>
+        <v>47638.24952810521</v>
       </c>
     </row>
     <row r="139">
@@ -1541,7 +1541,7 @@
         <v>34.25</v>
       </c>
       <c r="B139" t="n">
-        <v>49971.84171483699</v>
+        <v>48056.41252816188</v>
       </c>
     </row>
     <row r="140">
@@ -1549,7 +1549,7 @@
         <v>34.5</v>
       </c>
       <c r="B140" t="n">
-        <v>49975.46487296352</v>
+        <v>48401.37327362787</v>
       </c>
     </row>
     <row r="141">
@@ -1557,7 +1557,7 @@
         <v>34.75</v>
       </c>
       <c r="B141" t="n">
-        <v>49978.62824140676</v>
+        <v>48685.38885623898</v>
       </c>
     </row>
     <row r="142">
@@ -1565,7 +1565,7 @@
         <v>35</v>
       </c>
       <c r="B142" t="n">
-        <v>49981.38931653262</v>
+        <v>48918.83809479083</v>
       </c>
     </row>
     <row r="143">
@@ -1573,7 +1573,7 @@
         <v>35.25</v>
       </c>
       <c r="B143" t="n">
-        <v>49983.79851660345</v>
+        <v>49110.45833687986</v>
       </c>
     </row>
     <row r="144">
@@ -1581,7 +1581,7 @@
         <v>35.5</v>
       </c>
       <c r="B144" t="n">
-        <v>49985.90003870666</v>
+        <v>49267.56931699644</v>
       </c>
     </row>
     <row r="145">
@@ -1589,7 +1589,7 @@
         <v>35.75</v>
       </c>
       <c r="B145" t="n">
-        <v>49987.73261373683</v>
+        <v>49396.27683111567</v>
       </c>
     </row>
     <row r="146">
@@ -1597,7 +1597,7 @@
         <v>36</v>
       </c>
       <c r="B146" t="n">
-        <v>49989.33017136965</v>
+        <v>49501.65575049928</v>
       </c>
     </row>
     <row r="147">
@@ -1605,7 +1605,7 @@
         <v>36.25</v>
       </c>
       <c r="B147" t="n">
-        <v>49990.72242556277</v>
+        <v>49587.91020371358</v>
       </c>
     </row>
     <row r="148">
@@ -1613,7 +1613,7 @@
         <v>36.5</v>
       </c>
       <c r="B148" t="n">
-        <v>49991.93538990324</v>
+        <v>49658.51114838551</v>
       </c>
     </row>
     <row r="149">
@@ -1621,7 +1621,7 @@
         <v>36.75</v>
       </c>
       <c r="B149" t="n">
-        <v>49992.99183104853</v>
+        <v>49716.32113857451</v>
       </c>
     </row>
     <row r="150">
@@ -1629,7 +1629,7 @@
         <v>37</v>
       </c>
       <c r="B150" t="n">
-        <v>49993.91166755583</v>
+        <v>49763.69131133288</v>
       </c>
     </row>
     <row r="151">
@@ -1637,7 +1637,7 @@
         <v>37.25</v>
       </c>
       <c r="B151" t="n">
-        <v>49994.71232055678</v>
+        <v>49802.5462402769</v>
       </c>
     </row>
     <row r="152">
@@ -1645,7 +1645,7 @@
         <v>37.5</v>
       </c>
       <c r="B152" t="n">
-        <v>49995.40902197807</v>
+        <v>49834.46291680053</v>
       </c>
     </row>
     <row r="153">
@@ -1653,7 +1653,7 @@
         <v>37.75</v>
       </c>
       <c r="B153" t="n">
-        <v>49996.01508536522</v>
+        <v>49860.73056036557</v>
       </c>
     </row>
     <row r="154">
@@ -1661,7 +1661,7 @@
         <v>38</v>
       </c>
       <c r="B154" t="n">
-        <v>49996.54214375243</v>
+        <v>49882.40368672756</v>
       </c>
     </row>
     <row r="155">
@@ -1669,7 +1669,7 @@
         <v>38.25</v>
       </c>
       <c r="B155" t="n">
-        <v>49997.0003585271</v>
+        <v>49900.31333612269</v>
       </c>
     </row>
     <row r="156">
@@ -1677,7 +1677,7 @@
         <v>38.5</v>
       </c>
       <c r="B156" t="n">
-        <v>49997.39860275802</v>
+        <v>49915.17106946758</v>
       </c>
     </row>
     <row r="157">
@@ -1685,7 +1685,7 @@
         <v>38.75</v>
       </c>
       <c r="B157" t="n">
-        <v>49997.74462205818</v>
+        <v>49927.36251575765</v>
       </c>
     </row>
     <row r="158">
@@ -1693,7 +1693,7 @@
         <v>39</v>
       </c>
       <c r="B158" t="n">
-        <v>49998.04517568455</v>
+        <v>49937.53878259507</v>
       </c>
     </row>
     <row r="159">
@@ -1701,7 +1701,7 @@
         <v>39.25</v>
       </c>
       <c r="B159" t="n">
-        <v>49998.30616026338</v>
+        <v>49946.09676837322</v>
       </c>
     </row>
     <row r="160">
@@ -1709,7 +1709,7 @@
         <v>39.5</v>
       </c>
       <c r="B160" t="n">
-        <v>49998.53271824356</v>
+        <v>49953.32032363728</v>
       </c>
     </row>
     <row r="161">
@@ -1717,7 +1717,7 @@
         <v>39.75</v>
       </c>
       <c r="B161" t="n">
-        <v>49998.72933293084</v>
+        <v>49959.44012257161</v>
       </c>
     </row>
     <row r="162">
@@ -1725,7 +1725,7 @@
         <v>40</v>
       </c>
       <c r="B162" t="n">
-        <v>49998.89991173454</v>
+        <v>49964.64415368951</v>
       </c>
     </row>
     <row r="163">
@@ -1733,7 +1733,7 @@
         <v>40.25</v>
       </c>
       <c r="B163" t="n">
-        <v>49999.04785906622</v>
+        <v>49969.08584988417</v>
       </c>
     </row>
     <row r="164">
@@ -1741,7 +1741,7 @@
         <v>40.5</v>
       </c>
       <c r="B164" t="n">
-        <v>49999.17614015338</v>
+        <v>49972.89068357746</v>
       </c>
     </row>
     <row r="165">
@@ -1749,7 +1749,7 @@
         <v>40.75</v>
       </c>
       <c r="B165" t="n">
-        <v>49999.28733688345</v>
+        <v>49976.16150847132</v>
       </c>
     </row>
     <row r="166">
@@ -1757,7 +1757,7 @@
         <v>41</v>
       </c>
       <c r="B166" t="n">
-        <v>49999.38369665462</v>
+        <v>49978.98287700806</v>
       </c>
     </row>
     <row r="167">
@@ -1765,7 +1765,7 @@
         <v>41.25</v>
       </c>
       <c r="B167" t="n">
-        <v>49999.46717509739</v>
+        <v>49981.42452269148</v>
       </c>
     </row>
     <row r="168">
@@ -1773,7 +1773,7 @@
         <v>41.5</v>
       </c>
       <c r="B168" t="n">
-        <v>49999.53947342183</v>
+        <v>49983.5441637324</v>
       </c>
     </row>
     <row r="169">
@@ -1781,7 +1781,7 @@
         <v>41.75</v>
       </c>
       <c r="B169" t="n">
-        <v>49999.60207105715</v>
+        <v>49985.38975712216</v>
       </c>
     </row>
     <row r="170">
@@ -1789,7 +1789,7 @@
         <v>42</v>
       </c>
       <c r="B170" t="n">
-        <v>49999.65625416286</v>
+        <v>49987.0013092529</v>
       </c>
     </row>
     <row r="171">
@@ -1797,7 +1797,7 @@
         <v>42.25</v>
       </c>
       <c r="B171" t="n">
-        <v>49999.70314053549</v>
+        <v>49988.41232993065</v>
       </c>
     </row>
     <row r="172">
@@ -1805,7 +1805,7 @@
         <v>42.5</v>
       </c>
       <c r="B172" t="n">
-        <v>49999.74370134554</v>
+        <v>49989.65100052389</v>
       </c>
     </row>
     <row r="173">
@@ -1813,7 +1813,7 @@
         <v>42.75</v>
       </c>
       <c r="B173" t="n">
-        <v>49999.77878011359</v>
+        <v>49990.74111360349</v>
       </c>
     </row>
     <row r="174">
@@ -1821,7 +1821,7 @@
         <v>43</v>
       </c>
       <c r="B174" t="n">
-        <v>49999.80910926455</v>
+        <v>49991.70283035013</v>
       </c>
     </row>
     <row r="175">
@@ -1829,7 +1829,7 @@
         <v>43.25</v>
       </c>
       <c r="B175" t="n">
-        <v>49999.83532456679</v>
+        <v>49992.55329288922</v>
       </c>
     </row>
     <row r="176">
@@ -1837,7 +1837,7 @@
         <v>43.5</v>
       </c>
       <c r="B176" t="n">
-        <v>49999.85797771813</v>
+        <v>49993.30712125319</v>
       </c>
     </row>
     <row r="177">
@@ -1845,7 +1845,7 @@
         <v>43.75</v>
       </c>
       <c r="B177" t="n">
-        <v>49999.87754732173</v>
+        <v>49993.97681860127</v>
       </c>
     </row>
     <row r="178">
@@ -1853,7 +1853,7 @@
         <v>44</v>
       </c>
       <c r="B178" t="n">
-        <v>49999.89444844276</v>
+        <v>49994.57310341787</v>
       </c>
     </row>
     <row r="179">
@@ -1861,7 +1861,7 @@
         <v>44.25</v>
       </c>
       <c r="B179" t="n">
-        <v>49999.90904093748</v>
+        <v>49995.10518346757</v>
       </c>
     </row>
     <row r="180">
@@ -1869,7 +1869,7 @@
         <v>44.5</v>
       </c>
       <c r="B180" t="n">
-        <v>49999.92163670359</v>
+        <v>49995.58098313151</v>
       </c>
     </row>
     <row r="181">
@@ -1877,7 +1877,7 @@
         <v>44.75</v>
       </c>
       <c r="B181" t="n">
-        <v>49999.93250599146</v>
+        <v>49996.00733325268</v>
       </c>
     </row>
     <row r="182">
@@ -1885,7 +1885,7 @@
         <v>45</v>
       </c>
       <c r="B182" t="n">
-        <v>49999.9418828957</v>
+        <v>49996.39013064363</v>
       </c>
     </row>
     <row r="183">
@@ -1893,7 +1893,7 @@
         <v>45.25</v>
       </c>
       <c r="B183" t="n">
-        <v>49999.94997013338</v>
+        <v>49996.7344728668</v>
       </c>
     </row>
     <row r="184">
@@ -1901,7 +1901,7 @@
         <v>45.5</v>
       </c>
       <c r="B184" t="n">
-        <v>49999.95694319849</v>
+        <v>49997.04477269208</v>
       </c>
     </row>
     <row r="185">
@@ -1909,7 +1909,7 @@
         <v>45.75</v>
       </c>
       <c r="B185" t="n">
-        <v>49999.9629539728</v>
+        <v>49997.32485570658</v>
       </c>
     </row>
     <row r="186">
@@ -1917,7 +1917,7 @@
         <v>46</v>
       </c>
       <c r="B186" t="n">
-        <v>49999.96813386498</v>
+        <v>49997.57804382852</v>
       </c>
     </row>
     <row r="187">
@@ -1925,7 +1925,7 @@
         <v>46.25</v>
       </c>
       <c r="B187" t="n">
-        <v>49999.97259653873</v>
+        <v>49997.80722692919</v>
       </c>
     </row>
     <row r="188">
@@ -1933,7 +1933,7 @@
         <v>46.5</v>
       </c>
       <c r="B188" t="n">
-        <v>49999.97644027834</v>
+        <v>49998.01492433935</v>
       </c>
     </row>
     <row r="189">
@@ -1941,7 +1941,7 @@
         <v>46.75</v>
       </c>
       <c r="B189" t="n">
-        <v>49999.97975004724</v>
+        <v>49998.20333769433</v>
       </c>
     </row>
     <row r="190">
@@ -1949,7 +1949,7 @@
         <v>47</v>
       </c>
       <c r="B190" t="n">
-        <v>49999.98259927209</v>
+        <v>49998.37439632169</v>
       </c>
     </row>
     <row r="191">
@@ -1957,7 +1957,7 @@
         <v>47.25</v>
       </c>
       <c r="B191" t="n">
-        <v>49999.9850513904</v>
+        <v>49998.52979618124</v>
       </c>
     </row>
     <row r="192">
@@ -1965,7 +1965,7 @@
         <v>47.5</v>
       </c>
       <c r="B192" t="n">
-        <v>49999.98716119517</v>
+        <v>49998.67103321746</v>
       </c>
     </row>
     <row r="193">
@@ -1973,7 +1973,7 @@
         <v>47.75</v>
       </c>
       <c r="B193" t="n">
-        <v>49999.98897599913</v>
+        <v>49998.79943186427</v>
       </c>
     </row>
     <row r="194">
@@ -1981,7 +1981,7 @@
         <v>48</v>
       </c>
       <c r="B194" t="n">
-        <v>49999.99053664364</v>
+        <v>49998.91616934337</v>
       </c>
     </row>
     <row r="195">
@@ -1989,7 +1989,7 @@
         <v>48.25</v>
       </c>
       <c r="B195" t="n">
-        <v>49999.99187837565</v>
+        <v>49999.02229632144</v>
       </c>
     </row>
     <row r="196">
@@ -1997,7 +1997,7 @@
         <v>48.5</v>
       </c>
       <c r="B196" t="n">
-        <v>49999.9930316037</v>
+        <v>49999.11875441925</v>
       </c>
     </row>
     <row r="197">
@@ -2005,7 +2005,7 @@
         <v>48.75</v>
       </c>
       <c r="B197" t="n">
-        <v>49999.99402255673</v>
+        <v>49999.20639101196</v>
       </c>
     </row>
     <row r="198">
@@ -2013,7 +2013,7 @@
         <v>49</v>
       </c>
       <c r="B198" t="n">
-        <v>49999.99487385034</v>
+        <v>49999.28597170635</v>
       </c>
     </row>
     <row r="199">
@@ -2021,7 +2021,7 @@
         <v>49.25</v>
       </c>
       <c r="B199" t="n">
-        <v>49999.99560498085</v>
+        <v>49999.35819083545</v>
       </c>
     </row>
     <row r="200">
@@ -2029,7 +2029,7 @@
         <v>49.5</v>
       </c>
       <c r="B200" t="n">
-        <v>49999.99623274993</v>
+        <v>49999.42368027183</v>
       </c>
     </row>
     <row r="201">
@@ -2037,7 +2037,7 @@
         <v>49.75</v>
       </c>
       <c r="B201" t="n">
-        <v>49999.99677163361</v>
+        <v>49999.48301682094</v>
       </c>
     </row>
     <row r="202">
@@ -2045,7 +2045,7 @@
         <v>50</v>
       </c>
       <c r="B202" t="n">
-        <v>49999.99723410025</v>
+        <v>49999.53672842563</v>
       </c>
     </row>
     <row r="203">
@@ -2053,7 +2053,7 @@
         <v>50.25</v>
       </c>
       <c r="B203" t="n">
-        <v>49999.99763088709</v>
+        <v>49999.5852993785</v>
       </c>
     </row>
     <row r="204">
@@ -2061,7 +2061,7 @@
         <v>50.5</v>
       </c>
       <c r="B204" t="n">
-        <v>49999.99797123633</v>
+        <v>49999.62917471443</v>
       </c>
     </row>
     <row r="205">
@@ -2069,7 +2069,7 @@
         <v>50.75</v>
       </c>
       <c r="B205" t="n">
-        <v>49999.99826310317</v>
+        <v>49999.66876392841</v>
       </c>
     </row>
     <row r="206">
@@ -2077,7 +2077,7 @@
         <v>51</v>
       </c>
       <c r="B206" t="n">
-        <v>49999.99851333204</v>
+        <v>49999.70444414268</v>
       </c>
     </row>
     <row r="207">
@@ -2085,7 +2085,7 @@
         <v>51.25</v>
       </c>
       <c r="B207" t="n">
-        <v>49999.99872780989</v>
+        <v>49999.73656282626</v>
       </c>
     </row>
     <row r="208">
@@ -2093,7 +2093,7 @@
         <v>51.5</v>
       </c>
       <c r="B208" t="n">
-        <v>49999.99891159947</v>
+        <v>49999.76544015367</v>
       </c>
     </row>
     <row r="209">
@@ -2101,7 +2101,7 @@
         <v>51.75</v>
       </c>
       <c r="B209" t="n">
-        <v>49999.99906905377</v>
+        <v>49999.79137107331</v>
       </c>
     </row>
     <row r="210">
@@ -2109,7 +2109,7 @@
         <v>52</v>
       </c>
       <c r="B210" t="n">
-        <v>49999.99920391342</v>
+        <v>49999.81462714285</v>
       </c>
     </row>
     <row r="211">
@@ -2117,7 +2117,7 @@
         <v>52.25</v>
       </c>
       <c r="B211" t="n">
-        <v>49999.99931939292</v>
+        <v>49999.83545817872</v>
       </c>
     </row>
     <row r="212">
@@ -2125,7 +2125,7 @@
         <v>52.5</v>
       </c>
       <c r="B212" t="n">
-        <v>49999.99941825352</v>
+        <v>49999.85409375532</v>
       </c>
     </row>
     <row r="213">
@@ -2133,7 +2133,7 @@
         <v>52.75</v>
       </c>
       <c r="B213" t="n">
-        <v>49999.99950286686</v>
+        <v>49999.87074458353</v>
       </c>
     </row>
     <row r="214">
@@ -2141,7 +2141,7 @@
         <v>53</v>
       </c>
       <c r="B214" t="n">
-        <v>49999.9995752689</v>
+        <v>49999.88560378989</v>
       </c>
     </row>
     <row r="215">
@@ -2149,7 +2149,7 @@
         <v>53.25</v>
       </c>
       <c r="B215" t="n">
-        <v>49999.99963720765</v>
+        <v>49999.89884811374</v>
       </c>
     </row>
     <row r="216">
@@ -2157,7 +2157,7 @@
         <v>53.5</v>
       </c>
       <c r="B216" t="n">
-        <v>49999.99969018229</v>
+        <v>49999.91063903355</v>
       </c>
     </row>
     <row r="217">
@@ -2165,7 +2165,7 @@
         <v>53.75</v>
       </c>
       <c r="B217" t="n">
-        <v>49999.9997354804</v>
+        <v>49999.9211238328</v>
       </c>
     </row>
     <row r="218">
@@ -2173,7 +2173,7 @@
         <v>54</v>
       </c>
       <c r="B218" t="n">
-        <v>49999.99977420455</v>
+        <v>49999.93043660995</v>
       </c>
     </row>
     <row r="219">
@@ -2181,7 +2181,7 @@
         <v>54.25</v>
       </c>
       <c r="B219" t="n">
-        <v>49999.99980730198</v>
+        <v>49999.93869923898</v>
       </c>
     </row>
     <row r="220">
@@ -2189,7 +2189,7 @@
         <v>54.5</v>
       </c>
       <c r="B220" t="n">
-        <v>49999.99983558337</v>
+        <v>49999.94602228032</v>
       </c>
     </row>
     <row r="221">
@@ -2197,7 +2197,7 @@
         <v>54.75</v>
       </c>
       <c r="B221" t="n">
-        <v>49999.9998597442</v>
+        <v>49999.95250584714</v>
       </c>
     </row>
     <row r="222">
@@ -2205,7 +2205,7 @@
         <v>55</v>
       </c>
       <c r="B222" t="n">
-        <v>49999.99988038029</v>
+        <v>49999.95824042595</v>
       </c>
     </row>
     <row r="223">
@@ -2213,7 +2213,7 @@
         <v>55.25</v>
       </c>
       <c r="B223" t="n">
-        <v>49999.9998980016</v>
+        <v>49999.96330765316</v>
       </c>
     </row>
     <row r="224">
@@ -2221,7 +2221,7 @@
         <v>55.5</v>
       </c>
       <c r="B224" t="n">
-        <v>49999.99991304592</v>
+        <v>49999.96778104818</v>
       </c>
     </row>
     <row r="225">
@@ -2229,7 +2229,7 @@
         <v>55.75</v>
       </c>
       <c r="B225" t="n">
-        <v>49999.99992588635</v>
+        <v>49999.97172670304</v>
       </c>
     </row>
     <row r="226">
@@ -2237,7 +2237,7 @@
         <v>56</v>
       </c>
       <c r="B226" t="n">
-        <v>49999.99993684414</v>
+        <v>49999.97520392974</v>
       </c>
     </row>
     <row r="227">
@@ -2245,7 +2245,7 @@
         <v>56.25</v>
       </c>
       <c r="B227" t="n">
-        <v>49999.99994619307</v>
+        <v>49999.97826586587</v>
       </c>
     </row>
     <row r="228">
@@ -2253,7 +2253,7 @@
         <v>56.5</v>
       </c>
       <c r="B228" t="n">
-        <v>49999.99995416745</v>
+        <v>49999.9809600386</v>
       </c>
     </row>
     <row r="229">
@@ -2261,7 +2261,7 @@
         <v>56.75</v>
       </c>
       <c r="B229" t="n">
-        <v>49999.9999609681</v>
+        <v>49999.98332888964</v>
       </c>
     </row>
     <row r="230">
@@ -2269,7 +2269,7 @@
         <v>57</v>
       </c>
       <c r="B230" t="n">
-        <v>49999.99996676663</v>
+        <v>49999.9854102609</v>
       </c>
     </row>
     <row r="231">
@@ -2277,7 +2277,7 @@
         <v>57.25</v>
       </c>
       <c r="B231" t="n">
-        <v>49999.99997170948</v>
+        <v>49999.98723784278</v>
       </c>
     </row>
     <row r="232">
@@ -2285,7 +2285,7 @@
         <v>57.5</v>
       </c>
       <c r="B232" t="n">
-        <v>49999.9999759222</v>
+        <v>49999.98884158701</v>
       </c>
     </row>
     <row r="233">
@@ -2293,7 +2293,7 @@
         <v>57.75</v>
       </c>
       <c r="B233" t="n">
-        <v>49999.99997951183</v>
+        <v>49999.9902480853</v>
       </c>
     </row>
     <row r="234">
@@ -2301,7 +2301,7 @@
         <v>58</v>
       </c>
       <c r="B234" t="n">
-        <v>49999.99998256971</v>
+        <v>49999.99148091533</v>
       </c>
     </row>
     <row r="235">
@@ -2309,7 +2309,7 @@
         <v>58.25</v>
       </c>
       <c r="B235" t="n">
-        <v>49999.99998517455</v>
+        <v>49999.99256095691</v>
       </c>
     </row>
     <row r="236">
@@ -2317,7 +2317,7 @@
         <v>58.5</v>
       </c>
       <c r="B236" t="n">
-        <v>49999.99998739251</v>
+        <v>49999.99350667865</v>
       </c>
     </row>
     <row r="237">
@@ -2325,7 +2325,7 @@
         <v>58.75</v>
       </c>
       <c r="B237" t="n">
-        <v>49999.99998928096</v>
+        <v>49999.99433439833</v>
       </c>
     </row>
     <row r="238">
@@ -2333,7 +2333,7 @@
         <v>59</v>
       </c>
       <c r="B238" t="n">
-        <v>49999.99999088849</v>
+        <v>49999.99505851863</v>
       </c>
     </row>
     <row r="239">
@@ -2341,7 +2341,7 @@
         <v>59.25</v>
       </c>
       <c r="B239" t="n">
-        <v>49999.99999225658</v>
+        <v>49999.99569173908</v>
       </c>
     </row>
     <row r="240">
@@ -2349,7 +2349,7 @@
         <v>59.5</v>
       </c>
       <c r="B240" t="n">
-        <v>49999.99999342058</v>
+        <v>49999.99624524733</v>
       </c>
     </row>
     <row r="241">
@@ -2357,7 +2357,7 @@
         <v>59.75</v>
       </c>
       <c r="B241" t="n">
-        <v>49999.99999441093</v>
+        <v>49999.99672889081</v>
       </c>
     </row>
     <row r="242">
@@ -2365,7 +2365,7 @@
         <v>60</v>
       </c>
       <c r="B242" t="n">
-        <v>49999.99999525325</v>
+        <v>49999.9971513303</v>
       </c>
     </row>
     <row r="243">
@@ -2373,7 +2373,7 @@
         <v>60.25</v>
       </c>
       <c r="B243" t="n">
-        <v>49999.99999596953</v>
+        <v>49999.99752017731</v>
       </c>
     </row>
     <row r="244">
@@ -2381,7 +2381,7 @@
         <v>60.5</v>
       </c>
       <c r="B244" t="n">
-        <v>49999.99999657833</v>
+        <v>49999.99784211674</v>
       </c>
     </row>
     <row r="245">
@@ -2389,7 +2389,7 @@
         <v>60.75</v>
       </c>
       <c r="B245" t="n">
-        <v>49999.9999970961</v>
+        <v>49999.99812301587</v>
       </c>
     </row>
     <row r="246">
@@ -2397,7 +2397,7 @@
         <v>61</v>
       </c>
       <c r="B246" t="n">
-        <v>49999.99999753602</v>
+        <v>49999.99836802169</v>
       </c>
     </row>
     <row r="247">
@@ -2405,7 +2405,7 @@
         <v>61.25</v>
       </c>
       <c r="B247" t="n">
-        <v>49999.99999790969</v>
+        <v>49999.99858164655</v>
       </c>
     </row>
     <row r="248">
@@ -2413,7 +2413,7 @@
         <v>61.5</v>
       </c>
       <c r="B248" t="n">
-        <v>49999.99999822737</v>
+        <v>49999.99876784495</v>
       </c>
     </row>
     <row r="249">
@@ -2421,7 +2421,7 @@
         <v>61.75</v>
       </c>
       <c r="B249" t="n">
-        <v>49999.9999984969</v>
+        <v>49999.99893008066</v>
       </c>
     </row>
     <row r="250">
@@ -2429,7 +2429,7 @@
         <v>62</v>
       </c>
       <c r="B250" t="n">
-        <v>49999.99999872602</v>
+        <v>49999.99907138663</v>
       </c>
     </row>
     <row r="251">
@@ -2437,7 +2437,7 @@
         <v>62.25</v>
       </c>
       <c r="B251" t="n">
-        <v>49999.99999892034</v>
+        <v>49999.99919441739</v>
       </c>
     </row>
     <row r="252">
@@ -2445,7 +2445,7 @@
         <v>62.5</v>
       </c>
       <c r="B252" t="n">
-        <v>49999.99999908549</v>
+        <v>49999.99930149577</v>
       </c>
     </row>
     <row r="253">
@@ -2453,7 +2453,7 @@
         <v>62.75</v>
       </c>
       <c r="B253" t="n">
-        <v>49999.99999922533</v>
+        <v>49999.99939465327</v>
       </c>
     </row>
     <row r="254">
@@ -2461,7 +2461,7 @@
         <v>63</v>
       </c>
       <c r="B254" t="n">
-        <v>49999.99999934444</v>
+        <v>49999.99947566671</v>
       </c>
     </row>
     <row r="255">
@@ -2469,7 +2469,7 @@
         <v>63.25</v>
       </c>
       <c r="B255" t="n">
-        <v>49999.99999944497</v>
+        <v>49999.99954608907</v>
       </c>
     </row>
     <row r="256">
@@ -2477,7 +2477,7 @@
         <v>63.5</v>
       </c>
       <c r="B256" t="n">
-        <v>49999.99999953049</v>
+        <v>49999.99960727798</v>
       </c>
     </row>
     <row r="257">
@@ -2485,7 +2485,7 @@
         <v>63.75</v>
       </c>
       <c r="B257" t="n">
-        <v>49999.99999960308</v>
+        <v>49999.9996604195</v>
       </c>
     </row>
     <row r="258">
@@ -2493,7 +2493,7 @@
         <v>64</v>
       </c>
       <c r="B258" t="n">
-        <v>49999.99999966429</v>
+        <v>49999.99970654972</v>
       </c>
     </row>
     <row r="259">
@@ -2501,7 +2501,7 @@
         <v>64.25</v>
       </c>
       <c r="B259" t="n">
-        <v>49999.99999971638</v>
+        <v>49999.99974657353</v>
       </c>
     </row>
     <row r="260">
@@ -2509,7 +2509,7 @@
         <v>64.5</v>
       </c>
       <c r="B260" t="n">
-        <v>49999.99999976043</v>
+        <v>49999.99978128116</v>
       </c>
     </row>
     <row r="261">
@@ -2517,7 +2517,7 @@
         <v>64.75</v>
       </c>
       <c r="B261" t="n">
-        <v>49999.99999979784</v>
+        <v>49999.99981136224</v>
       </c>
     </row>
     <row r="262">
@@ -2525,7 +2525,7 @@
         <v>65</v>
       </c>
       <c r="B262" t="n">
-        <v>49999.99999982942</v>
+        <v>49999.99983741867</v>
       </c>
     </row>
     <row r="263">
@@ -2533,7 +2533,7 @@
         <v>65.25</v>
       </c>
       <c r="B263" t="n">
-        <v>49999.99999985618</v>
+        <v>49999.99985997556</v>
       </c>
     </row>
     <row r="264">
@@ -2541,7 +2541,7 @@
         <v>65.5</v>
       </c>
       <c r="B264" t="n">
-        <v>49999.99999987886</v>
+        <v>49999.99987949103</v>
       </c>
     </row>
     <row r="265">
@@ -2549,7 +2549,7 @@
         <v>65.75</v>
       </c>
       <c r="B265" t="n">
-        <v>49999.99999989801</v>
+        <v>49999.99989636434</v>
       </c>
     </row>
     <row r="266">
@@ -2557,7 +2557,7 @@
         <v>66</v>
       </c>
       <c r="B266" t="n">
-        <v>49999.9999999143</v>
+        <v>49999.99991094352</v>
       </c>
     </row>
     <row r="267">
@@ -2565,7 +2565,7 @@
         <v>66.25</v>
       </c>
       <c r="B267" t="n">
-        <v>49999.99999992783</v>
+        <v>49999.99992353196</v>
       </c>
     </row>
     <row r="268">
@@ -2573,7 +2573,7 @@
         <v>66.5</v>
       </c>
       <c r="B268" t="n">
-        <v>49999.99999993959</v>
+        <v>49999.99993439377</v>
       </c>
     </row>
     <row r="269">
@@ -2581,7 +2581,7 @@
         <v>66.75</v>
       </c>
       <c r="B269" t="n">
-        <v>49999.99999994948</v>
+        <v>49999.99994375903</v>
       </c>
     </row>
     <row r="270">
@@ -2589,7 +2589,7 @@
         <v>67</v>
       </c>
       <c r="B270" t="n">
-        <v>49999.99999995749</v>
+        <v>49999.99995182784</v>
       </c>
     </row>
     <row r="271">
@@ -2597,7 +2597,7 @@
         <v>67.25</v>
       </c>
       <c r="B271" t="n">
-        <v>49999.99999996462</v>
+        <v>49999.99995877429</v>
       </c>
     </row>
     <row r="272">
@@ -2605,7 +2605,7 @@
         <v>67.5</v>
       </c>
       <c r="B272" t="n">
-        <v>49999.99999997053</v>
+        <v>49999.99996474978</v>
       </c>
     </row>
     <row r="273">
@@ -2613,7 +2613,7 @@
         <v>67.75</v>
       </c>
       <c r="B273" t="n">
-        <v>49999.99999997531</v>
+        <v>49999.99996988579</v>
       </c>
     </row>
     <row r="274">
@@ -2621,7 +2621,7 @@
         <v>68</v>
       </c>
       <c r="B274" t="n">
-        <v>49999.99999997969</v>
+        <v>49999.99997429665</v>
       </c>
     </row>
     <row r="275">
@@ -2629,7 +2629,7 @@
         <v>68.25</v>
       </c>
       <c r="B275" t="n">
-        <v>49999.99999998311</v>
+        <v>49999.99997808151</v>
       </c>
     </row>
     <row r="276">
@@ -2637,7 +2637,7 @@
         <v>68.5</v>
       </c>
       <c r="B276" t="n">
-        <v>49999.99999998622</v>
+        <v>49999.99998132633</v>
       </c>
     </row>
     <row r="277">
@@ -2645,7 +2645,7 @@
         <v>68.75</v>
       </c>
       <c r="B277" t="n">
-        <v>49999.99999998855</v>
+        <v>49999.99998410576</v>
       </c>
     </row>
     <row r="278">
@@ -2653,7 +2653,7 @@
         <v>69</v>
       </c>
       <c r="B278" t="n">
-        <v>49999.9999999908</v>
+        <v>49999.99998648428</v>
       </c>
     </row>
     <row r="279">
@@ -2661,7 +2661,7 @@
         <v>69.25</v>
       </c>
       <c r="B279" t="n">
-        <v>49999.99999999256</v>
+        <v>49999.99998851794</v>
       </c>
     </row>
     <row r="280">
@@ -2669,7 +2669,7 @@
         <v>69.5</v>
       </c>
       <c r="B280" t="n">
-        <v>49999.99999999403</v>
+        <v>49999.99999025502</v>
       </c>
     </row>
     <row r="281">
@@ -2677,7 +2677,7 @@
         <v>69.75</v>
       </c>
       <c r="B281" t="n">
-        <v>49999.99999999529</v>
+        <v>49999.99999173746</v>
       </c>
     </row>
     <row r="282">
@@ -2685,7 +2685,7 @@
         <v>70</v>
       </c>
       <c r="B282" t="n">
-        <v>49999.99999999633</v>
+        <v>49999.99999300126</v>
       </c>
     </row>
     <row r="283">
@@ -2693,7 +2693,7 @@
         <v>70.25</v>
       </c>
       <c r="B283" t="n">
-        <v>49999.99999999725</v>
+        <v>49999.99999407763</v>
       </c>
     </row>
     <row r="284">
@@ -2701,7 +2701,7 @@
         <v>70.5</v>
       </c>
       <c r="B284" t="n">
-        <v>49999.99999999799</v>
+        <v>49999.99999499344</v>
       </c>
     </row>
     <row r="285">
@@ -2709,7 +2709,7 @@
         <v>70.75</v>
       </c>
       <c r="B285" t="n">
-        <v>49999.9999999986</v>
+        <v>49999.9999957719</v>
       </c>
     </row>
     <row r="286">
@@ -2717,7 +2717,7 @@
         <v>71</v>
       </c>
       <c r="B286" t="n">
-        <v>49999.99999999908</v>
+        <v>49999.99999643287</v>
       </c>
     </row>
     <row r="287">
@@ -2725,7 +2725,7 @@
         <v>71.25</v>
       </c>
       <c r="B287" t="n">
-        <v>49999.99999999953</v>
+        <v>49999.99999699353</v>
       </c>
     </row>
     <row r="288">
@@ -2733,7 +2733,7 @@
         <v>71.5</v>
       </c>
       <c r="B288" t="n">
-        <v>49999.99999999991</v>
+        <v>49999.99999746865</v>
       </c>
     </row>
     <row r="289">
@@ -2741,7 +2741,7 @@
         <v>71.75</v>
       </c>
       <c r="B289" t="n">
-        <v>50000.00000000022</v>
+        <v>49999.99999787074</v>
       </c>
     </row>
     <row r="290">
@@ -2749,7 +2749,7 @@
         <v>72</v>
       </c>
       <c r="B290" t="n">
-        <v>50000.00000000046</v>
+        <v>49999.99999821078</v>
       </c>
     </row>
     <row r="291">
@@ -2757,7 +2757,7 @@
         <v>72.25</v>
       </c>
       <c r="B291" t="n">
-        <v>50000.00000000071</v>
+        <v>49999.99999849795</v>
       </c>
     </row>
     <row r="292">
@@ -2765,7 +2765,7 @@
         <v>72.5</v>
       </c>
       <c r="B292" t="n">
-        <v>50000.00000000087</v>
+        <v>49999.99999874031</v>
       </c>
     </row>
     <row r="293">
@@ -2773,7 +2773,7 @@
         <v>72.75</v>
       </c>
       <c r="B293" t="n">
-        <v>50000.000000001</v>
+        <v>49999.99999894452</v>
       </c>
     </row>
     <row r="294">
@@ -2781,7 +2781,7 @@
         <v>73</v>
       </c>
       <c r="B294" t="n">
-        <v>50000.00000000112</v>
+        <v>49999.99999911647</v>
       </c>
     </row>
     <row r="295">
@@ -2789,7 +2789,7 @@
         <v>73.25</v>
       </c>
       <c r="B295" t="n">
-        <v>50000.00000000123</v>
+        <v>49999.99999926112</v>
       </c>
     </row>
     <row r="296">
@@ -2797,7 +2797,7 @@
         <v>73.5</v>
       </c>
       <c r="B296" t="n">
-        <v>50000.00000000134</v>
+        <v>49999.99999938262</v>
       </c>
     </row>
     <row r="297">
@@ -2805,7 +2805,7 @@
         <v>73.75</v>
       </c>
       <c r="B297" t="n">
-        <v>50000.00000000138</v>
+        <v>49999.9999994846</v>
       </c>
     </row>
     <row r="298">
@@ -2813,7 +2813,7 @@
         <v>74</v>
       </c>
       <c r="B298" t="n">
-        <v>50000.00000000143</v>
+        <v>49999.9999995701</v>
       </c>
     </row>
     <row r="299">
@@ -2821,7 +2821,7 @@
         <v>74.25</v>
       </c>
       <c r="B299" t="n">
-        <v>50000.00000000144</v>
+        <v>49999.9999996417</v>
       </c>
     </row>
     <row r="300">
@@ -2829,7 +2829,7 @@
         <v>74.5</v>
       </c>
       <c r="B300" t="n">
-        <v>50000.00000000148</v>
+        <v>49999.99999970164</v>
       </c>
     </row>
     <row r="301">
@@ -2837,7 +2837,7 @@
         <v>74.75</v>
       </c>
       <c r="B301" t="n">
-        <v>50000.00000000152</v>
+        <v>49999.99999975166</v>
       </c>
     </row>
     <row r="302">
@@ -2845,7 +2845,7 @@
         <v>75</v>
       </c>
       <c r="B302" t="n">
-        <v>50000.00000000157</v>
+        <v>49999.99999979353</v>
       </c>
     </row>
     <row r="303">
@@ -2853,7 +2853,7 @@
         <v>75.25</v>
       </c>
       <c r="B303" t="n">
-        <v>50000.00000000159</v>
+        <v>49999.99999982833</v>
       </c>
     </row>
     <row r="304">
@@ -2861,7 +2861,7 @@
         <v>75.5</v>
       </c>
       <c r="B304" t="n">
-        <v>50000.00000000162</v>
+        <v>49999.99999985745</v>
       </c>
     </row>
     <row r="305">
@@ -2869,7 +2869,7 @@
         <v>75.75</v>
       </c>
       <c r="B305" t="n">
-        <v>50000.00000000162</v>
+        <v>49999.99999988164</v>
       </c>
     </row>
     <row r="306">
@@ -2877,7 +2877,7 @@
         <v>76</v>
       </c>
       <c r="B306" t="n">
-        <v>50000.00000000168</v>
+        <v>49999.99999990179</v>
       </c>
     </row>
     <row r="307">
@@ -2885,7 +2885,7 @@
         <v>76.25</v>
       </c>
       <c r="B307" t="n">
-        <v>50000.00000000164</v>
+        <v>49999.99999991853</v>
       </c>
     </row>
     <row r="308">
@@ -2893,7 +2893,7 @@
         <v>76.5</v>
       </c>
       <c r="B308" t="n">
-        <v>50000.00000000162</v>
+        <v>49999.99999993244</v>
       </c>
     </row>
     <row r="309">
@@ -2901,7 +2901,7 @@
         <v>76.75</v>
       </c>
       <c r="B309" t="n">
-        <v>50000.00000000166</v>
+        <v>49999.99999994403</v>
       </c>
     </row>
     <row r="310">
@@ -2909,7 +2909,7 @@
         <v>77</v>
       </c>
       <c r="B310" t="n">
-        <v>50000.00000000167</v>
+        <v>49999.99999995362</v>
       </c>
     </row>
     <row r="311">
@@ -2917,7 +2917,7 @@
         <v>77.25</v>
       </c>
       <c r="B311" t="n">
-        <v>50000.00000000167</v>
+        <v>49999.99999996158</v>
       </c>
     </row>
     <row r="312">
@@ -2925,7 +2925,7 @@
         <v>77.5</v>
       </c>
       <c r="B312" t="n">
-        <v>50000.00000000169</v>
+        <v>49999.99999996821</v>
       </c>
     </row>
     <row r="313">
@@ -2933,7 +2933,7 @@
         <v>77.75</v>
       </c>
       <c r="B313" t="n">
-        <v>50000.00000000168</v>
+        <v>49999.99999997368</v>
       </c>
     </row>
     <row r="314">
@@ -2941,7 +2941,7 @@
         <v>78</v>
       </c>
       <c r="B314" t="n">
-        <v>50000.00000000168</v>
+        <v>49999.99999997824</v>
       </c>
     </row>
     <row r="315">
@@ -2949,7 +2949,7 @@
         <v>78.25</v>
       </c>
       <c r="B315" t="n">
-        <v>50000.00000000167</v>
+        <v>49999.99999998201</v>
       </c>
     </row>
     <row r="316">
@@ -2957,7 +2957,7 @@
         <v>78.5</v>
       </c>
       <c r="B316" t="n">
-        <v>50000.00000000167</v>
+        <v>49999.99999998512</v>
       </c>
     </row>
     <row r="317">
@@ -2965,7 +2965,7 @@
         <v>78.75</v>
       </c>
       <c r="B317" t="n">
-        <v>50000.00000000167</v>
+        <v>49999.99999998773</v>
       </c>
     </row>
     <row r="318">
@@ -2973,7 +2973,7 @@
         <v>79</v>
       </c>
       <c r="B318" t="n">
-        <v>50000.00000000166</v>
+        <v>49999.99999998992</v>
       </c>
     </row>
     <row r="319">
@@ -2981,7 +2981,7 @@
         <v>79.25</v>
       </c>
       <c r="B319" t="n">
-        <v>50000.00000000167</v>
+        <v>49999.9999999917</v>
       </c>
     </row>
     <row r="320">
@@ -2989,7 +2989,7 @@
         <v>79.5</v>
       </c>
       <c r="B320" t="n">
-        <v>50000.00000000167</v>
+        <v>49999.99999999318</v>
       </c>
     </row>
     <row r="321">
@@ -2997,7 +2997,7 @@
         <v>79.75</v>
       </c>
       <c r="B321" t="n">
-        <v>50000.00000000166</v>
+        <v>49999.99999999443</v>
       </c>
     </row>
     <row r="322">
@@ -3005,7 +3005,7 @@
         <v>80</v>
       </c>
       <c r="B322" t="n">
-        <v>50000.00000000167</v>
+        <v>49999.99999999553</v>
       </c>
     </row>
     <row r="323">
@@ -3013,7 +3013,7 @@
         <v>80.25</v>
       </c>
       <c r="B323" t="n">
-        <v>50000.00000000167</v>
+        <v>49999.99999999638</v>
       </c>
     </row>
     <row r="324">
@@ -3021,7 +3021,7 @@
         <v>80.5</v>
       </c>
       <c r="B324" t="n">
-        <v>50000.00000000166</v>
+        <v>49999.99999999705</v>
       </c>
     </row>
     <row r="325">
@@ -3029,7 +3029,7 @@
         <v>80.75</v>
       </c>
       <c r="B325" t="n">
-        <v>50000.00000000166</v>
+        <v>49999.99999999772</v>
       </c>
     </row>
     <row r="326">
@@ -3037,7 +3037,7 @@
         <v>81</v>
       </c>
       <c r="B326" t="n">
-        <v>50000.00000000168</v>
+        <v>49999.99999999826</v>
       </c>
     </row>
     <row r="327">
@@ -3045,7 +3045,7 @@
         <v>81.25</v>
       </c>
       <c r="B327" t="n">
-        <v>50000.00000000167</v>
+        <v>49999.99999999873</v>
       </c>
     </row>
     <row r="328">
@@ -3053,7 +3053,7 @@
         <v>81.5</v>
       </c>
       <c r="B328" t="n">
-        <v>50000.00000000164</v>
+        <v>49999.99999999913</v>
       </c>
     </row>
     <row r="329">
@@ -3061,7 +3061,7 @@
         <v>81.75</v>
       </c>
       <c r="B329" t="n">
-        <v>50000.00000000167</v>
+        <v>49999.99999999945</v>
       </c>
     </row>
     <row r="330">
@@ -3069,7 +3069,7 @@
         <v>82</v>
       </c>
       <c r="B330" t="n">
-        <v>50000.00000000169</v>
+        <v>49999.99999999968</v>
       </c>
     </row>
     <row r="331">
@@ -3077,7 +3077,7 @@
         <v>82.25</v>
       </c>
       <c r="B331" t="n">
-        <v>50000.00000000166</v>
+        <v>49999.99999999997</v>
       </c>
     </row>
     <row r="332">
@@ -3085,7 +3085,7 @@
         <v>82.5</v>
       </c>
       <c r="B332" t="n">
-        <v>50000.00000000164</v>
+        <v>50000.00000000017</v>
       </c>
     </row>
     <row r="333">
@@ -3093,7 +3093,7 @@
         <v>82.75</v>
       </c>
       <c r="B333" t="n">
-        <v>50000.00000000168</v>
+        <v>50000.00000000031</v>
       </c>
     </row>
     <row r="334">
@@ -3101,7 +3101,7 @@
         <v>83</v>
       </c>
       <c r="B334" t="n">
-        <v>50000.00000000166</v>
+        <v>50000.00000000044</v>
       </c>
     </row>
     <row r="335">
@@ -3109,7 +3109,7 @@
         <v>83.25</v>
       </c>
       <c r="B335" t="n">
-        <v>50000.00000000168</v>
+        <v>50000.00000000062</v>
       </c>
     </row>
     <row r="336">
@@ -3117,7 +3117,7 @@
         <v>83.5</v>
       </c>
       <c r="B336" t="n">
-        <v>50000.00000000167</v>
+        <v>50000.00000000078</v>
       </c>
     </row>
     <row r="337">
@@ -3125,7 +3125,7 @@
         <v>83.75</v>
       </c>
       <c r="B337" t="n">
-        <v>50000.00000000164</v>
+        <v>50000.00000000087</v>
       </c>
     </row>
     <row r="338">
@@ -3133,7 +3133,7 @@
         <v>84</v>
       </c>
       <c r="B338" t="n">
-        <v>50000.00000000164</v>
+        <v>50000.00000000093</v>
       </c>
     </row>
     <row r="339">
@@ -3141,7 +3141,7 @@
         <v>84.25</v>
       </c>
       <c r="B339" t="n">
-        <v>50000.00000000164</v>
+        <v>50000.00000000103</v>
       </c>
     </row>
     <row r="340">
@@ -3149,7 +3149,7 @@
         <v>84.5</v>
       </c>
       <c r="B340" t="n">
-        <v>50000.00000000166</v>
+        <v>50000.0000000011</v>
       </c>
     </row>
     <row r="341">
@@ -3157,7 +3157,7 @@
         <v>84.75</v>
       </c>
       <c r="B341" t="n">
-        <v>50000.00000000167</v>
+        <v>50000.00000000118</v>
       </c>
     </row>
     <row r="342">
@@ -3165,7 +3165,7 @@
         <v>85</v>
       </c>
       <c r="B342" t="n">
-        <v>50000.00000000164</v>
+        <v>50000.00000000118</v>
       </c>
     </row>
     <row r="343">
@@ -3173,7 +3173,7 @@
         <v>85.25</v>
       </c>
       <c r="B343" t="n">
-        <v>50000.00000000164</v>
+        <v>50000.00000000118</v>
       </c>
     </row>
     <row r="344">
@@ -3181,7 +3181,7 @@
         <v>85.5</v>
       </c>
       <c r="B344" t="n">
-        <v>50000.00000000164</v>
+        <v>50000.00000000127</v>
       </c>
     </row>
     <row r="345">
@@ -3189,7 +3189,7 @@
         <v>85.75</v>
       </c>
       <c r="B345" t="n">
-        <v>50000.00000000164</v>
+        <v>50000.00000000135</v>
       </c>
     </row>
     <row r="346">
@@ -3197,7 +3197,7 @@
         <v>86</v>
       </c>
       <c r="B346" t="n">
-        <v>50000.00000000164</v>
+        <v>50000.00000000137</v>
       </c>
     </row>
     <row r="347">
@@ -3205,7 +3205,7 @@
         <v>86.25</v>
       </c>
       <c r="B347" t="n">
-        <v>50000.00000000162</v>
+        <v>50000.00000000144</v>
       </c>
     </row>
     <row r="348">
@@ -3213,7 +3213,7 @@
         <v>86.5</v>
       </c>
       <c r="B348" t="n">
-        <v>50000.00000000162</v>
+        <v>50000.00000000142</v>
       </c>
     </row>
     <row r="349">
@@ -3221,7 +3221,7 @@
         <v>86.75</v>
       </c>
       <c r="B349" t="n">
-        <v>50000.00000000162</v>
+        <v>50000.00000000142</v>
       </c>
     </row>
     <row r="350">
@@ -3229,7 +3229,7 @@
         <v>87</v>
       </c>
       <c r="B350" t="n">
-        <v>50000.00000000166</v>
+        <v>50000.0000000015</v>
       </c>
     </row>
     <row r="351">
@@ -3237,7 +3237,7 @@
         <v>87.25</v>
       </c>
       <c r="B351" t="n">
-        <v>50000.00000000164</v>
+        <v>50000.00000000151</v>
       </c>
     </row>
     <row r="352">
@@ -3245,7 +3245,7 @@
         <v>87.5</v>
       </c>
       <c r="B352" t="n">
-        <v>50000.00000000164</v>
+        <v>50000.00000000148</v>
       </c>
     </row>
     <row r="353">
@@ -3253,7 +3253,7 @@
         <v>87.75</v>
       </c>
       <c r="B353" t="n">
-        <v>50000.00000000166</v>
+        <v>50000.00000000151</v>
       </c>
     </row>
     <row r="354">
@@ -3261,7 +3261,7 @@
         <v>88</v>
       </c>
       <c r="B354" t="n">
-        <v>50000.00000000166</v>
+        <v>50000.00000000155</v>
       </c>
     </row>
     <row r="355">
@@ -3269,7 +3269,7 @@
         <v>88.25</v>
       </c>
       <c r="B355" t="n">
-        <v>50000.00000000164</v>
+        <v>50000.0000000016</v>
       </c>
     </row>
     <row r="356">
@@ -3277,7 +3277,7 @@
         <v>88.5</v>
       </c>
       <c r="B356" t="n">
-        <v>50000.00000000164</v>
+        <v>50000.00000000156</v>
       </c>
     </row>
     <row r="357">
@@ -3285,7 +3285,7 @@
         <v>88.75</v>
       </c>
       <c r="B357" t="n">
-        <v>50000.00000000164</v>
+        <v>50000.00000000157</v>
       </c>
     </row>
     <row r="358">
@@ -3301,7 +3301,7 @@
         <v>89.25</v>
       </c>
       <c r="B359" t="n">
-        <v>50000.00000000162</v>
+        <v>50000.00000000167</v>
       </c>
     </row>
     <row r="360">
@@ -3309,7 +3309,7 @@
         <v>89.5</v>
       </c>
       <c r="B360" t="n">
-        <v>50000.00000000164</v>
+        <v>50000.00000000162</v>
       </c>
     </row>
     <row r="361">
@@ -3317,7 +3317,7 @@
         <v>89.75</v>
       </c>
       <c r="B361" t="n">
-        <v>50000.00000000164</v>
+        <v>50000.00000000162</v>
       </c>
     </row>
     <row r="362">
@@ -3325,7 +3325,7 @@
         <v>90</v>
       </c>
       <c r="B362" t="n">
-        <v>50000.00000000161</v>
+        <v>50000.00000000164</v>
       </c>
     </row>
     <row r="363">
@@ -3333,7 +3333,7 @@
         <v>90.25</v>
       </c>
       <c r="B363" t="n">
-        <v>50000.00000000162</v>
+        <v>50000.00000000159</v>
       </c>
     </row>
     <row r="364">
@@ -3341,7 +3341,7 @@
         <v>90.5</v>
       </c>
       <c r="B364" t="n">
-        <v>50000.00000000166</v>
+        <v>50000.00000000162</v>
       </c>
     </row>
     <row r="365">
@@ -3349,7 +3349,7 @@
         <v>90.75</v>
       </c>
       <c r="B365" t="n">
-        <v>50000.00000000166</v>
+        <v>50000.00000000167</v>
       </c>
     </row>
     <row r="366">
@@ -3357,7 +3357,7 @@
         <v>91</v>
       </c>
       <c r="B366" t="n">
-        <v>50000.00000000164</v>
+        <v>50000.00000000162</v>
       </c>
     </row>
     <row r="367">
@@ -3365,7 +3365,7 @@
         <v>91.25</v>
       </c>
       <c r="B367" t="n">
-        <v>50000.00000000164</v>
+        <v>50000.00000000162</v>
       </c>
     </row>
     <row r="368">
@@ -3373,7 +3373,7 @@
         <v>91.5</v>
       </c>
       <c r="B368" t="n">
-        <v>50000.00000000166</v>
+        <v>50000.00000000156</v>
       </c>
     </row>
     <row r="369">
@@ -3381,7 +3381,7 @@
         <v>91.75</v>
       </c>
       <c r="B369" t="n">
-        <v>50000.00000000164</v>
+        <v>50000.00000000157</v>
       </c>
     </row>
     <row r="370">
@@ -3389,7 +3389,7 @@
         <v>92</v>
       </c>
       <c r="B370" t="n">
-        <v>50000.00000000167</v>
+        <v>50000.00000000159</v>
       </c>
     </row>
     <row r="371">
@@ -3397,7 +3397,7 @@
         <v>92.25</v>
       </c>
       <c r="B371" t="n">
-        <v>50000.00000000167</v>
+        <v>50000.00000000162</v>
       </c>
     </row>
     <row r="372">
@@ -3405,7 +3405,7 @@
         <v>92.5</v>
       </c>
       <c r="B372" t="n">
-        <v>50000.00000000164</v>
+        <v>50000.00000000162</v>
       </c>
     </row>
     <row r="373">
@@ -3413,7 +3413,7 @@
         <v>92.75</v>
       </c>
       <c r="B373" t="n">
-        <v>50000.00000000164</v>
+        <v>50000.00000000162</v>
       </c>
     </row>
     <row r="374">
@@ -3421,7 +3421,7 @@
         <v>93</v>
       </c>
       <c r="B374" t="n">
-        <v>50000.00000000164</v>
+        <v>50000.00000000165</v>
       </c>
     </row>
     <row r="375">
@@ -3429,7 +3429,7 @@
         <v>93.25</v>
       </c>
       <c r="B375" t="n">
-        <v>50000.00000000166</v>
+        <v>50000.0000000016</v>
       </c>
     </row>
     <row r="376">
@@ -3437,7 +3437,7 @@
         <v>93.5</v>
       </c>
       <c r="B376" t="n">
-        <v>50000.00000000166</v>
+        <v>50000.00000000162</v>
       </c>
     </row>
     <row r="377">
@@ -3445,7 +3445,7 @@
         <v>93.75</v>
       </c>
       <c r="B377" t="n">
-        <v>50000.00000000169</v>
+        <v>50000.0000000016</v>
       </c>
     </row>
     <row r="378">
@@ -3453,7 +3453,7 @@
         <v>94</v>
       </c>
       <c r="B378" t="n">
-        <v>50000.00000000168</v>
+        <v>50000.0000000016</v>
       </c>
     </row>
     <row r="379">
@@ -3461,7 +3461,7 @@
         <v>94.25</v>
       </c>
       <c r="B379" t="n">
-        <v>50000.00000000169</v>
+        <v>50000.00000000164</v>
       </c>
     </row>
     <row r="380">
@@ -3469,7 +3469,7 @@
         <v>94.5</v>
       </c>
       <c r="B380" t="n">
-        <v>50000.00000000167</v>
+        <v>50000.0000000016</v>
       </c>
     </row>
     <row r="381">
@@ -3477,7 +3477,7 @@
         <v>94.75</v>
       </c>
       <c r="B381" t="n">
-        <v>50000.00000000167</v>
+        <v>50000.00000000156</v>
       </c>
     </row>
     <row r="382">
@@ -3485,7 +3485,7 @@
         <v>95</v>
       </c>
       <c r="B382" t="n">
-        <v>50000.00000000167</v>
+        <v>50000.0000000016</v>
       </c>
     </row>
     <row r="383">
@@ -3493,7 +3493,7 @@
         <v>95.25</v>
       </c>
       <c r="B383" t="n">
-        <v>50000.00000000168</v>
+        <v>50000.00000000162</v>
       </c>
     </row>
     <row r="384">
@@ -3501,7 +3501,7 @@
         <v>95.5</v>
       </c>
       <c r="B384" t="n">
-        <v>50000.00000000169</v>
+        <v>50000.0000000016</v>
       </c>
     </row>
     <row r="385">
@@ -3509,7 +3509,7 @@
         <v>95.75</v>
       </c>
       <c r="B385" t="n">
-        <v>50000.00000000171</v>
+        <v>50000.00000000162</v>
       </c>
     </row>
     <row r="386">
@@ -3517,7 +3517,7 @@
         <v>96</v>
       </c>
       <c r="B386" t="n">
-        <v>50000.0000000017</v>
+        <v>50000.00000000162</v>
       </c>
     </row>
     <row r="387">
@@ -3525,7 +3525,7 @@
         <v>96.25</v>
       </c>
       <c r="B387" t="n">
-        <v>50000.0000000017</v>
+        <v>50000.00000000164</v>
       </c>
     </row>
     <row r="388">
@@ -3533,7 +3533,7 @@
         <v>96.5</v>
       </c>
       <c r="B388" t="n">
-        <v>50000.00000000168</v>
+        <v>50000.00000000167</v>
       </c>
     </row>
     <row r="389">
@@ -3541,7 +3541,7 @@
         <v>96.75</v>
       </c>
       <c r="B389" t="n">
-        <v>50000.0000000017</v>
+        <v>50000.00000000164</v>
       </c>
     </row>
     <row r="390">
@@ -3549,7 +3549,7 @@
         <v>97</v>
       </c>
       <c r="B390" t="n">
-        <v>50000.00000000168</v>
+        <v>50000.0000000016</v>
       </c>
     </row>
     <row r="391">
@@ -3557,7 +3557,7 @@
         <v>97.25</v>
       </c>
       <c r="B391" t="n">
-        <v>50000.0000000017</v>
+        <v>50000.00000000164</v>
       </c>
     </row>
     <row r="392">
@@ -3565,7 +3565,7 @@
         <v>97.5</v>
       </c>
       <c r="B392" t="n">
-        <v>50000.00000000169</v>
+        <v>50000.00000000164</v>
       </c>
     </row>
     <row r="393">
@@ -3573,7 +3573,7 @@
         <v>97.75</v>
       </c>
       <c r="B393" t="n">
-        <v>50000.0000000017</v>
+        <v>50000.00000000159</v>
       </c>
     </row>
     <row r="394">
@@ -3589,7 +3589,7 @@
         <v>98.25</v>
       </c>
       <c r="B395" t="n">
-        <v>50000.00000000168</v>
+        <v>50000.00000000164</v>
       </c>
     </row>
     <row r="396">
@@ -3597,7 +3597,7 @@
         <v>98.5</v>
       </c>
       <c r="B396" t="n">
-        <v>50000.00000000169</v>
+        <v>50000.00000000164</v>
       </c>
     </row>
     <row r="397">
@@ -3605,7 +3605,7 @@
         <v>98.75</v>
       </c>
       <c r="B397" t="n">
-        <v>50000.00000000167</v>
+        <v>50000.00000000165</v>
       </c>
     </row>
     <row r="398">
@@ -3613,7 +3613,7 @@
         <v>99</v>
       </c>
       <c r="B398" t="n">
-        <v>50000.00000000168</v>
+        <v>50000.00000000164</v>
       </c>
     </row>
     <row r="399">
@@ -3621,7 +3621,7 @@
         <v>99.25</v>
       </c>
       <c r="B399" t="n">
-        <v>50000.00000000168</v>
+        <v>50000.0000000016</v>
       </c>
     </row>
     <row r="400">
@@ -3629,7 +3629,7 @@
         <v>99.5</v>
       </c>
       <c r="B400" t="n">
-        <v>50000.00000000169</v>
+        <v>50000.00000000167</v>
       </c>
     </row>
     <row r="401">
@@ -3637,7 +3637,7 @@
         <v>99.75</v>
       </c>
       <c r="B401" t="n">
-        <v>50000.00000000167</v>
+        <v>50000.00000000162</v>
       </c>
     </row>
     <row r="402">
@@ -3645,7 +3645,7 @@
         <v>100</v>
       </c>
       <c r="B402" t="n">
-        <v>50000.00000000166</v>
+        <v>50000.00000000162</v>
       </c>
     </row>
     <row r="403">
@@ -3653,7 +3653,7 @@
         <v>100.25</v>
       </c>
       <c r="B403" t="n">
-        <v>50000.0000000017</v>
+        <v>50000.00000000167</v>
       </c>
     </row>
     <row r="404">
@@ -3661,7 +3661,7 @@
         <v>100.5</v>
       </c>
       <c r="B404" t="n">
-        <v>50000.00000000167</v>
+        <v>50000.00000000162</v>
       </c>
     </row>
     <row r="405">
@@ -3669,7 +3669,7 @@
         <v>100.75</v>
       </c>
       <c r="B405" t="n">
-        <v>50000.00000000168</v>
+        <v>50000.00000000162</v>
       </c>
     </row>
     <row r="406">
@@ -3677,7 +3677,7 @@
         <v>101</v>
       </c>
       <c r="B406" t="n">
-        <v>50000.00000000169</v>
+        <v>50000.00000000164</v>
       </c>
     </row>
     <row r="407">
@@ -3685,7 +3685,7 @@
         <v>101.25</v>
       </c>
       <c r="B407" t="n">
-        <v>50000.00000000169</v>
+        <v>50000.00000000167</v>
       </c>
     </row>
     <row r="408">
@@ -3693,7 +3693,7 @@
         <v>101.5</v>
       </c>
       <c r="B408" t="n">
-        <v>50000.00000000166</v>
+        <v>50000.00000000164</v>
       </c>
     </row>
     <row r="409">
@@ -3701,7 +3701,7 @@
         <v>101.75</v>
       </c>
       <c r="B409" t="n">
-        <v>50000.00000000169</v>
+        <v>50000.00000000164</v>
       </c>
     </row>
     <row r="410">
@@ -3709,7 +3709,7 @@
         <v>102</v>
       </c>
       <c r="B410" t="n">
-        <v>50000.00000000168</v>
+        <v>50000.00000000162</v>
       </c>
     </row>
     <row r="411">
@@ -3717,7 +3717,7 @@
         <v>102.25</v>
       </c>
       <c r="B411" t="n">
-        <v>50000.00000000168</v>
+        <v>50000.00000000164</v>
       </c>
     </row>
     <row r="412">
@@ -3725,7 +3725,7 @@
         <v>102.5</v>
       </c>
       <c r="B412" t="n">
-        <v>50000.00000000166</v>
+        <v>50000.00000000162</v>
       </c>
     </row>
     <row r="413">
@@ -3733,7 +3733,7 @@
         <v>102.75</v>
       </c>
       <c r="B413" t="n">
-        <v>50000.00000000169</v>
+        <v>50000.00000000167</v>
       </c>
     </row>
     <row r="414">
@@ -3741,7 +3741,7 @@
         <v>103</v>
       </c>
       <c r="B414" t="n">
-        <v>50000.0000000017</v>
+        <v>50000.00000000162</v>
       </c>
     </row>
     <row r="415">
@@ -3749,7 +3749,7 @@
         <v>103.25</v>
       </c>
       <c r="B415" t="n">
-        <v>50000.00000000169</v>
+        <v>50000.0000000017</v>
       </c>
     </row>
     <row r="416">
@@ -3757,7 +3757,7 @@
         <v>103.5</v>
       </c>
       <c r="B416" t="n">
-        <v>50000.00000000167</v>
+        <v>50000.00000000164</v>
       </c>
     </row>
     <row r="417">
@@ -3765,7 +3765,7 @@
         <v>103.75</v>
       </c>
       <c r="B417" t="n">
-        <v>50000.00000000169</v>
+        <v>50000.00000000164</v>
       </c>
     </row>
     <row r="418">
@@ -3773,7 +3773,7 @@
         <v>104</v>
       </c>
       <c r="B418" t="n">
-        <v>50000.0000000017</v>
+        <v>50000.00000000164</v>
       </c>
     </row>
     <row r="419">
@@ -3781,7 +3781,7 @@
         <v>104.25</v>
       </c>
       <c r="B419" t="n">
-        <v>50000.0000000017</v>
+        <v>50000.00000000164</v>
       </c>
     </row>
     <row r="420">
@@ -3789,7 +3789,7 @@
         <v>104.5</v>
       </c>
       <c r="B420" t="n">
-        <v>50000.00000000168</v>
+        <v>50000.00000000162</v>
       </c>
     </row>
     <row r="421">
@@ -3797,7 +3797,7 @@
         <v>104.75</v>
       </c>
       <c r="B421" t="n">
-        <v>50000.00000000168</v>
+        <v>50000.00000000167</v>
       </c>
     </row>
     <row r="422">
@@ -3805,7 +3805,7 @@
         <v>105</v>
       </c>
       <c r="B422" t="n">
-        <v>50000.00000000169</v>
+        <v>50000.00000000165</v>
       </c>
     </row>
     <row r="423">
@@ -3813,7 +3813,7 @@
         <v>105.25</v>
       </c>
       <c r="B423" t="n">
-        <v>50000.00000000166</v>
+        <v>50000.00000000165</v>
       </c>
     </row>
     <row r="424">
@@ -3821,7 +3821,7 @@
         <v>105.5</v>
       </c>
       <c r="B424" t="n">
-        <v>50000.00000000171</v>
+        <v>50000.00000000165</v>
       </c>
     </row>
     <row r="425">
@@ -3829,7 +3829,7 @@
         <v>105.75</v>
       </c>
       <c r="B425" t="n">
-        <v>50000.00000000169</v>
+        <v>50000.00000000165</v>
       </c>
     </row>
     <row r="426">
@@ -3837,7 +3837,7 @@
         <v>106</v>
       </c>
       <c r="B426" t="n">
-        <v>50000.0000000017</v>
+        <v>50000.00000000165</v>
       </c>
     </row>
     <row r="427">
@@ -3845,7 +3845,7 @@
         <v>106.25</v>
       </c>
       <c r="B427" t="n">
-        <v>50000.00000000167</v>
+        <v>50000.00000000162</v>
       </c>
     </row>
     <row r="428">
@@ -3853,7 +3853,7 @@
         <v>106.5</v>
       </c>
       <c r="B428" t="n">
-        <v>50000.00000000167</v>
+        <v>50000.00000000164</v>
       </c>
     </row>
     <row r="429">
@@ -3861,7 +3861,7 @@
         <v>106.75</v>
       </c>
       <c r="B429" t="n">
-        <v>50000.00000000167</v>
+        <v>50000.00000000172</v>
       </c>
     </row>
     <row r="430">
@@ -3869,7 +3869,7 @@
         <v>107</v>
       </c>
       <c r="B430" t="n">
-        <v>50000.00000000168</v>
+        <v>50000.00000000173</v>
       </c>
     </row>
     <row r="431">
@@ -3877,7 +3877,7 @@
         <v>107.25</v>
       </c>
       <c r="B431" t="n">
-        <v>50000.00000000166</v>
+        <v>50000.00000000175</v>
       </c>
     </row>
     <row r="432">
@@ -3893,7 +3893,7 @@
         <v>107.75</v>
       </c>
       <c r="B433" t="n">
-        <v>50000.00000000167</v>
+        <v>50000.0000000017</v>
       </c>
     </row>
     <row r="434">
@@ -3901,7 +3901,7 @@
         <v>108</v>
       </c>
       <c r="B434" t="n">
-        <v>50000.00000000169</v>
+        <v>50000.00000000165</v>
       </c>
     </row>
     <row r="435">
@@ -3909,7 +3909,7 @@
         <v>108.25</v>
       </c>
       <c r="B435" t="n">
-        <v>50000.00000000168</v>
+        <v>50000.00000000165</v>
       </c>
     </row>
     <row r="436">
@@ -3917,7 +3917,7 @@
         <v>108.5</v>
       </c>
       <c r="B436" t="n">
-        <v>50000.00000000168</v>
+        <v>50000.00000000172</v>
       </c>
     </row>
     <row r="437">
@@ -3925,7 +3925,7 @@
         <v>108.75</v>
       </c>
       <c r="B437" t="n">
-        <v>50000.0000000017</v>
+        <v>50000.00000000164</v>
       </c>
     </row>
     <row r="438">
@@ -3933,7 +3933,7 @@
         <v>109</v>
       </c>
       <c r="B438" t="n">
-        <v>50000.00000000168</v>
+        <v>50000.00000000162</v>
       </c>
     </row>
     <row r="439">
@@ -3941,7 +3941,7 @@
         <v>109.25</v>
       </c>
       <c r="B439" t="n">
-        <v>50000.00000000171</v>
+        <v>50000.00000000164</v>
       </c>
     </row>
     <row r="440">
@@ -3949,7 +3949,7 @@
         <v>109.5</v>
       </c>
       <c r="B440" t="n">
-        <v>50000.0000000017</v>
+        <v>50000.00000000172</v>
       </c>
     </row>
     <row r="441">
@@ -3957,7 +3957,7 @@
         <v>109.75</v>
       </c>
       <c r="B441" t="n">
-        <v>50000.00000000169</v>
+        <v>50000.00000000165</v>
       </c>
     </row>
     <row r="442">
@@ -3965,7 +3965,7 @@
         <v>110</v>
       </c>
       <c r="B442" t="n">
-        <v>50000.00000000169</v>
+        <v>50000.00000000167</v>
       </c>
     </row>
     <row r="443">
@@ -3973,7 +3973,7 @@
         <v>110.25</v>
       </c>
       <c r="B443" t="n">
-        <v>50000.0000000017</v>
+        <v>50000.00000000167</v>
       </c>
     </row>
     <row r="444">
@@ -3981,7 +3981,7 @@
         <v>110.5</v>
       </c>
       <c r="B444" t="n">
-        <v>50000.0000000017</v>
+        <v>50000.00000000171</v>
       </c>
     </row>
     <row r="445">
@@ -3989,7 +3989,7 @@
         <v>110.75</v>
       </c>
       <c r="B445" t="n">
-        <v>50000.00000000171</v>
+        <v>50000.00000000162</v>
       </c>
     </row>
     <row r="446">
@@ -3997,7 +3997,7 @@
         <v>111</v>
       </c>
       <c r="B446" t="n">
-        <v>50000.00000000169</v>
+        <v>50000.00000000165</v>
       </c>
     </row>
     <row r="447">
@@ -4005,7 +4005,7 @@
         <v>111.25</v>
       </c>
       <c r="B447" t="n">
-        <v>50000.0000000017</v>
+        <v>50000.00000000164</v>
       </c>
     </row>
     <row r="448">
@@ -4013,7 +4013,7 @@
         <v>111.5</v>
       </c>
       <c r="B448" t="n">
-        <v>50000.0000000017</v>
+        <v>50000.00000000167</v>
       </c>
     </row>
     <row r="449">
@@ -4021,7 +4021,7 @@
         <v>111.75</v>
       </c>
       <c r="B449" t="n">
-        <v>50000.00000000172</v>
+        <v>50000.00000000162</v>
       </c>
     </row>
     <row r="450">
@@ -4029,7 +4029,7 @@
         <v>112</v>
       </c>
       <c r="B450" t="n">
-        <v>50000.0000000017</v>
+        <v>50000.00000000162</v>
       </c>
     </row>
     <row r="451">
@@ -4037,7 +4037,7 @@
         <v>112.25</v>
       </c>
       <c r="B451" t="n">
-        <v>50000.00000000173</v>
+        <v>50000.00000000165</v>
       </c>
     </row>
     <row r="452">
@@ -4045,7 +4045,7 @@
         <v>112.5</v>
       </c>
       <c r="B452" t="n">
-        <v>50000.00000000169</v>
+        <v>50000.00000000172</v>
       </c>
     </row>
     <row r="453">
@@ -4053,7 +4053,7 @@
         <v>112.75</v>
       </c>
       <c r="B453" t="n">
-        <v>50000.00000000172</v>
+        <v>50000.00000000159</v>
       </c>
     </row>
     <row r="454">
@@ -4061,7 +4061,7 @@
         <v>113</v>
       </c>
       <c r="B454" t="n">
-        <v>50000.00000000171</v>
+        <v>50000.00000000162</v>
       </c>
     </row>
     <row r="455">
@@ -4069,7 +4069,7 @@
         <v>113.25</v>
       </c>
       <c r="B455" t="n">
-        <v>50000.00000000169</v>
+        <v>50000.00000000164</v>
       </c>
     </row>
     <row r="456">
@@ -4077,7 +4077,7 @@
         <v>113.5</v>
       </c>
       <c r="B456" t="n">
-        <v>50000.00000000169</v>
+        <v>50000.00000000164</v>
       </c>
     </row>
     <row r="457">
@@ -4093,7 +4093,7 @@
         <v>114</v>
       </c>
       <c r="B458" t="n">
-        <v>50000.0000000017</v>
+        <v>50000.00000000162</v>
       </c>
     </row>
     <row r="459">
@@ -4101,7 +4101,7 @@
         <v>114.25</v>
       </c>
       <c r="B459" t="n">
-        <v>50000.00000000171</v>
+        <v>50000.00000000169</v>
       </c>
     </row>
     <row r="460">
@@ -4109,7 +4109,7 @@
         <v>114.5</v>
       </c>
       <c r="B460" t="n">
-        <v>50000.00000000171</v>
+        <v>50000.00000000165</v>
       </c>
     </row>
     <row r="461">
@@ -4117,7 +4117,7 @@
         <v>114.75</v>
       </c>
       <c r="B461" t="n">
-        <v>50000.00000000173</v>
+        <v>50000.00000000164</v>
       </c>
     </row>
     <row r="462">
@@ -4125,7 +4125,7 @@
         <v>115</v>
       </c>
       <c r="B462" t="n">
-        <v>50000.00000000171</v>
+        <v>50000.00000000165</v>
       </c>
     </row>
     <row r="463">
@@ -4133,7 +4133,7 @@
         <v>115.25</v>
       </c>
       <c r="B463" t="n">
-        <v>50000.00000000169</v>
+        <v>50000.00000000162</v>
       </c>
     </row>
     <row r="464">
@@ -4141,7 +4141,7 @@
         <v>115.5</v>
       </c>
       <c r="B464" t="n">
-        <v>50000.0000000017</v>
+        <v>50000.00000000167</v>
       </c>
     </row>
     <row r="465">
@@ -4149,7 +4149,7 @@
         <v>115.75</v>
       </c>
       <c r="B465" t="n">
-        <v>50000.0000000017</v>
+        <v>50000.00000000159</v>
       </c>
     </row>
     <row r="466">
@@ -4157,7 +4157,7 @@
         <v>116</v>
       </c>
       <c r="B466" t="n">
-        <v>50000.0000000017</v>
+        <v>50000.00000000162</v>
       </c>
     </row>
     <row r="467">
@@ -4165,7 +4165,7 @@
         <v>116.25</v>
       </c>
       <c r="B467" t="n">
-        <v>50000.00000000168</v>
+        <v>50000.00000000162</v>
       </c>
     </row>
     <row r="468">
@@ -4173,7 +4173,7 @@
         <v>116.5</v>
       </c>
       <c r="B468" t="n">
-        <v>50000.00000000169</v>
+        <v>50000.00000000167</v>
       </c>
     </row>
     <row r="469">
@@ -4181,7 +4181,7 @@
         <v>116.75</v>
       </c>
       <c r="B469" t="n">
-        <v>50000.00000000168</v>
+        <v>50000.00000000165</v>
       </c>
     </row>
     <row r="470">
@@ -4189,7 +4189,7 @@
         <v>117</v>
       </c>
       <c r="B470" t="n">
-        <v>50000.00000000168</v>
+        <v>50000.00000000162</v>
       </c>
     </row>
     <row r="471">
@@ -4197,7 +4197,7 @@
         <v>117.25</v>
       </c>
       <c r="B471" t="n">
-        <v>50000.0000000017</v>
+        <v>50000.00000000164</v>
       </c>
     </row>
     <row r="472">
@@ -4205,7 +4205,7 @@
         <v>117.5</v>
       </c>
       <c r="B472" t="n">
-        <v>50000.00000000172</v>
+        <v>50000.00000000162</v>
       </c>
     </row>
     <row r="473">
@@ -4213,7 +4213,7 @@
         <v>117.75</v>
       </c>
       <c r="B473" t="n">
-        <v>50000.00000000169</v>
+        <v>50000.00000000167</v>
       </c>
     </row>
     <row r="474">
@@ -4221,7 +4221,7 @@
         <v>118</v>
       </c>
       <c r="B474" t="n">
-        <v>50000.00000000168</v>
+        <v>50000.0000000016</v>
       </c>
     </row>
     <row r="475">
@@ -4229,7 +4229,7 @@
         <v>118.25</v>
       </c>
       <c r="B475" t="n">
-        <v>50000.00000000169</v>
+        <v>50000.00000000164</v>
       </c>
     </row>
     <row r="476">
@@ -4245,7 +4245,7 @@
         <v>118.75</v>
       </c>
       <c r="B477" t="n">
-        <v>50000.00000000167</v>
+        <v>50000.00000000169</v>
       </c>
     </row>
     <row r="478">
@@ -4253,7 +4253,7 @@
         <v>119</v>
       </c>
       <c r="B478" t="n">
-        <v>50000.00000000166</v>
+        <v>50000.00000000165</v>
       </c>
     </row>
     <row r="479">
@@ -4261,7 +4261,7 @@
         <v>119.25</v>
       </c>
       <c r="B479" t="n">
-        <v>50000.00000000167</v>
+        <v>50000.00000000169</v>
       </c>
     </row>
     <row r="480">
@@ -4269,7 +4269,7 @@
         <v>119.5</v>
       </c>
       <c r="B480" t="n">
-        <v>50000.00000000166</v>
+        <v>50000.00000000169</v>
       </c>
     </row>
     <row r="481">
@@ -4277,7 +4277,7 @@
         <v>119.75</v>
       </c>
       <c r="B481" t="n">
-        <v>50000.00000000164</v>
+        <v>50000.00000000167</v>
       </c>
     </row>
     <row r="482">
@@ -4285,7 +4285,7 @@
         <v>120</v>
       </c>
       <c r="B482" t="n">
-        <v>50000.00000000166</v>
+        <v>50000.00000000165</v>
       </c>
     </row>
     <row r="483">
@@ -4301,7 +4301,7 @@
         <v>120.5</v>
       </c>
       <c r="B484" t="n">
-        <v>50000.00000000164</v>
+        <v>50000.00000000165</v>
       </c>
     </row>
     <row r="485">
@@ -4309,7 +4309,7 @@
         <v>120.75</v>
       </c>
       <c r="B485" t="n">
-        <v>50000.00000000166</v>
+        <v>50000.00000000165</v>
       </c>
     </row>
     <row r="486">
@@ -4317,7 +4317,7 @@
         <v>121</v>
       </c>
       <c r="B486" t="n">
-        <v>50000.00000000164</v>
+        <v>50000.00000000165</v>
       </c>
     </row>
     <row r="487">
@@ -4325,7 +4325,7 @@
         <v>121.25</v>
       </c>
       <c r="B487" t="n">
-        <v>50000.00000000166</v>
+        <v>50000.00000000167</v>
       </c>
     </row>
     <row r="488">
@@ -4341,7 +4341,7 @@
         <v>121.75</v>
       </c>
       <c r="B489" t="n">
-        <v>50000.00000000168</v>
+        <v>50000.00000000165</v>
       </c>
     </row>
     <row r="490">
@@ -4349,7 +4349,7 @@
         <v>122</v>
       </c>
       <c r="B490" t="n">
-        <v>50000.00000000167</v>
+        <v>50000.00000000165</v>
       </c>
     </row>
     <row r="491">
@@ -4357,7 +4357,7 @@
         <v>122.25</v>
       </c>
       <c r="B491" t="n">
-        <v>50000.00000000168</v>
+        <v>50000.00000000173</v>
       </c>
     </row>
     <row r="492">
@@ -4365,7 +4365,7 @@
         <v>122.5</v>
       </c>
       <c r="B492" t="n">
-        <v>50000.00000000168</v>
+        <v>50000.00000000164</v>
       </c>
     </row>
     <row r="493">
@@ -4373,7 +4373,7 @@
         <v>122.75</v>
       </c>
       <c r="B493" t="n">
-        <v>50000.00000000167</v>
+        <v>50000.00000000164</v>
       </c>
     </row>
     <row r="494">
@@ -4381,7 +4381,7 @@
         <v>123</v>
       </c>
       <c r="B494" t="n">
-        <v>50000.0000000017</v>
+        <v>50000.00000000172</v>
       </c>
     </row>
     <row r="495">
@@ -4389,7 +4389,7 @@
         <v>123.25</v>
       </c>
       <c r="B495" t="n">
-        <v>50000.00000000167</v>
+        <v>50000.00000000171</v>
       </c>
     </row>
     <row r="496">
@@ -4397,7 +4397,7 @@
         <v>123.5</v>
       </c>
       <c r="B496" t="n">
-        <v>50000.00000000169</v>
+        <v>50000.00000000165</v>
       </c>
     </row>
     <row r="497">
@@ -4405,7 +4405,7 @@
         <v>123.75</v>
       </c>
       <c r="B497" t="n">
-        <v>50000.0000000017</v>
+        <v>50000.00000000165</v>
       </c>
     </row>
     <row r="498">
@@ -4413,7 +4413,7 @@
         <v>124</v>
       </c>
       <c r="B498" t="n">
-        <v>50000.00000000168</v>
+        <v>50000.00000000171</v>
       </c>
     </row>
     <row r="499">
@@ -4421,7 +4421,7 @@
         <v>124.25</v>
       </c>
       <c r="B499" t="n">
-        <v>50000.00000000168</v>
+        <v>50000.00000000165</v>
       </c>
     </row>
     <row r="500">
@@ -4437,7 +4437,7 @@
         <v>124.75</v>
       </c>
       <c r="B501" t="n">
-        <v>50000.00000000168</v>
+        <v>50000.00000000164</v>
       </c>
     </row>
     <row r="502">
@@ -4445,7 +4445,7 @@
         <v>125</v>
       </c>
       <c r="B502" t="n">
-        <v>50000.00000000167</v>
+        <v>50000.00000000162</v>
       </c>
     </row>
     <row r="503">
@@ -4453,7 +4453,7 @@
         <v>125.25</v>
       </c>
       <c r="B503" t="n">
-        <v>50000.00000000167</v>
+        <v>50000.00000000165</v>
       </c>
     </row>
     <row r="504">
@@ -4461,7 +4461,7 @@
         <v>125.5</v>
       </c>
       <c r="B504" t="n">
-        <v>50000.00000000168</v>
+        <v>50000.00000000165</v>
       </c>
     </row>
     <row r="505">
@@ -4469,7 +4469,7 @@
         <v>125.75</v>
       </c>
       <c r="B505" t="n">
-        <v>50000.00000000167</v>
+        <v>50000.00000000164</v>
       </c>
     </row>
     <row r="506">
@@ -4477,7 +4477,7 @@
         <v>126</v>
       </c>
       <c r="B506" t="n">
-        <v>50000.00000000168</v>
+        <v>50000.00000000167</v>
       </c>
     </row>
     <row r="507">
@@ -4485,7 +4485,7 @@
         <v>126.25</v>
       </c>
       <c r="B507" t="n">
-        <v>50000.00000000169</v>
+        <v>50000.00000000167</v>
       </c>
     </row>
     <row r="508">
@@ -4493,7 +4493,7 @@
         <v>126.5</v>
       </c>
       <c r="B508" t="n">
-        <v>50000.00000000169</v>
+        <v>50000.00000000164</v>
       </c>
     </row>
     <row r="509">
@@ -4501,7 +4501,7 @@
         <v>126.75</v>
       </c>
       <c r="B509" t="n">
-        <v>50000.00000000169</v>
+        <v>50000.00000000176</v>
       </c>
     </row>
     <row r="510">
@@ -4509,7 +4509,7 @@
         <v>127</v>
       </c>
       <c r="B510" t="n">
-        <v>50000.0000000017</v>
+        <v>50000.00000000162</v>
       </c>
     </row>
     <row r="511">
@@ -4517,7 +4517,7 @@
         <v>127.25</v>
       </c>
       <c r="B511" t="n">
-        <v>50000.00000000168</v>
+        <v>50000.0000000017</v>
       </c>
     </row>
     <row r="512">
@@ -4533,7 +4533,7 @@
         <v>127.75</v>
       </c>
       <c r="B513" t="n">
-        <v>50000.00000000166</v>
+        <v>50000.00000000171</v>
       </c>
     </row>
     <row r="514">
@@ -4541,7 +4541,7 @@
         <v>128</v>
       </c>
       <c r="B514" t="n">
-        <v>50000.00000000168</v>
+        <v>50000.00000000164</v>
       </c>
     </row>
     <row r="515">
@@ -4549,7 +4549,7 @@
         <v>128.25</v>
       </c>
       <c r="B515" t="n">
-        <v>50000.00000000168</v>
+        <v>50000.00000000167</v>
       </c>
     </row>
     <row r="516">
@@ -4557,7 +4557,7 @@
         <v>128.5</v>
       </c>
       <c r="B516" t="n">
-        <v>50000.00000000168</v>
+        <v>50000.00000000164</v>
       </c>
     </row>
     <row r="517">
@@ -4565,7 +4565,7 @@
         <v>128.75</v>
       </c>
       <c r="B517" t="n">
-        <v>50000.00000000171</v>
+        <v>50000.00000000172</v>
       </c>
     </row>
     <row r="518">
@@ -4573,7 +4573,7 @@
         <v>129</v>
       </c>
       <c r="B518" t="n">
-        <v>50000.00000000173</v>
+        <v>50000.00000000172</v>
       </c>
     </row>
     <row r="519">
@@ -4581,7 +4581,7 @@
         <v>129.25</v>
       </c>
       <c r="B519" t="n">
-        <v>50000.00000000168</v>
+        <v>50000.0000000017</v>
       </c>
     </row>
     <row r="520">
@@ -4589,7 +4589,7 @@
         <v>129.5</v>
       </c>
       <c r="B520" t="n">
-        <v>50000.00000000171</v>
+        <v>50000.00000000169</v>
       </c>
     </row>
     <row r="521">
@@ -4597,7 +4597,7 @@
         <v>129.75</v>
       </c>
       <c r="B521" t="n">
-        <v>50000.0000000017</v>
+        <v>50000.00000000164</v>
       </c>
     </row>
     <row r="522">
@@ -4605,7 +4605,7 @@
         <v>130</v>
       </c>
       <c r="B522" t="n">
-        <v>50000.00000000168</v>
+        <v>50000.00000000167</v>
       </c>
     </row>
     <row r="523">
@@ -4613,7 +4613,7 @@
         <v>130.25</v>
       </c>
       <c r="B523" t="n">
-        <v>50000.00000000169</v>
+        <v>50000.0000000017</v>
       </c>
     </row>
     <row r="524">
@@ -4621,7 +4621,7 @@
         <v>130.5</v>
       </c>
       <c r="B524" t="n">
-        <v>50000.0000000017</v>
+        <v>50000.00000000167</v>
       </c>
     </row>
     <row r="525">
@@ -4629,7 +4629,7 @@
         <v>130.75</v>
       </c>
       <c r="B525" t="n">
-        <v>50000.0000000017</v>
+        <v>50000.00000000172</v>
       </c>
     </row>
     <row r="526">
@@ -4645,7 +4645,7 @@
         <v>131.25</v>
       </c>
       <c r="B527" t="n">
-        <v>50000.00000000169</v>
+        <v>50000.00000000165</v>
       </c>
     </row>
     <row r="528">
@@ -4653,7 +4653,7 @@
         <v>131.5</v>
       </c>
       <c r="B528" t="n">
-        <v>50000.0000000017</v>
+        <v>50000.00000000169</v>
       </c>
     </row>
     <row r="529">
@@ -4661,7 +4661,7 @@
         <v>131.75</v>
       </c>
       <c r="B529" t="n">
-        <v>50000.00000000168</v>
+        <v>50000.00000000173</v>
       </c>
     </row>
     <row r="530">
@@ -4669,7 +4669,7 @@
         <v>132</v>
       </c>
       <c r="B530" t="n">
-        <v>50000.00000000169</v>
+        <v>50000.00000000167</v>
       </c>
     </row>
     <row r="531">
@@ -4677,7 +4677,7 @@
         <v>132.25</v>
       </c>
       <c r="B531" t="n">
-        <v>50000.00000000168</v>
+        <v>50000.00000000165</v>
       </c>
     </row>
     <row r="532">
@@ -4685,7 +4685,7 @@
         <v>132.5</v>
       </c>
       <c r="B532" t="n">
-        <v>50000.00000000164</v>
+        <v>50000.0000000016</v>
       </c>
     </row>
     <row r="533">
@@ -4693,7 +4693,7 @@
         <v>132.75</v>
       </c>
       <c r="B533" t="n">
-        <v>50000.00000000168</v>
+        <v>50000.00000000165</v>
       </c>
     </row>
     <row r="534">
@@ -4701,7 +4701,7 @@
         <v>133</v>
       </c>
       <c r="B534" t="n">
-        <v>50000.00000000167</v>
+        <v>50000.00000000164</v>
       </c>
     </row>
     <row r="535">
@@ -4709,7 +4709,7 @@
         <v>133.25</v>
       </c>
       <c r="B535" t="n">
-        <v>50000.0000000017</v>
+        <v>50000.00000000167</v>
       </c>
     </row>
     <row r="536">
@@ -4717,7 +4717,7 @@
         <v>133.5</v>
       </c>
       <c r="B536" t="n">
-        <v>50000.00000000169</v>
+        <v>50000.00000000164</v>
       </c>
     </row>
     <row r="537">
@@ -4725,7 +4725,7 @@
         <v>133.75</v>
       </c>
       <c r="B537" t="n">
-        <v>50000.00000000169</v>
+        <v>50000.00000000167</v>
       </c>
     </row>
     <row r="538">
@@ -4733,7 +4733,7 @@
         <v>134</v>
       </c>
       <c r="B538" t="n">
-        <v>50000.0000000017</v>
+        <v>50000.00000000167</v>
       </c>
     </row>
     <row r="539">
@@ -4741,7 +4741,7 @@
         <v>134.25</v>
       </c>
       <c r="B539" t="n">
-        <v>50000.00000000167</v>
+        <v>50000.00000000171</v>
       </c>
     </row>
     <row r="540">
@@ -4749,7 +4749,7 @@
         <v>134.5</v>
       </c>
       <c r="B540" t="n">
-        <v>50000.00000000168</v>
+        <v>50000.00000000171</v>
       </c>
     </row>
     <row r="541">
@@ -4757,7 +4757,7 @@
         <v>134.75</v>
       </c>
       <c r="B541" t="n">
-        <v>50000.00000000167</v>
+        <v>50000.00000000173</v>
       </c>
     </row>
     <row r="542">
@@ -4781,7 +4781,7 @@
         <v>135.5</v>
       </c>
       <c r="B544" t="n">
-        <v>50000.00000000167</v>
+        <v>50000.0000000017</v>
       </c>
     </row>
     <row r="545">
@@ -4789,7 +4789,7 @@
         <v>135.75</v>
       </c>
       <c r="B545" t="n">
-        <v>50000.00000000168</v>
+        <v>50000.00000000171</v>
       </c>
     </row>
     <row r="546">
@@ -4797,7 +4797,7 @@
         <v>136</v>
       </c>
       <c r="B546" t="n">
-        <v>50000.00000000168</v>
+        <v>50000.00000000169</v>
       </c>
     </row>
     <row r="547">
@@ -4805,7 +4805,7 @@
         <v>136.25</v>
       </c>
       <c r="B547" t="n">
-        <v>50000.00000000166</v>
+        <v>50000.00000000172</v>
       </c>
     </row>
     <row r="548">
@@ -4813,7 +4813,7 @@
         <v>136.5</v>
       </c>
       <c r="B548" t="n">
-        <v>50000.00000000168</v>
+        <v>50000.00000000164</v>
       </c>
     </row>
     <row r="549">
@@ -4821,7 +4821,7 @@
         <v>136.75</v>
       </c>
       <c r="B549" t="n">
-        <v>50000.00000000167</v>
+        <v>50000.00000000164</v>
       </c>
     </row>
     <row r="550">
@@ -4829,7 +4829,7 @@
         <v>137</v>
       </c>
       <c r="B550" t="n">
-        <v>50000.00000000167</v>
+        <v>50000.00000000171</v>
       </c>
     </row>
     <row r="551">
@@ -4837,7 +4837,7 @@
         <v>137.25</v>
       </c>
       <c r="B551" t="n">
-        <v>50000.00000000167</v>
+        <v>50000.00000000171</v>
       </c>
     </row>
     <row r="552">
@@ -4853,7 +4853,7 @@
         <v>137.75</v>
       </c>
       <c r="B553" t="n">
-        <v>50000.00000000168</v>
+        <v>50000.00000000164</v>
       </c>
     </row>
     <row r="554">
@@ -4861,7 +4861,7 @@
         <v>138</v>
       </c>
       <c r="B554" t="n">
-        <v>50000.00000000168</v>
+        <v>50000.00000000165</v>
       </c>
     </row>
     <row r="555">
@@ -4869,7 +4869,7 @@
         <v>138.25</v>
       </c>
       <c r="B555" t="n">
-        <v>50000.00000000168</v>
+        <v>50000.0000000016</v>
       </c>
     </row>
     <row r="556">
@@ -4877,7 +4877,7 @@
         <v>138.5</v>
       </c>
       <c r="B556" t="n">
-        <v>50000.00000000168</v>
+        <v>50000.0000000016</v>
       </c>
     </row>
     <row r="557">
@@ -4885,7 +4885,7 @@
         <v>138.75</v>
       </c>
       <c r="B557" t="n">
-        <v>50000.00000000169</v>
+        <v>50000.00000000162</v>
       </c>
     </row>
     <row r="558">
@@ -4893,7 +4893,7 @@
         <v>139</v>
       </c>
       <c r="B558" t="n">
-        <v>50000.00000000168</v>
+        <v>50000.00000000162</v>
       </c>
     </row>
     <row r="559">
@@ -4901,7 +4901,7 @@
         <v>139.25</v>
       </c>
       <c r="B559" t="n">
-        <v>50000.00000000168</v>
+        <v>50000.00000000164</v>
       </c>
     </row>
     <row r="560">
@@ -4909,7 +4909,7 @@
         <v>139.5</v>
       </c>
       <c r="B560" t="n">
-        <v>50000.00000000168</v>
+        <v>50000.00000000167</v>
       </c>
     </row>
     <row r="561">
@@ -4917,7 +4917,7 @@
         <v>139.75</v>
       </c>
       <c r="B561" t="n">
-        <v>50000.00000000167</v>
+        <v>50000.00000000164</v>
       </c>
     </row>
     <row r="562">
@@ -4925,7 +4925,7 @@
         <v>140</v>
       </c>
       <c r="B562" t="n">
-        <v>50000.00000000164</v>
+        <v>50000.00000000162</v>
       </c>
     </row>
     <row r="563">
@@ -4933,7 +4933,7 @@
         <v>140.25</v>
       </c>
       <c r="B563" t="n">
-        <v>50000.00000000166</v>
+        <v>50000.00000000162</v>
       </c>
     </row>
     <row r="564">
@@ -4941,7 +4941,7 @@
         <v>140.5</v>
       </c>
       <c r="B564" t="n">
-        <v>50000.00000000168</v>
+        <v>50000.00000000164</v>
       </c>
     </row>
     <row r="565">
@@ -4949,7 +4949,7 @@
         <v>140.75</v>
       </c>
       <c r="B565" t="n">
-        <v>50000.00000000164</v>
+        <v>50000.00000000167</v>
       </c>
     </row>
     <row r="566">
@@ -4957,7 +4957,7 @@
         <v>141</v>
       </c>
       <c r="B566" t="n">
-        <v>50000.00000000168</v>
+        <v>50000.00000000169</v>
       </c>
     </row>
     <row r="567">
@@ -4965,7 +4965,7 @@
         <v>141.25</v>
       </c>
       <c r="B567" t="n">
-        <v>50000.00000000169</v>
+        <v>50000.00000000164</v>
       </c>
     </row>
     <row r="568">
@@ -4973,7 +4973,7 @@
         <v>141.5</v>
       </c>
       <c r="B568" t="n">
-        <v>50000.00000000171</v>
+        <v>50000.00000000164</v>
       </c>
     </row>
     <row r="569">
@@ -4981,7 +4981,7 @@
         <v>141.75</v>
       </c>
       <c r="B569" t="n">
-        <v>50000.00000000168</v>
+        <v>50000.00000000162</v>
       </c>
     </row>
     <row r="570">
@@ -4989,7 +4989,7 @@
         <v>142</v>
       </c>
       <c r="B570" t="n">
-        <v>50000.0000000017</v>
+        <v>50000.00000000167</v>
       </c>
     </row>
     <row r="571">
@@ -4997,7 +4997,7 @@
         <v>142.25</v>
       </c>
       <c r="B571" t="n">
-        <v>50000.00000000169</v>
+        <v>50000.00000000167</v>
       </c>
     </row>
     <row r="572">
@@ -5005,7 +5005,7 @@
         <v>142.5</v>
       </c>
       <c r="B572" t="n">
-        <v>50000.00000000169</v>
+        <v>50000.00000000164</v>
       </c>
     </row>
     <row r="573">
@@ -5013,7 +5013,7 @@
         <v>142.75</v>
       </c>
       <c r="B573" t="n">
-        <v>50000.00000000168</v>
+        <v>50000.00000000171</v>
       </c>
     </row>
     <row r="574">
@@ -5021,7 +5021,7 @@
         <v>143</v>
       </c>
       <c r="B574" t="n">
-        <v>50000.0000000017</v>
+        <v>50000.00000000164</v>
       </c>
     </row>
     <row r="575">
@@ -5029,7 +5029,7 @@
         <v>143.25</v>
       </c>
       <c r="B575" t="n">
-        <v>50000.00000000169</v>
+        <v>50000.00000000167</v>
       </c>
     </row>
     <row r="576">
@@ -5037,7 +5037,7 @@
         <v>143.5</v>
       </c>
       <c r="B576" t="n">
-        <v>50000.00000000169</v>
+        <v>50000.00000000165</v>
       </c>
     </row>
     <row r="577">
@@ -5053,7 +5053,7 @@
         <v>144</v>
       </c>
       <c r="B578" t="n">
-        <v>50000.00000000167</v>
+        <v>50000.00000000164</v>
       </c>
     </row>
     <row r="579">
@@ -5061,7 +5061,7 @@
         <v>144.25</v>
       </c>
       <c r="B579" t="n">
-        <v>50000.00000000167</v>
+        <v>50000.00000000162</v>
       </c>
     </row>
     <row r="580">
@@ -5069,7 +5069,7 @@
         <v>144.5</v>
       </c>
       <c r="B580" t="n">
-        <v>50000.00000000168</v>
+        <v>50000.00000000167</v>
       </c>
     </row>
     <row r="581">
@@ -5077,7 +5077,7 @@
         <v>144.75</v>
       </c>
       <c r="B581" t="n">
-        <v>50000.00000000166</v>
+        <v>50000.00000000167</v>
       </c>
     </row>
     <row r="582">
@@ -5085,7 +5085,7 @@
         <v>145</v>
       </c>
       <c r="B582" t="n">
-        <v>50000.00000000167</v>
+        <v>50000.0000000017</v>
       </c>
     </row>
     <row r="583">
@@ -5093,7 +5093,7 @@
         <v>145.25</v>
       </c>
       <c r="B583" t="n">
-        <v>50000.00000000168</v>
+        <v>50000.0000000017</v>
       </c>
     </row>
     <row r="584">
@@ -5101,7 +5101,7 @@
         <v>145.5</v>
       </c>
       <c r="B584" t="n">
-        <v>50000.00000000169</v>
+        <v>50000.00000000171</v>
       </c>
     </row>
     <row r="585">
@@ -5109,7 +5109,7 @@
         <v>145.75</v>
       </c>
       <c r="B585" t="n">
-        <v>50000.0000000017</v>
+        <v>50000.00000000162</v>
       </c>
     </row>
     <row r="586">
@@ -5117,7 +5117,7 @@
         <v>146</v>
       </c>
       <c r="B586" t="n">
-        <v>50000.00000000168</v>
+        <v>50000.0000000017</v>
       </c>
     </row>
     <row r="587">
@@ -5125,7 +5125,7 @@
         <v>146.25</v>
       </c>
       <c r="B587" t="n">
-        <v>50000.0000000017</v>
+        <v>50000.00000000164</v>
       </c>
     </row>
     <row r="588">
@@ -5133,7 +5133,7 @@
         <v>146.5</v>
       </c>
       <c r="B588" t="n">
-        <v>50000.00000000168</v>
+        <v>50000.00000000172</v>
       </c>
     </row>
     <row r="589">
@@ -5141,7 +5141,7 @@
         <v>146.75</v>
       </c>
       <c r="B589" t="n">
-        <v>50000.00000000168</v>
+        <v>50000.00000000164</v>
       </c>
     </row>
     <row r="590">
@@ -5149,7 +5149,7 @@
         <v>147</v>
       </c>
       <c r="B590" t="n">
-        <v>50000.00000000171</v>
+        <v>50000.00000000169</v>
       </c>
     </row>
     <row r="591">
@@ -5157,7 +5157,7 @@
         <v>147.25</v>
       </c>
       <c r="B591" t="n">
-        <v>50000.00000000169</v>
+        <v>50000.00000000164</v>
       </c>
     </row>
     <row r="592">
@@ -5165,7 +5165,7 @@
         <v>147.5</v>
       </c>
       <c r="B592" t="n">
-        <v>50000.00000000169</v>
+        <v>50000.00000000167</v>
       </c>
     </row>
     <row r="593">
@@ -5173,7 +5173,7 @@
         <v>147.75</v>
       </c>
       <c r="B593" t="n">
-        <v>50000.00000000171</v>
+        <v>50000.00000000169</v>
       </c>
     </row>
     <row r="594">
@@ -5181,7 +5181,7 @@
         <v>148</v>
       </c>
       <c r="B594" t="n">
-        <v>50000.00000000169</v>
+        <v>50000.00000000165</v>
       </c>
     </row>
     <row r="595">
@@ -5189,7 +5189,7 @@
         <v>148.25</v>
       </c>
       <c r="B595" t="n">
-        <v>50000.00000000169</v>
+        <v>50000.00000000165</v>
       </c>
     </row>
     <row r="596">
@@ -5197,7 +5197,7 @@
         <v>148.5</v>
       </c>
       <c r="B596" t="n">
-        <v>50000.00000000171</v>
+        <v>50000.00000000172</v>
       </c>
     </row>
     <row r="597">
@@ -5205,7 +5205,7 @@
         <v>148.75</v>
       </c>
       <c r="B597" t="n">
-        <v>50000.00000000172</v>
+        <v>50000.00000000165</v>
       </c>
     </row>
     <row r="598">
@@ -5213,7 +5213,7 @@
         <v>149</v>
       </c>
       <c r="B598" t="n">
-        <v>50000.0000000017</v>
+        <v>50000.00000000167</v>
       </c>
     </row>
     <row r="599">
@@ -5221,7 +5221,7 @@
         <v>149.25</v>
       </c>
       <c r="B599" t="n">
-        <v>50000.00000000169</v>
+        <v>50000.0000000017</v>
       </c>
     </row>
     <row r="600">
@@ -5229,7 +5229,7 @@
         <v>149.5</v>
       </c>
       <c r="B600" t="n">
-        <v>50000.00000000171</v>
+        <v>50000.00000000164</v>
       </c>
     </row>
     <row r="601">
@@ -5237,7 +5237,7 @@
         <v>149.75</v>
       </c>
       <c r="B601" t="n">
-        <v>50000.0000000017</v>
+        <v>50000.00000000164</v>
       </c>
     </row>
     <row r="602">
@@ -5245,7 +5245,7 @@
         <v>150</v>
       </c>
       <c r="B602" t="n">
-        <v>50000.00000000166</v>
+        <v>50000.00000000171</v>
       </c>
     </row>
     <row r="603">
@@ -5253,7 +5253,7 @@
         <v>150.25</v>
       </c>
       <c r="B603" t="n">
-        <v>50000.00000000167</v>
+        <v>50000.00000000172</v>
       </c>
     </row>
     <row r="604">
@@ -5261,7 +5261,7 @@
         <v>150.5</v>
       </c>
       <c r="B604" t="n">
-        <v>50000.00000000168</v>
+        <v>50000.0000000017</v>
       </c>
     </row>
     <row r="605">
@@ -5269,7 +5269,7 @@
         <v>150.75</v>
       </c>
       <c r="B605" t="n">
-        <v>50000.0000000017</v>
+        <v>50000.00000000167</v>
       </c>
     </row>
     <row r="606">
@@ -5277,7 +5277,7 @@
         <v>151</v>
       </c>
       <c r="B606" t="n">
-        <v>50000.0000000017</v>
+        <v>50000.00000000167</v>
       </c>
     </row>
     <row r="607">
@@ -5285,7 +5285,7 @@
         <v>151.25</v>
       </c>
       <c r="B607" t="n">
-        <v>50000.00000000169</v>
+        <v>50000.00000000164</v>
       </c>
     </row>
     <row r="608">
@@ -5293,7 +5293,7 @@
         <v>151.5</v>
       </c>
       <c r="B608" t="n">
-        <v>50000.00000000167</v>
+        <v>50000.00000000169</v>
       </c>
     </row>
     <row r="609">
@@ -5301,7 +5301,7 @@
         <v>151.75</v>
       </c>
       <c r="B609" t="n">
-        <v>50000.00000000167</v>
+        <v>50000.00000000165</v>
       </c>
     </row>
     <row r="610">
@@ -5309,7 +5309,7 @@
         <v>152</v>
       </c>
       <c r="B610" t="n">
-        <v>50000.00000000166</v>
+        <v>50000.00000000172</v>
       </c>
     </row>
     <row r="611">
@@ -5317,7 +5317,7 @@
         <v>152.25</v>
       </c>
       <c r="B611" t="n">
-        <v>50000.00000000167</v>
+        <v>50000.00000000169</v>
       </c>
     </row>
     <row r="612">
@@ -5333,7 +5333,7 @@
         <v>152.75</v>
       </c>
       <c r="B613" t="n">
-        <v>50000.00000000169</v>
+        <v>50000.00000000167</v>
       </c>
     </row>
     <row r="614">
@@ -5349,7 +5349,7 @@
         <v>153.25</v>
       </c>
       <c r="B615" t="n">
-        <v>50000.00000000169</v>
+        <v>50000.00000000167</v>
       </c>
     </row>
     <row r="616">
@@ -5357,7 +5357,7 @@
         <v>153.5</v>
       </c>
       <c r="B616" t="n">
-        <v>50000.00000000169</v>
+        <v>50000.00000000171</v>
       </c>
     </row>
     <row r="617">
@@ -5365,7 +5365,7 @@
         <v>153.75</v>
       </c>
       <c r="B617" t="n">
-        <v>50000.0000000017</v>
+        <v>50000.00000000165</v>
       </c>
     </row>
     <row r="618">
@@ -5373,7 +5373,7 @@
         <v>154</v>
       </c>
       <c r="B618" t="n">
-        <v>50000.00000000169</v>
+        <v>50000.0000000017</v>
       </c>
     </row>
     <row r="619">
@@ -5381,7 +5381,7 @@
         <v>154.25</v>
       </c>
       <c r="B619" t="n">
-        <v>50000.00000000169</v>
+        <v>50000.00000000173</v>
       </c>
     </row>
     <row r="620">
@@ -5397,7 +5397,7 @@
         <v>154.75</v>
       </c>
       <c r="B621" t="n">
-        <v>50000.00000000168</v>
+        <v>50000.00000000169</v>
       </c>
     </row>
     <row r="622">
@@ -5413,7 +5413,7 @@
         <v>155.25</v>
       </c>
       <c r="B623" t="n">
-        <v>50000.00000000169</v>
+        <v>50000.00000000171</v>
       </c>
     </row>
     <row r="624">
@@ -5421,7 +5421,7 @@
         <v>155.5</v>
       </c>
       <c r="B624" t="n">
-        <v>50000.0000000017</v>
+        <v>50000.00000000173</v>
       </c>
     </row>
     <row r="625">
@@ -5429,7 +5429,7 @@
         <v>155.75</v>
       </c>
       <c r="B625" t="n">
-        <v>50000.0000000017</v>
+        <v>50000.00000000173</v>
       </c>
     </row>
     <row r="626">
@@ -5445,7 +5445,7 @@
         <v>156.25</v>
       </c>
       <c r="B627" t="n">
-        <v>50000.00000000172</v>
+        <v>50000.0000000017</v>
       </c>
     </row>
     <row r="628">
@@ -5453,7 +5453,7 @@
         <v>156.5</v>
       </c>
       <c r="B628" t="n">
-        <v>50000.00000000169</v>
+        <v>50000.0000000016</v>
       </c>
     </row>
     <row r="629">
@@ -5461,7 +5461,7 @@
         <v>156.75</v>
       </c>
       <c r="B629" t="n">
-        <v>50000.00000000171</v>
+        <v>50000.00000000165</v>
       </c>
     </row>
     <row r="630">
@@ -5469,7 +5469,7 @@
         <v>157</v>
       </c>
       <c r="B630" t="n">
-        <v>50000.0000000017</v>
+        <v>50000.00000000169</v>
       </c>
     </row>
     <row r="631">
@@ -5477,7 +5477,7 @@
         <v>157.25</v>
       </c>
       <c r="B631" t="n">
-        <v>50000.00000000171</v>
+        <v>50000.00000000169</v>
       </c>
     </row>
     <row r="632">
@@ -5485,7 +5485,7 @@
         <v>157.5</v>
       </c>
       <c r="B632" t="n">
-        <v>50000.0000000017</v>
+        <v>50000.00000000164</v>
       </c>
     </row>
     <row r="633">
@@ -5493,7 +5493,7 @@
         <v>157.75</v>
       </c>
       <c r="B633" t="n">
-        <v>50000.00000000169</v>
+        <v>50000.00000000162</v>
       </c>
     </row>
     <row r="634">
@@ -5501,7 +5501,7 @@
         <v>158</v>
       </c>
       <c r="B634" t="n">
-        <v>50000.0000000017</v>
+        <v>50000.00000000174</v>
       </c>
     </row>
     <row r="635">
@@ -5509,7 +5509,7 @@
         <v>158.25</v>
       </c>
       <c r="B635" t="n">
-        <v>50000.00000000172</v>
+        <v>50000.00000000173</v>
       </c>
     </row>
     <row r="636">
@@ -5517,7 +5517,7 @@
         <v>158.5</v>
       </c>
       <c r="B636" t="n">
-        <v>50000.0000000017</v>
+        <v>50000.00000000172</v>
       </c>
     </row>
     <row r="637">
@@ -5525,7 +5525,7 @@
         <v>158.75</v>
       </c>
       <c r="B637" t="n">
-        <v>50000.0000000017</v>
+        <v>50000.00000000169</v>
       </c>
     </row>
     <row r="638">
@@ -5533,7 +5533,7 @@
         <v>159</v>
       </c>
       <c r="B638" t="n">
-        <v>50000.00000000171</v>
+        <v>50000.00000000175</v>
       </c>
     </row>
     <row r="639">
@@ -5541,7 +5541,7 @@
         <v>159.25</v>
       </c>
       <c r="B639" t="n">
-        <v>50000.00000000171</v>
+        <v>50000.0000000017</v>
       </c>
     </row>
     <row r="640">
@@ -5549,7 +5549,7 @@
         <v>159.5</v>
       </c>
       <c r="B640" t="n">
-        <v>50000.00000000173</v>
+        <v>50000.00000000165</v>
       </c>
     </row>
     <row r="641">
@@ -5557,7 +5557,7 @@
         <v>159.75</v>
       </c>
       <c r="B641" t="n">
-        <v>50000.00000000169</v>
+        <v>50000.00000000173</v>
       </c>
     </row>
     <row r="642">
@@ -5565,7 +5565,7 @@
         <v>160</v>
       </c>
       <c r="B642" t="n">
-        <v>50000.00000000169</v>
+        <v>50000.0000000017</v>
       </c>
     </row>
     <row r="643">
@@ -5573,7 +5573,7 @@
         <v>160.25</v>
       </c>
       <c r="B643" t="n">
-        <v>50000.0000000017</v>
+        <v>50000.00000000164</v>
       </c>
     </row>
     <row r="644">
@@ -5581,7 +5581,7 @@
         <v>160.5</v>
       </c>
       <c r="B644" t="n">
-        <v>50000.0000000017</v>
+        <v>50000.00000000167</v>
       </c>
     </row>
     <row r="645">
@@ -5589,7 +5589,7 @@
         <v>160.75</v>
       </c>
       <c r="B645" t="n">
-        <v>50000.00000000167</v>
+        <v>50000.00000000165</v>
       </c>
     </row>
     <row r="646">
@@ -5597,7 +5597,7 @@
         <v>161</v>
       </c>
       <c r="B646" t="n">
-        <v>50000.00000000167</v>
+        <v>50000.00000000171</v>
       </c>
     </row>
     <row r="647">
@@ -5605,7 +5605,7 @@
         <v>161.25</v>
       </c>
       <c r="B647" t="n">
-        <v>50000.00000000168</v>
+        <v>50000.00000000167</v>
       </c>
     </row>
     <row r="648">
@@ -5613,7 +5613,7 @@
         <v>161.5</v>
       </c>
       <c r="B648" t="n">
-        <v>50000.00000000168</v>
+        <v>50000.00000000165</v>
       </c>
     </row>
     <row r="649">
@@ -5621,7 +5621,7 @@
         <v>161.75</v>
       </c>
       <c r="B649" t="n">
-        <v>50000.00000000168</v>
+        <v>50000.0000000017</v>
       </c>
     </row>
     <row r="650">
@@ -5629,7 +5629,7 @@
         <v>162</v>
       </c>
       <c r="B650" t="n">
-        <v>50000.0000000017</v>
+        <v>50000.00000000169</v>
       </c>
     </row>
     <row r="651">
@@ -5637,7 +5637,7 @@
         <v>162.25</v>
       </c>
       <c r="B651" t="n">
-        <v>50000.00000000169</v>
+        <v>50000.00000000172</v>
       </c>
     </row>
     <row r="652">
@@ -5645,7 +5645,7 @@
         <v>162.5</v>
       </c>
       <c r="B652" t="n">
-        <v>50000.00000000169</v>
+        <v>50000.00000000172</v>
       </c>
     </row>
     <row r="653">
@@ -5653,7 +5653,7 @@
         <v>162.75</v>
       </c>
       <c r="B653" t="n">
-        <v>50000.00000000169</v>
+        <v>50000.00000000171</v>
       </c>
     </row>
     <row r="654">
@@ -5661,7 +5661,7 @@
         <v>163</v>
       </c>
       <c r="B654" t="n">
-        <v>50000.00000000168</v>
+        <v>50000.00000000167</v>
       </c>
     </row>
     <row r="655">
@@ -5685,7 +5685,7 @@
         <v>163.75</v>
       </c>
       <c r="B657" t="n">
-        <v>50000.0000000017</v>
+        <v>50000.00000000171</v>
       </c>
     </row>
     <row r="658">
@@ -5693,7 +5693,7 @@
         <v>164</v>
       </c>
       <c r="B658" t="n">
-        <v>50000.00000000168</v>
+        <v>50000.00000000172</v>
       </c>
     </row>
     <row r="659">
@@ -5701,7 +5701,7 @@
         <v>164.25</v>
       </c>
       <c r="B659" t="n">
-        <v>50000.00000000171</v>
+        <v>50000.00000000173</v>
       </c>
     </row>
     <row r="660">
@@ -5709,7 +5709,7 @@
         <v>164.5</v>
       </c>
       <c r="B660" t="n">
-        <v>50000.00000000169</v>
+        <v>50000.00000000167</v>
       </c>
     </row>
     <row r="661">
@@ -5717,7 +5717,7 @@
         <v>164.75</v>
       </c>
       <c r="B661" t="n">
-        <v>50000.00000000169</v>
+        <v>50000.00000000171</v>
       </c>
     </row>
     <row r="662">
@@ -5725,7 +5725,7 @@
         <v>165</v>
       </c>
       <c r="B662" t="n">
-        <v>50000.0000000017</v>
+        <v>50000.00000000165</v>
       </c>
     </row>
     <row r="663">
@@ -5733,7 +5733,7 @@
         <v>165.25</v>
       </c>
       <c r="B663" t="n">
-        <v>50000.00000000168</v>
+        <v>50000.00000000165</v>
       </c>
     </row>
     <row r="664">
@@ -5741,7 +5741,7 @@
         <v>165.5</v>
       </c>
       <c r="B664" t="n">
-        <v>50000.00000000169</v>
+        <v>50000.0000000017</v>
       </c>
     </row>
     <row r="665">
@@ -5749,7 +5749,7 @@
         <v>165.75</v>
       </c>
       <c r="B665" t="n">
-        <v>50000.00000000168</v>
+        <v>50000.00000000169</v>
       </c>
     </row>
     <row r="666">
@@ -5757,7 +5757,7 @@
         <v>166</v>
       </c>
       <c r="B666" t="n">
-        <v>50000.00000000168</v>
+        <v>50000.00000000167</v>
       </c>
     </row>
     <row r="667">
@@ -5765,7 +5765,7 @@
         <v>166.25</v>
       </c>
       <c r="B667" t="n">
-        <v>50000.00000000168</v>
+        <v>50000.0000000017</v>
       </c>
     </row>
     <row r="668">
@@ -5773,7 +5773,7 @@
         <v>166.5</v>
       </c>
       <c r="B668" t="n">
-        <v>50000.00000000169</v>
+        <v>50000.0000000017</v>
       </c>
     </row>
     <row r="669">
@@ -5781,7 +5781,7 @@
         <v>166.75</v>
       </c>
       <c r="B669" t="n">
-        <v>50000.0000000017</v>
+        <v>50000.00000000167</v>
       </c>
     </row>
     <row r="670">
@@ -5789,7 +5789,7 @@
         <v>167</v>
       </c>
       <c r="B670" t="n">
-        <v>50000.00000000169</v>
+        <v>50000.00000000167</v>
       </c>
     </row>
     <row r="671">
@@ -5797,7 +5797,7 @@
         <v>167.25</v>
       </c>
       <c r="B671" t="n">
-        <v>50000.00000000167</v>
+        <v>50000.0000000017</v>
       </c>
     </row>
     <row r="672">
@@ -5805,7 +5805,7 @@
         <v>167.5</v>
       </c>
       <c r="B672" t="n">
-        <v>50000.00000000167</v>
+        <v>50000.00000000173</v>
       </c>
     </row>
     <row r="673">
@@ -5813,7 +5813,7 @@
         <v>167.75</v>
       </c>
       <c r="B673" t="n">
-        <v>50000.00000000168</v>
+        <v>50000.00000000171</v>
       </c>
     </row>
     <row r="674">
@@ -5821,7 +5821,7 @@
         <v>168</v>
       </c>
       <c r="B674" t="n">
-        <v>50000.00000000166</v>
+        <v>50000.00000000172</v>
       </c>
     </row>
     <row r="675">
@@ -5829,7 +5829,7 @@
         <v>168.25</v>
       </c>
       <c r="B675" t="n">
-        <v>50000.00000000168</v>
+        <v>50000.00000000169</v>
       </c>
     </row>
     <row r="676">
@@ -5837,7 +5837,7 @@
         <v>168.5</v>
       </c>
       <c r="B676" t="n">
-        <v>50000.00000000169</v>
+        <v>50000.00000000172</v>
       </c>
     </row>
     <row r="677">
@@ -5845,7 +5845,7 @@
         <v>168.75</v>
       </c>
       <c r="B677" t="n">
-        <v>50000.00000000166</v>
+        <v>50000.00000000169</v>
       </c>
     </row>
     <row r="678">
@@ -5853,7 +5853,7 @@
         <v>169</v>
       </c>
       <c r="B678" t="n">
-        <v>50000.00000000168</v>
+        <v>50000.00000000164</v>
       </c>
     </row>
     <row r="679">
@@ -5869,7 +5869,7 @@
         <v>169.5</v>
       </c>
       <c r="B680" t="n">
-        <v>50000.00000000167</v>
+        <v>50000.00000000173</v>
       </c>
     </row>
     <row r="681">
@@ -5877,7 +5877,7 @@
         <v>169.75</v>
       </c>
       <c r="B681" t="n">
-        <v>50000.00000000169</v>
+        <v>50000.00000000173</v>
       </c>
     </row>
     <row r="682">
@@ -5885,7 +5885,7 @@
         <v>170</v>
       </c>
       <c r="B682" t="n">
-        <v>50000.00000000167</v>
+        <v>50000.00000000172</v>
       </c>
     </row>
     <row r="683">
@@ -5893,7 +5893,7 @@
         <v>170.25</v>
       </c>
       <c r="B683" t="n">
-        <v>50000.00000000169</v>
+        <v>50000.00000000176</v>
       </c>
     </row>
     <row r="684">
@@ -5901,7 +5901,7 @@
         <v>170.5</v>
       </c>
       <c r="B684" t="n">
-        <v>50000.00000000168</v>
+        <v>50000.00000000174</v>
       </c>
     </row>
     <row r="685">
@@ -5909,7 +5909,7 @@
         <v>170.75</v>
       </c>
       <c r="B685" t="n">
-        <v>50000.00000000166</v>
+        <v>50000.00000000173</v>
       </c>
     </row>
     <row r="686">
@@ -5917,7 +5917,7 @@
         <v>171</v>
       </c>
       <c r="B686" t="n">
-        <v>50000.00000000167</v>
+        <v>50000.0000000017</v>
       </c>
     </row>
     <row r="687">
@@ -5925,7 +5925,7 @@
         <v>171.25</v>
       </c>
       <c r="B687" t="n">
-        <v>50000.00000000166</v>
+        <v>50000.00000000172</v>
       </c>
     </row>
     <row r="688">
@@ -5933,7 +5933,7 @@
         <v>171.5</v>
       </c>
       <c r="B688" t="n">
-        <v>50000.00000000164</v>
+        <v>50000.00000000171</v>
       </c>
     </row>
     <row r="689">
@@ -5941,7 +5941,7 @@
         <v>171.75</v>
       </c>
       <c r="B689" t="n">
-        <v>50000.00000000164</v>
+        <v>50000.00000000173</v>
       </c>
     </row>
     <row r="690">
@@ -5949,7 +5949,7 @@
         <v>172</v>
       </c>
       <c r="B690" t="n">
-        <v>50000.00000000167</v>
+        <v>50000.00000000174</v>
       </c>
     </row>
     <row r="691">
@@ -5957,7 +5957,7 @@
         <v>172.25</v>
       </c>
       <c r="B691" t="n">
-        <v>50000.00000000166</v>
+        <v>50000.00000000171</v>
       </c>
     </row>
     <row r="692">
@@ -5965,7 +5965,7 @@
         <v>172.5</v>
       </c>
       <c r="B692" t="n">
-        <v>50000.00000000164</v>
+        <v>50000.00000000174</v>
       </c>
     </row>
     <row r="693">
@@ -5973,7 +5973,7 @@
         <v>172.75</v>
       </c>
       <c r="B693" t="n">
-        <v>50000.00000000164</v>
+        <v>50000.00000000171</v>
       </c>
     </row>
     <row r="694">
@@ -5981,7 +5981,7 @@
         <v>173</v>
       </c>
       <c r="B694" t="n">
-        <v>50000.00000000164</v>
+        <v>50000.00000000175</v>
       </c>
     </row>
     <row r="695">
@@ -5989,7 +5989,7 @@
         <v>173.25</v>
       </c>
       <c r="B695" t="n">
-        <v>50000.00000000162</v>
+        <v>50000.00000000172</v>
       </c>
     </row>
     <row r="696">
@@ -5997,7 +5997,7 @@
         <v>173.5</v>
       </c>
       <c r="B696" t="n">
-        <v>50000.00000000167</v>
+        <v>50000.00000000174</v>
       </c>
     </row>
     <row r="697">
